--- a/Init.xlsx
+++ b/Init.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="662" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
     <sheet name="chemical_bond" sheetId="1" r:id="rId2"/>
     <sheet name="molecule" sheetId="2" r:id="rId3"/>
     <sheet name="chemical_equation" sheetId="5" r:id="rId4"/>
-    <sheet name="biochemical_reaction" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="biochemical_reaction" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$81</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="580">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2071,6 +2072,85 @@
   </si>
   <si>
     <t>{'H+','NO3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaO+H2O=Ca(OH)2</t>
+  </si>
+  <si>
+    <t>NH3+C=HCN+H2</t>
+  </si>
+  <si>
+    <t>2*H2+O2=2*H2O</t>
+  </si>
+  <si>
+    <t>C+O2=CO2</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>Ca(OH)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca(OH)2+CO2=CaCO3+H2O</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3.4H2O=NH3+4*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2105,7 +2185,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2118,8 +2198,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2127,11 +2219,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2165,6 +2272,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2183,7 +2296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2225,7 +2338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2260,7 +2373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2475,18 +2588,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="8.75" style="4"/>
-    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="16.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>505</v>
       </c>
@@ -2512,7 +2625,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2538,7 +2651,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2564,7 +2677,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2590,7 +2703,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2616,7 +2729,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2642,7 +2755,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2668,7 +2781,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2694,7 +2807,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2720,7 +2833,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2746,7 +2859,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2772,7 +2885,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2798,7 +2911,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2824,7 +2937,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2850,7 +2963,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2876,7 +2989,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2902,7 +3015,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2928,7 +3041,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2954,7 +3067,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2980,7 +3093,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3006,7 +3119,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3032,7 +3145,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3058,7 +3171,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3084,7 +3197,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3110,7 +3223,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3136,7 +3249,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3162,7 +3275,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3188,7 +3301,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3214,7 +3327,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3240,7 +3353,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3266,7 +3379,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3292,7 +3405,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3318,7 +3431,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3344,7 +3457,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3370,7 +3483,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3396,7 +3509,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3422,7 +3535,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3448,7 +3561,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3474,7 +3587,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>47</v>
       </c>
@@ -3500,7 +3613,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>53</v>
       </c>
@@ -3526,7 +3639,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>54</v>
       </c>
@@ -3552,7 +3665,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>74</v>
       </c>
@@ -3578,7 +3691,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>78</v>
       </c>
@@ -3604,7 +3717,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>79</v>
       </c>
@@ -3630,7 +3743,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>80</v>
       </c>
@@ -3656,7 +3769,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>82</v>
       </c>
@@ -3682,7 +3795,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>86</v>
       </c>
@@ -3708,7 +3821,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>92</v>
       </c>
@@ -3746,14 +3859,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -3761,7 +3874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -3769,7 +3882,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>407</v>
       </c>
@@ -3777,7 +3890,7 @@
         <v>514.63200000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>408</v>
       </c>
@@ -3785,7 +3898,7 @@
         <v>372.37600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>409</v>
       </c>
@@ -3793,7 +3906,7 @@
         <v>543.92000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>406</v>
       </c>
@@ -3801,7 +3914,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>457</v>
       </c>
@@ -3809,7 +3922,7 @@
         <v>212.5472</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>458</v>
       </c>
@@ -3817,7 +3930,7 @@
         <v>401.66399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>427</v>
       </c>
@@ -3825,7 +3938,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>428</v>
       </c>
@@ -3833,7 +3946,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -3841,7 +3954,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -3849,7 +3962,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -3857,7 +3970,7 @@
         <v>193.87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -3865,7 +3978,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -3873,7 +3986,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3881,7 +3994,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -3889,7 +4002,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -3897,7 +4010,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
@@ -3905,7 +4018,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>442</v>
       </c>
@@ -3913,7 +4026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>410</v>
       </c>
@@ -3921,7 +4034,7 @@
         <v>460.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>431</v>
       </c>
@@ -3929,7 +4042,7 @@
         <v>426.76800000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>412</v>
       </c>
@@ -3937,7 +4050,7 @@
         <v>552.28800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>411</v>
       </c>
@@ -3945,7 +4058,7 @@
         <v>418.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
@@ -3953,7 +4066,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -3961,7 +4074,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +4082,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -3977,7 +4090,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -3985,7 +4098,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3993,7 +4106,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
@@ -4001,7 +4114,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>432</v>
       </c>
@@ -4009,7 +4122,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -4017,7 +4130,7 @@
         <v>242.58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4025,7 +4138,7 @@
         <v>431.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
@@ -4033,7 +4146,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -4041,7 +4154,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -4049,7 +4162,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -4057,7 +4170,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
@@ -4065,7 +4178,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4073,7 +4186,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>413</v>
       </c>
@@ -4081,7 +4194,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>460</v>
       </c>
@@ -4089,7 +4202,7 @@
         <v>368.19200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>461</v>
       </c>
@@ -4097,7 +4210,7 @@
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>434</v>
       </c>
@@ -4105,7 +4218,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>435</v>
       </c>
@@ -4113,7 +4226,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>414</v>
       </c>
@@ -4121,7 +4234,7 @@
         <v>397.48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>462</v>
       </c>
@@ -4129,7 +4242,7 @@
         <v>313.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -4137,7 +4250,7 @@
         <v>156.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -4145,7 +4258,7 @@
         <v>568.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>420</v>
       </c>
@@ -4153,7 +4266,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -4161,7 +4274,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -4169,7 +4282,7 @@
         <v>498.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>463</v>
       </c>
@@ -4177,7 +4290,7 @@
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -4185,7 +4298,7 @@
         <v>298.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -4193,7 +4306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>481</v>
       </c>
@@ -4201,7 +4314,7 @@
         <v>50.207999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
@@ -4209,7 +4322,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -4217,7 +4330,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -4225,7 +4338,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -4233,7 +4346,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>415</v>
       </c>
@@ -4241,7 +4354,7 @@
         <v>338.904</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -4249,7 +4362,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>464</v>
       </c>
@@ -4257,7 +4370,7 @@
         <v>573.20799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -4265,7 +4378,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -4273,7 +4386,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>212</v>
       </c>
@@ -4281,7 +4394,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>416</v>
       </c>
@@ -4289,7 +4402,7 @@
         <v>422.584</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>417</v>
       </c>
@@ -4297,7 +4410,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>465</v>
       </c>
@@ -4305,7 +4418,7 @@
         <v>259.40800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>466</v>
       </c>
@@ -4313,7 +4426,7 @@
         <v>564.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>467</v>
       </c>
@@ -4321,7 +4434,7 @@
         <v>234.304</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>404</v>
       </c>
@@ -4329,7 +4442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -4337,7 +4450,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -4345,7 +4458,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
@@ -4353,7 +4466,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -4361,7 +4474,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -4369,7 +4482,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -4377,7 +4490,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>127</v>
       </c>
@@ -4385,7 +4498,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>418</v>
       </c>
@@ -4393,7 +4506,7 @@
         <v>380.74400000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>419</v>
       </c>
@@ -4401,7 +4514,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>423</v>
       </c>
@@ -4409,7 +4522,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4417,7 +4530,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -4425,7 +4538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -4433,7 +4546,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -4441,7 +4554,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>430</v>
       </c>
@@ -4449,7 +4562,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>436</v>
       </c>
@@ -4457,7 +4570,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4465,7 +4578,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -4473,7 +4586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -4481,7 +4594,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>424</v>
       </c>
@@ -4489,7 +4602,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>137</v>
       </c>
@@ -4497,7 +4610,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>128</v>
       </c>
@@ -4505,7 +4618,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>479</v>
       </c>
@@ -4513,7 +4626,7 @@
         <v>297.06400000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>480</v>
       </c>
@@ -4521,7 +4634,7 @@
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -4529,7 +4642,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -4537,7 +4650,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -4545,7 +4658,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -4553,7 +4666,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -4561,7 +4674,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -4569,7 +4682,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -4577,7 +4690,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>441</v>
       </c>
@@ -4585,7 +4698,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>139</v>
       </c>
@@ -4593,7 +4706,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>140</v>
       </c>
@@ -4601,7 +4714,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>141</v>
       </c>
@@ -4609,7 +4722,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>143</v>
       </c>
@@ -4617,7 +4730,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>144</v>
       </c>
@@ -4625,7 +4738,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>422</v>
       </c>
@@ -4633,7 +4746,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>145</v>
       </c>
@@ -4641,7 +4754,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>421</v>
       </c>
@@ -4649,7 +4762,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -4657,7 +4770,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -4665,7 +4778,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -4673,7 +4786,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -4681,7 +4794,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>425</v>
       </c>
@@ -4689,7 +4802,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -4697,7 +4810,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>429</v>
       </c>
@@ -4705,7 +4818,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>426</v>
       </c>
@@ -4713,7 +4826,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
@@ -4721,7 +4834,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>142</v>
       </c>
@@ -4729,7 +4842,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -4737,7 +4850,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>476</v>
       </c>
@@ -4745,7 +4858,7 @@
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>477</v>
       </c>
@@ -4753,7 +4866,7 @@
         <v>439.32</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>478</v>
       </c>
@@ -4761,7 +4874,7 @@
         <v>652.70400000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>474</v>
       </c>
@@ -4769,7 +4882,7 @@
         <v>748.93600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>475</v>
       </c>
@@ -4777,7 +4890,7 @@
         <v>560.65600000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>472</v>
       </c>
@@ -4785,7 +4898,7 @@
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>473</v>
       </c>
@@ -4793,7 +4906,7 @@
         <v>661.072</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>471</v>
       </c>
@@ -4801,7 +4914,7 @@
         <v>129.70400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>468</v>
       </c>
@@ -4809,7 +4922,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>469</v>
       </c>
@@ -4817,7 +4930,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>470</v>
       </c>
@@ -4825,7 +4938,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>443</v>
       </c>
@@ -4833,7 +4946,7 @@
         <v>158.99200000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>444</v>
       </c>
@@ -4841,7 +4954,7 @@
         <v>188.28</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>445</v>
       </c>
@@ -4849,7 +4962,7 @@
         <v>215.476</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>459</v>
       </c>
@@ -4857,7 +4970,7 @@
         <v>292.88</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>502</v>
       </c>
@@ -4865,7 +4978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
@@ -4873,7 +4986,7 @@
         <v>190.37200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>447</v>
       </c>
@@ -4881,7 +4994,7 @@
         <v>236.81790000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>448</v>
       </c>
@@ -4889,7 +5002,7 @@
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>449</v>
       </c>
@@ -4897,7 +5010,7 @@
         <v>49.371200000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>450</v>
       </c>
@@ -4905,7 +5018,7 @@
         <v>104.60000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>331</v>
       </c>
@@ -4913,7 +5026,7 @@
         <v>83.846999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>451</v>
       </c>
@@ -4921,7 +5034,7 @@
         <v>72.383200000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>452</v>
       </c>
@@ -4929,7 +5042,7 @@
         <v>242.672</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>453</v>
       </c>
@@ -4937,7 +5050,7 @@
         <v>303.81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>454</v>
       </c>
@@ -4957,26 +5070,26 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -5005,7 +5118,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
@@ -5034,7 +5147,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -5063,7 +5176,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>262</v>
       </c>
@@ -5092,7 +5205,7 @@
         <v>0.66109061402221958</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>246</v>
       </c>
@@ -5121,7 +5234,7 @@
         <v>0.79606891016022852</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>245</v>
       </c>
@@ -5150,7 +5263,7 @@
         <v>0.58606651629604467</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>278</v>
       </c>
@@ -5179,7 +5292,7 @@
         <v>0.78789131518402311</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>195</v>
       </c>
@@ -5208,7 +5321,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -5237,7 +5350,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>188</v>
       </c>
@@ -5266,7 +5379,7 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>398</v>
       </c>
@@ -5295,7 +5408,7 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>187</v>
       </c>
@@ -5324,7 +5437,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>446</v>
       </c>
@@ -5353,7 +5466,7 @@
         <v>0.57654068001231196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>263</v>
       </c>
@@ -5382,7 +5495,7 @@
         <v>0.62022216920268813</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>498</v>
       </c>
@@ -5411,7 +5524,7 @@
         <v>1.6497880620837919</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>234</v>
       </c>
@@ -5440,7 +5553,7 @@
         <v>1.4158377790716348</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>236</v>
       </c>
@@ -5469,7 +5582,7 @@
         <v>1.1353563099031463</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>235</v>
       </c>
@@ -5498,7 +5611,7 @@
         <v>0.8791228488246472</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>231</v>
       </c>
@@ -5527,7 +5640,7 @@
         <v>0.72243535324415098</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>250</v>
       </c>
@@ -5556,7 +5669,7 @@
         <v>0.87863999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>232</v>
       </c>
@@ -5585,7 +5698,7 @@
         <v>0.57983621973010036</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>233</v>
       </c>
@@ -5614,7 +5727,7 @@
         <v>1.3959124382185175</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>189</v>
       </c>
@@ -5643,7 +5756,7 @@
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>255</v>
       </c>
@@ -5672,7 +5785,7 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -5701,7 +5814,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -5730,7 +5843,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
@@ -5759,7 +5872,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -5788,7 +5901,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>191</v>
       </c>
@@ -5817,7 +5930,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>266</v>
       </c>
@@ -5846,7 +5959,7 @@
         <v>0.62075619203401167</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
@@ -5875,7 +5988,7 @@
         <v>0.82389999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>190</v>
       </c>
@@ -5904,7 +6017,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>264</v>
       </c>
@@ -5933,7 +6046,7 @@
         <v>1.6420837840585196</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>265</v>
       </c>
@@ -5962,7 +6075,7 @@
         <v>1.940758400609909</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -5991,7 +6104,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>55</v>
       </c>
@@ -6020,7 +6133,7 @@
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
@@ -6049,7 +6162,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -6078,7 +6191,7 @@
         <v>0.79458000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -6107,7 +6220,7 @@
         <v>0.5697879031834302</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>553</v>
       </c>
@@ -6136,7 +6249,7 @@
         <v>3.222</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>352</v>
       </c>
@@ -6165,7 +6278,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>251</v>
       </c>
@@ -6194,7 +6307,7 @@
         <v>5.2275000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>193</v>
       </c>
@@ -6223,7 +6336,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>267</v>
       </c>
@@ -6252,7 +6365,7 @@
         <v>0.93842356714859831</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>242</v>
       </c>
@@ -6281,7 +6394,7 @@
         <v>0.88783223074323669</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>237</v>
       </c>
@@ -6310,7 +6423,7 @@
         <v>1.0803616347544793</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>240</v>
       </c>
@@ -6339,7 +6452,7 @@
         <v>1.4942978880056739</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>243</v>
       </c>
@@ -6368,7 +6481,7 @@
         <v>1.0849318506974142</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -6397,7 +6510,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>238</v>
       </c>
@@ -6426,7 +6539,7 @@
         <v>1.7121280264193122</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>239</v>
       </c>
@@ -6455,7 +6568,7 @@
         <v>1.0565045108229185</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>241</v>
       </c>
@@ -6484,7 +6597,7 @@
         <v>1.4914384287497624</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>211</v>
       </c>
@@ -6513,7 +6626,7 @@
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>244</v>
       </c>
@@ -6542,7 +6655,7 @@
         <v>1.7298136019301498</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>331</v>
       </c>
@@ -6571,7 +6684,7 @@
         <v>0.6391125033813938</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>261</v>
       </c>
@@ -6600,7 +6713,7 @@
         <v>0.71663173855209439</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
@@ -6629,7 +6742,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>230</v>
       </c>
@@ -6658,7 +6771,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>268</v>
       </c>
@@ -6687,7 +6800,7 @@
         <v>1.9581211980839592</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>338</v>
       </c>
@@ -6716,7 +6829,7 @@
         <v>1.5784756084082265</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>339</v>
       </c>
@@ -6745,7 +6858,7 @@
         <v>1.9432352494828293</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
@@ -6774,7 +6887,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>48</v>
       </c>
@@ -6803,7 +6916,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>403</v>
       </c>
@@ -6832,7 +6945,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>247</v>
       </c>
@@ -6861,7 +6974,7 @@
         <v>1.2435766847482452</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>249</v>
       </c>
@@ -6890,7 +7003,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>163</v>
       </c>
@@ -6919,7 +7032,7 @@
         <v>1.1367072050884368</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>248</v>
       </c>
@@ -6948,7 +7061,7 @@
         <v>1.1176930318083564</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>229</v>
       </c>
@@ -6977,7 +7090,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
@@ -7006,7 +7119,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -7035,7 +7148,7 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>40</v>
       </c>
@@ -7064,7 +7177,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>41</v>
       </c>
@@ -7093,7 +7206,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
@@ -7122,7 +7235,7 @@
         <v>0.64557633195798869</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>42</v>
       </c>
@@ -7151,7 +7264,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>196</v>
       </c>
@@ -7180,7 +7293,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>194</v>
       </c>
@@ -7209,7 +7322,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>156</v>
       </c>
@@ -7238,7 +7351,7 @@
         <v>0.7527600000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>269</v>
       </c>
@@ -7267,7 +7380,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>56</v>
       </c>
@@ -7296,7 +7409,7 @@
         <v>0.83640000000000014</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>162</v>
       </c>
@@ -7325,7 +7438,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>532</v>
       </c>
@@ -7352,7 +7465,7 @@
       </c>
       <c r="I82" s="11"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>536</v>
       </c>
@@ -7386,21 +7499,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -7411,54 +7524,62 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B2" s="5">
-        <v>1.7399999999999999E-10</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B3" s="5">
-        <v>8.7999999999999993E-30</v>
+        <v>8.7999999999999994E-18</v>
       </c>
       <c r="C3" s="1">
         <v>18.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B4" s="5">
-        <v>9.1799999999999995E-32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.1800000000000002E-20</v>
+      </c>
+      <c r="C4" s="20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B5" s="6">
-        <v>415000000000</v>
+        <v>41500000000</v>
       </c>
       <c r="C5" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <v>3570000000</v>
+      </c>
+      <c r="C6" s="20">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>176</v>
       </c>
@@ -7469,53 +7590,84 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="6">
+        <v>7.3500000000000005E-11</v>
+      </c>
+      <c r="C8" s="20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B9" s="6">
-        <v>4.1999999999999999E-12</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="C9" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
+        <v>1.5699999999999999E-18</v>
+      </c>
+      <c r="C10" s="20">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="6">
+        <v>6.2899999999999998E-19</v>
+      </c>
+      <c r="C11" s="20">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="6">
+        <v>3.0700000000000003E-10</v>
+      </c>
+      <c r="C12" s="20">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <v>110000</v>
+      </c>
+      <c r="C13" s="20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="6">
+        <v>492</v>
+      </c>
+      <c r="C14" s="20">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>180</v>
       </c>
@@ -7526,79 +7678,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="6">
-        <v>1.38E-12</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="C16" s="1">
         <v>18.62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>494</v>
       </c>
       <c r="B17" s="6">
-        <v>3.2999999999999998E-39</v>
+        <v>3.3000000000000002E-28</v>
       </c>
       <c r="C17" s="1">
         <v>-4.41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="6">
-        <v>1.88E-33</v>
+        <v>1.88E-22</v>
       </c>
       <c r="C18" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B19" s="6">
-        <v>1.1000000000000001E-11</v>
+        <v>1100000000</v>
       </c>
       <c r="C19" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="6">
-        <v>4.3999999999999997E-18</v>
+        <v>440</v>
       </c>
       <c r="C20" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="6">
+        <v>68700</v>
+      </c>
+      <c r="C21" s="20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <v>5270</v>
+      </c>
+      <c r="C22" s="20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <v>3960000</v>
+      </c>
+      <c r="C23" s="20">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="B24" s="6">
+        <v>274000000</v>
+      </c>
+      <c r="C24" s="20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B25" s="6">
+        <v>156000000</v>
+      </c>
+      <c r="C25" s="20">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7610,23 +7797,241 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="18">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>-2</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -7643,17 +8048,17 @@
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>540</v>
       </c>
@@ -7668,37 +8073,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>549</v>
       </c>
@@ -7706,5 +8111,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Init.xlsx
+++ b/Init.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="662" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$81</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -785,10 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>specific_heat_capacity kJ/(mol*K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Li</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2151,6 +2147,10 @@
   </si>
   <si>
     <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_heat_capacity kJ/(kg*K)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2338,7 +2338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2373,7 +2373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2588,20 +2588,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="8.7265625" style="4"/>
-    <col min="8" max="8" width="16.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="4"/>
+    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>57</v>
@@ -2613,19 +2613,19 @@
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2645,13 +2645,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2697,13 +2697,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2723,13 +2723,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2749,13 +2749,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2775,13 +2775,13 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2801,13 +2801,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2827,13 +2827,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2853,13 +2853,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2905,13 +2905,13 @@
         <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2931,13 +2931,13 @@
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2957,13 +2957,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2983,13 +2983,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3009,13 +3009,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3035,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3061,13 +3061,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3090,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3113,13 +3113,13 @@
         <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3139,18 +3139,18 @@
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -3165,18 +3165,18 @@
         <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -3191,18 +3191,18 @@
         <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -3217,18 +3217,18 @@
         <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -3243,18 +3243,18 @@
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -3269,13 +3269,13 @@
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3295,13 +3295,13 @@
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3321,18 +3321,18 @@
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -3347,13 +3347,13 @@
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3373,13 +3373,13 @@
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3399,18 +3399,18 @@
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -3425,18 +3425,18 @@
         <v>4</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
@@ -3451,18 +3451,18 @@
         <v>4</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -3477,13 +3477,13 @@
         <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3503,13 +3503,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3529,18 +3529,18 @@
         <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -3558,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3581,18 +3581,18 @@
         <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" s="1">
         <v>47</v>
@@ -3607,13 +3607,13 @@
         <v>5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>53</v>
       </c>
@@ -3633,18 +3633,18 @@
         <v>5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="1">
         <v>54</v>
@@ -3662,15 +3662,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C42" s="1">
         <v>74</v>
@@ -3685,18 +3685,18 @@
         <v>6</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C43" s="1">
         <v>78</v>
@@ -3711,18 +3711,18 @@
         <v>6</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C44" s="1">
         <v>79</v>
@@ -3737,18 +3737,18 @@
         <v>6</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C45" s="1">
         <v>80</v>
@@ -3763,13 +3763,13 @@
         <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>82</v>
       </c>
@@ -3789,18 +3789,18 @@
         <v>6</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C47" s="1">
         <v>86</v>
@@ -3818,15 +3818,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C48" s="1">
         <v>92</v>
@@ -3841,7 +3841,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3859,14 +3859,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -3882,71 +3882,71 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="14">
         <v>514.63200000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="14">
         <v>372.37600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="14">
         <v>543.92000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" s="14">
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" s="14">
         <v>212.5472</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B8" s="14">
         <v>401.66399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B10" s="14">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>193.87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
@@ -4018,47 +4018,47 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B20" s="14">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="14">
         <v>460.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B22" s="14">
         <v>426.76800000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" s="14">
         <v>552.28800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B24" s="14">
         <v>418.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
@@ -4114,15 +4114,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B32" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>242.58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>431.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4186,63 +4186,63 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B41" s="14">
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B42" s="14">
         <v>368.19200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B43" s="14">
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B44" s="14">
         <v>812</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B45" s="14">
         <v>937</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B46" s="14">
         <v>397.48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B47" s="14">
         <v>313.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>156.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -4258,15 +4258,15 @@
         <v>568.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B50" s="14">
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -4282,15 +4282,15 @@
         <v>498.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B53" s="14">
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>298.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -4306,15 +4306,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B56" s="14">
         <v>50.207999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -4346,15 +4346,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B61" s="14">
         <v>338.904</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -4362,15 +4362,15 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B63" s="14">
         <v>573.20799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -4386,63 +4386,63 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66" s="14">
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B67" s="14">
         <v>422.584</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B68" s="14">
         <v>376.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B69" s="14">
         <v>259.40800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B70" s="14">
         <v>564.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B71" s="14">
         <v>234.304</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B72" s="14">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>127</v>
       </c>
@@ -4498,31 +4498,31 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B80" s="14">
         <v>380.74400000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B81" s="14">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B82" s="14">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -4554,23 +4554,23 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B87" s="14">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B88" s="14">
         <v>946</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -4594,15 +4594,15 @@
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B92" s="14">
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>137</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>128</v>
       </c>
@@ -4618,23 +4618,23 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B95" s="14">
         <v>297.06400000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B96" s="14">
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -4690,15 +4690,15 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B104" s="14">
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>139</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>140</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>141</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>143</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>144</v>
       </c>
@@ -4738,15 +4738,15 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B110" s="14">
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>145</v>
       </c>
@@ -4754,15 +4754,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B112" s="14">
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -4794,15 +4794,15 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B117" s="14">
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -4810,23 +4810,23 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B119" s="14">
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B120" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>142</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -4850,135 +4850,135 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B124" s="14">
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B125" s="14">
         <v>439.32</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B126" s="14">
         <v>652.70400000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B127" s="14">
         <v>748.93600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B128" s="14">
         <v>560.65600000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B129" s="14">
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B130" s="14">
         <v>661.072</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B131" s="14">
         <v>129.70400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B132" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B133" s="14">
         <v>376.56</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B134" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B135" s="14">
         <v>158.99200000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B136" s="14">
         <v>188.28</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B137" s="14">
         <v>215.476</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B138" s="14">
         <v>292.88</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B139" s="14">
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
@@ -4986,73 +4986,73 @@
         <v>190.37200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B141" s="14">
         <v>236.81790000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B142" s="14">
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B143" s="14">
         <v>49.371200000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B144" s="14">
         <v>104.60000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B145" s="14">
         <v>83.846999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B146" s="14">
         <v>72.383200000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B147" s="14">
         <v>242.672</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B148" s="14">
         <v>303.81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B149" s="14">
         <v>74.328000000000003</v>
@@ -5070,26 +5070,26 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
@@ -5100,10 +5100,10 @@
         <v>77</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>184</v>
@@ -5115,18 +5115,18 @@
         <v>200</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>175</v>
@@ -5147,15 +5147,15 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>175</v>
@@ -5176,15 +5176,15 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>175</v>
@@ -5205,18 +5205,18 @@
         <v>0.66109061402221958</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="2">
         <v>2400</v>
@@ -5234,18 +5234,18 @@
         <v>0.79606891016022852</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" s="2">
         <v>2440</v>
@@ -5263,18 +5263,18 @@
         <v>0.58606651629604467</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="2">
         <v>3000</v>
@@ -5292,15 +5292,15 @@
         <v>0.78789131518402311</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>175</v>
@@ -5321,7 +5321,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -5350,15 +5350,15 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>175</v>
@@ -5379,15 +5379,15 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>175</v>
@@ -5408,15 +5408,15 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>175</v>
@@ -5431,21 +5431,21 @@
         <v>78</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" s="10">
         <v>2.44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>175</v>
@@ -5466,15 +5466,15 @@
         <v>0.57654068001231196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>175</v>
@@ -5495,18 +5495,18 @@
         <v>0.62022216920268813</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="E15" s="2">
         <v>2169</v>
@@ -5524,18 +5524,18 @@
         <v>1.6497880620837919</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="E16" s="2">
         <v>2240</v>
@@ -5553,18 +5553,18 @@
         <v>1.4158377790716348</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="E17" s="2">
         <v>3140</v>
@@ -5582,18 +5582,18 @@
         <v>1.1353563099031463</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" s="2">
         <v>2200</v>
@@ -5611,18 +5611,18 @@
         <v>0.8791228488246472</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="E19" s="2">
         <v>1086</v>
@@ -5640,18 +5640,18 @@
         <v>0.72243535324415098</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E20" s="2">
         <v>2930</v>
@@ -5669,18 +5669,18 @@
         <v>0.87863999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="E21" s="2">
         <v>3180</v>
@@ -5698,18 +5698,18 @@
         <v>0.57983621973010036</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="E22" s="2">
         <v>2360</v>
@@ -5727,15 +5727,15 @@
         <v>1.3959124382185175</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>175</v>
@@ -5756,15 +5756,15 @@
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>175</v>
@@ -5785,7 +5785,7 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -5843,12 +5843,12 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>103</v>
@@ -5872,7 +5872,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -5901,15 +5901,15 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>175</v>
@@ -5930,15 +5930,15 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>175</v>
@@ -5959,7 +5959,7 @@
         <v>0.62075619203401167</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
@@ -5988,15 +5988,15 @@
         <v>0.82389999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>175</v>
@@ -6017,15 +6017,15 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>175</v>
@@ -6046,15 +6046,15 @@
         <v>1.6420837840585196</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>175</v>
@@ -6075,7 +6075,7 @@
         <v>1.940758400609909</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>55</v>
       </c>
@@ -6127,24 +6127,24 @@
         <v>100</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I36" s="10">
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="E37" s="2">
         <v>1.1890000000000001</v>
@@ -6162,18 +6162,18 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="E38" s="2">
         <v>1.4770000000000001</v>
@@ -6191,7 +6191,7 @@
         <v>0.79458000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>174</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>207</v>
@@ -6214,24 +6214,24 @@
         <v>26</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I39" s="11">
         <v>0.5697879031834302</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="C40" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="E40" s="2">
         <v>1420</v>
@@ -6243,24 +6243,24 @@
         <v>83</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I40" s="11">
         <v>3.222</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="E41" s="2">
         <v>1874</v>
@@ -6272,21 +6272,21 @@
         <v>261</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I41" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>175</v>
@@ -6307,15 +6307,15 @@
         <v>5.2275000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>175</v>
@@ -6336,15 +6336,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>175</v>
@@ -6365,18 +6365,18 @@
         <v>0.93842356714859831</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="E45" s="2">
         <v>2170</v>
@@ -6394,18 +6394,18 @@
         <v>0.88783223074323669</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="E46" s="2">
         <v>2430</v>
@@ -6423,18 +6423,18 @@
         <v>1.0803616347544793</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="E47" s="2">
         <v>2440</v>
@@ -6452,18 +6452,18 @@
         <v>1.4942978880056739</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="E48" s="2">
         <v>2564</v>
@@ -6481,7 +6481,7 @@
         <v>1.0849318506974142</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -6510,18 +6510,18 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="E50" s="2">
         <v>2320</v>
@@ -6539,18 +6539,18 @@
         <v>1.7121280264193122</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E51" s="2">
         <v>2170</v>
@@ -6568,18 +6568,18 @@
         <v>1.0565045108229185</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="E52" s="2">
         <v>2044</v>
@@ -6597,15 +6597,15 @@
         <v>1.4914384287497624</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>175</v>
@@ -6626,18 +6626,18 @@
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="E54" s="2">
         <v>2110</v>
@@ -6655,15 +6655,15 @@
         <v>1.7298136019301498</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="C55" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>175</v>
@@ -6684,15 +6684,15 @@
         <v>0.6391125033813938</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>175</v>
@@ -6713,7 +6713,7 @@
         <v>0.71663173855209439</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>39</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>87</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>201</v>
@@ -6742,15 +6742,15 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>175</v>
@@ -6771,15 +6771,15 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>175</v>
@@ -6800,18 +6800,18 @@
         <v>1.9581211980839592</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="E60" s="2">
         <v>2532</v>
@@ -6829,18 +6829,18 @@
         <v>1.5784756084082265</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="C61" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="E61" s="2">
         <v>2159</v>
@@ -6858,7 +6858,7 @@
         <v>1.9432352494828293</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>48</v>
       </c>
@@ -6916,18 +6916,18 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="E64" s="2">
         <v>910</v>
@@ -6939,24 +6939,24 @@
         <v>36</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I64" s="10">
         <v>4.3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="E65" s="2">
         <v>1527</v>
@@ -6974,18 +6974,18 @@
         <v>1.2435766847482452</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E66" s="2">
         <v>1803</v>
@@ -7003,18 +7003,18 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E67" s="2">
         <v>1580</v>
@@ -7032,18 +7032,18 @@
         <v>1.1367072050884368</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="E68" s="2">
         <v>2200</v>
@@ -7061,18 +7061,18 @@
         <v>1.1176930318083564</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="E69" s="2">
         <v>1803</v>
@@ -7090,7 +7090,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>40</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>41</v>
       </c>
@@ -7206,12 +7206,12 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>164</v>
@@ -7235,7 +7235,7 @@
         <v>0.64557633195798869</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>42</v>
       </c>
@@ -7264,12 +7264,12 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>175</v>
@@ -7293,12 +7293,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>175</v>
@@ -7322,12 +7322,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>157</v>
@@ -7351,15 +7351,15 @@
         <v>0.7527600000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>175</v>
@@ -7380,7 +7380,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>56</v>
       </c>
@@ -7409,12 +7409,12 @@
         <v>0.83640000000000014</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>165</v>
@@ -7438,15 +7438,15 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>175</v>
@@ -7465,15 +7465,15 @@
       </c>
       <c r="I82" s="11"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>175</v>
@@ -7505,15 +7505,15 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -7524,9 +7524,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2" s="5">
         <v>174</v>
@@ -7535,9 +7535,9 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B3" s="5">
         <v>8.7999999999999994E-18</v>
@@ -7546,9 +7546,9 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B4" s="5">
         <v>9.1800000000000002E-20</v>
@@ -7557,7 +7557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>177</v>
       </c>
@@ -7568,9 +7568,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="6">
         <v>3570000000</v>
@@ -7579,7 +7579,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>176</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>178</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -7612,9 +7612,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B10" s="6">
         <v>1.5699999999999999E-18</v>
@@ -7623,9 +7623,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B11" s="6">
         <v>6.2899999999999998E-19</v>
@@ -7634,9 +7634,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B12" s="6">
         <v>3.0700000000000003E-10</v>
@@ -7645,9 +7645,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13" s="6">
         <v>110000</v>
@@ -7656,9 +7656,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B14" s="6">
         <v>492</v>
@@ -7667,7 +7667,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>180</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>159</v>
       </c>
@@ -7689,9 +7689,9 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B17" s="6">
         <v>3.3000000000000002E-28</v>
@@ -7700,7 +7700,7 @@
         <v>-4.41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>181</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -7744,9 +7744,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="6">
         <v>5270</v>
@@ -7755,9 +7755,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B23" s="6">
         <v>3960000</v>
@@ -7766,7 +7766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>199</v>
       </c>
@@ -7777,9 +7777,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" s="6">
         <v>156000000</v>
@@ -7803,58 +7803,58 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.25" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="B4" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -7862,9 +7862,9 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -7872,9 +7872,9 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="18">
         <v>-1</v>
@@ -7884,9 +7884,9 @@
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B8" s="18">
         <v>-1</v>
@@ -7900,9 +7900,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18">
@@ -7912,7 +7912,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>33</v>
       </c>
@@ -7926,9 +7926,9 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18">
@@ -7940,9 +7940,9 @@
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -7954,9 +7954,9 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
@@ -7968,9 +7968,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -7982,9 +7982,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19">
@@ -7994,9 +7994,9 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -8021,17 +8021,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -8039,28 +8039,28 @@
         <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="C4" s="1">
         <v>595</v>
@@ -8073,39 +8073,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/Init.xlsx
+++ b/Init.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
     <sheet name="chemical_bond" sheetId="1" r:id="rId2"/>
     <sheet name="molecule" sheetId="2" r:id="rId3"/>
     <sheet name="chemical_equation" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="biochemical_reaction" sheetId="6" r:id="rId6"/>
+    <sheet name="biochemical_reaction" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="559">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2071,82 +2070,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CaO+H2O=Ca(OH)2</t>
-  </si>
-  <si>
-    <t>NH3+C=HCN+H2</t>
-  </si>
-  <si>
-    <t>2*H2+O2=2*H2O</t>
-  </si>
-  <si>
-    <t>C+O2=CO2</t>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>Ca(OH)2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ca(OH)2+CO2=CaCO3+H2O</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>CaCO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NH3.4H2O=NH3+4*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2185,7 +2109,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2204,14 +2128,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2219,26 +2137,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2272,11 +2175,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5069,7 +4967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
@@ -5115,7 +5013,7 @@
         <v>200</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -7553,7 +7451,7 @@
       <c r="B4" s="5">
         <v>9.1800000000000002E-20</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>46</v>
       </c>
     </row>
@@ -7575,7 +7473,7 @@
       <c r="B6" s="6">
         <v>3570000000</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>493</v>
       </c>
     </row>
@@ -7597,7 +7495,7 @@
       <c r="B8" s="6">
         <v>7.3500000000000005E-11</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>77</v>
       </c>
     </row>
@@ -7619,7 +7517,7 @@
       <c r="B10" s="6">
         <v>1.5699999999999999E-18</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>275</v>
       </c>
     </row>
@@ -7630,7 +7528,7 @@
       <c r="B11" s="6">
         <v>6.2899999999999998E-19</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>349</v>
       </c>
     </row>
@@ -7641,7 +7539,7 @@
       <c r="B12" s="6">
         <v>3.0700000000000003E-10</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>309</v>
       </c>
     </row>
@@ -7652,7 +7550,7 @@
       <c r="B13" s="6">
         <v>110000</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>150</v>
       </c>
     </row>
@@ -7663,7 +7561,7 @@
       <c r="B14" s="6">
         <v>492</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>267</v>
       </c>
     </row>
@@ -7740,7 +7638,7 @@
       <c r="B21" s="6">
         <v>68700</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="15">
         <v>62</v>
       </c>
     </row>
@@ -7751,7 +7649,7 @@
       <c r="B22" s="6">
         <v>5270</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="15">
         <v>95</v>
       </c>
     </row>
@@ -7762,7 +7660,7 @@
       <c r="B23" s="6">
         <v>3960000</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="15">
         <v>280</v>
       </c>
     </row>
@@ -7773,18 +7671,18 @@
       <c r="B24" s="6">
         <v>274000000</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="15">
         <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="B25" s="6">
         <v>156000000</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="15">
         <v>202</v>
       </c>
     </row>
@@ -7797,227 +7695,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="18">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="B8" s="18">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18">
-        <v>-2</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="18">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Init.xlsx
+++ b/Init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$J$89</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="604">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1974,11 +1974,264 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Glucose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'C-C':5,'C-H':7,'C-O':5,'C=O':1}</t>
+    <t>C12H22O11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATP+H2O=ADP+Pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Km(mmol/L)</t>
+  </si>
+  <si>
+    <t>Kcat(1/s)</t>
+  </si>
+  <si>
+    <t>Kcat/Km L/(mmol*s)</t>
+  </si>
+  <si>
+    <t>ADP+Pi=ATP+H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*CO2+6*H2O=C6H12O6+6*O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H12O6=2*C2H5OH+2*CO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H12O6+6*H2O+6*O2=6*CO2+12*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H12O6=2*C3H6O3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaCO3+CO2+H2O=Ca(HCO3)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca(HCO3)2=CaCO3+CO2+H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HNO3</t>
+  </si>
+  <si>
+    <t>Nitric Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*HNO3=4*NO2+O2+2*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'N-O':2,'N=O':1,'O-H':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'H+','NO3-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3.4H2O=NH3+4*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_heat_capacity kJ/(kg*K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5H12O5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-C':4,'C-H':6,'C-O':6,'H-O':4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-C':5,'C-H':7,'C-O':5,'H-O':5,'C=O':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-C':10,'C-H':14,'C-O':14,'H-O':10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe(OH)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fe(OH)3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mg(OH)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isotope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ribose(核糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucose(葡萄糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fructose(果糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galactose(半乳糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugar(蔗糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maltose(麦芽糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5H10O4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deoxyribose(脱氧核糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactose(乳糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycogen(糖原)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C24H42O21</t>
+  </si>
+  <si>
+    <t>C5H10O5</t>
+  </si>
+  <si>
+    <t>Xylose(木糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starch(淀粉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellulose(纤维素)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomeride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaH2PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH2PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li3PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na3PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaH2PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgNO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C6H10O5)n</t>
+  </si>
+  <si>
+    <t>(C6H10O5)n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;ATP'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;ADP'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NADP+H2O=NADPH+O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;NADPH'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H12O6+6*O2=6*CO2+6*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme&lt;-C6H12O6'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1986,7 +2239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C12H22O11</t>
+    <t>{'enzyme&lt;-C12H22O1'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1994,87 +2247,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Disaccharide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP+H2O=ADP+Pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NADP+H2O=NADPH+O2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Km(mmol/L)</t>
-  </si>
-  <si>
-    <t>Kcat(1/s)</t>
-  </si>
-  <si>
-    <t>Kcat/Km L/(mmol*s)</t>
-  </si>
-  <si>
-    <t>ADP+Pi=ATP+H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6H12O6+6*O2=6*CO2+6*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6*CO2+6*H2O=C6H12O6+6*O2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6H12O6=2*C2H5OH+2*CO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6H12O6+6*H2O+6*O2=6*CO2+12*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6H12O6=2*C3H6O3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'C-C':10,'C-H':14,'C-O':14}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaCO3+CO2+H2O=Ca(HCO3)2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ca(HCO3)2=CaCO3+CO2+H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HNO3</t>
-  </si>
-  <si>
-    <t>Nitric Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4*HNO3=4*NO2+O2+2*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'N-O':2,'N=O':1,'O-H':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'H+','NO3-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3.4H2O=NH3+4*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific_heat_capacity kJ/(kg*K)</t>
+    <t>{'enzyme&lt;-(C6H10O5)n'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;C6H12O6'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2141,7 +2318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2176,6 +2353,9 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2480,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2497,7 +2677,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>504</v>
       </c>
@@ -2522,8 +2702,11 @@
       <c r="H1" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2549,7 +2732,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2575,7 +2758,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2601,7 +2784,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2627,7 +2810,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2653,7 +2836,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2679,7 +2862,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2705,7 +2888,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2731,7 +2914,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2757,7 +2940,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2783,7 +2966,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2809,7 +2992,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2835,7 +3018,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2861,7 +3044,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2887,7 +3070,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4965,2428 +5148,3191 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10490</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <v>962</v>
       </c>
-      <c r="G2" s="8">
+      <c r="H2" s="8">
         <v>961.78</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>483</v>
+        <v>555</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="2">
-        <v>2700</v>
-      </c>
-      <c r="F3" s="8">
-        <v>660</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2460</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>273</v>
+        <v>588</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="16">
+        <v>216</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2700</v>
+      </c>
+      <c r="G5" s="8">
+        <v>660</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2460</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2400</v>
+      </c>
+      <c r="G6" s="8">
+        <v>300</v>
+      </c>
+      <c r="H6" s="12">
+        <v>496.0949782959691</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.79606891016022852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2440</v>
+      </c>
+      <c r="G7" s="8">
+        <v>181</v>
+      </c>
+      <c r="H7" s="8">
+        <v>194</v>
+      </c>
+      <c r="I7" s="13">
+        <v>45.8</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.58606651629604467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1040</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1272</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.78789131518402311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="2">
         <v>3500</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G9" s="8">
         <v>2054</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H9" s="8">
         <v>2980</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I9" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J9" s="11">
         <v>0.66109061402221958</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2400</v>
-      </c>
-      <c r="F5" s="8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19320</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1064</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2856</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2250</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4827</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.603</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-184</v>
+      </c>
+      <c r="H12" s="8">
+        <v>-128.1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.65910000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-78.45</v>
+      </c>
+      <c r="H13" s="8">
+        <v>-56.55</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-205.1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>-191.4</v>
+      </c>
+      <c r="I14" s="13">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-101</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-34</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1550</v>
+      </c>
+      <c r="G16" s="8">
+        <v>850</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1487</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.57654068001231196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2240</v>
+      </c>
+      <c r="G17" s="8">
+        <v>580</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2850</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.4158377790716348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2930</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1339</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2591.500660908071</v>
+      </c>
+      <c r="I18" s="13">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.87863999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2169</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1449.6597093561095</v>
+      </c>
+      <c r="H19" s="12">
+        <v>741.04087466075021</v>
+      </c>
+      <c r="I19" s="13">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.6497880620837919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G20" s="12">
+        <v>571.20031885697517</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1330.8573721843211</v>
+      </c>
+      <c r="I20" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.8791228488246472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3140</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1391</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2270.4796930468456</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1.1353563099031463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G5" s="12">
-        <v>496.0949782959691</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="F23" s="2">
+        <v>2360</v>
+      </c>
+      <c r="G23" s="12">
+        <v>680.92474744321657</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1485.2530049501809</v>
+      </c>
+      <c r="I23" s="13">
+        <v>4.3030000000000004E-3</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1.3959124382185175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1086</v>
+      </c>
+      <c r="G24" s="8">
+        <v>782</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1600</v>
+      </c>
+      <c r="I24" s="13">
+        <v>74.5</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.72243535324415098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3180</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1423</v>
+      </c>
+      <c r="H25" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I25" s="9">
+        <v>74.5</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.57983621973010036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3350</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2572</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2850</v>
+      </c>
+      <c r="I26" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="11">
-        <v>0.79606891016022852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2440</v>
-      </c>
-      <c r="F6" s="8">
-        <v>181</v>
-      </c>
-      <c r="G6" s="8">
-        <v>194</v>
-      </c>
-      <c r="H6" s="13">
-        <v>45.8</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.58606651629604467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1040</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1272</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.67</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.78789131518402311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="J26" s="11">
+        <v>0.62022216920268813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="2">
-        <v>19320</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1064</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2856</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="F27" s="2">
+        <v>8960</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1083.4000000000001</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2562</v>
+      </c>
+      <c r="I27" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I8" s="10">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="J27" s="10">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="16">
+        <v>2.3999999999999999E-17</v>
+      </c>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6500</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1326</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1838.4996584390676</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.62075619203401167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="2">
-        <v>2250</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3500</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4827</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F30" s="2">
+        <v>1.554</v>
+      </c>
+      <c r="G30" s="8">
+        <v>-219.62</v>
+      </c>
+      <c r="H30" s="8">
+        <v>-188.1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.82389999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="2">
+        <v>7800</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1538</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2750</v>
+      </c>
+      <c r="I31" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I9" s="10">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.1747000000000001</v>
-      </c>
-      <c r="F10" s="8">
-        <v>-183.3</v>
-      </c>
-      <c r="G10" s="8">
-        <v>-88.6</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1.5109999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.256</v>
-      </c>
-      <c r="F11" s="8">
-        <v>-169.4</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-103.9</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1.548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="2">
-        <v>789</v>
-      </c>
-      <c r="F12" s="8">
-        <v>-114</v>
-      </c>
-      <c r="G12" s="8">
-        <v>78</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="I12" s="10">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1550</v>
-      </c>
-      <c r="F13" s="8">
-        <v>850</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1487</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.57654068001231196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3350</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2572</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2850</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.62022216920268813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2169</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1449.6597093561095</v>
-      </c>
-      <c r="G15" s="12">
-        <v>741.04087466075021</v>
-      </c>
-      <c r="H15" s="13">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1.6497880620837919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2240</v>
-      </c>
-      <c r="F16" s="8">
-        <v>580</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2850</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1.4158377790716348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3140</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1391</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2270.4796930468456</v>
-      </c>
-      <c r="H17" s="13">
-        <v>2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1.1353563099031463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2200</v>
-      </c>
-      <c r="F18" s="12">
-        <v>571.20031885697517</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1330.8573721843211</v>
-      </c>
-      <c r="H18" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0.8791228488246472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1086</v>
-      </c>
-      <c r="F19" s="8">
-        <v>782</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1600</v>
-      </c>
-      <c r="H19" s="13">
-        <v>74.5</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0.72243535324415098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2930</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1339</v>
-      </c>
-      <c r="G20" s="12">
-        <v>2591.500660908071</v>
-      </c>
-      <c r="H20" s="13">
-        <v>6.17</v>
-      </c>
-      <c r="I20" s="10">
-        <v>0.87863999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3180</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1423</v>
-      </c>
-      <c r="G21" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H21" s="9">
-        <v>74.5</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0.57983621973010036</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2360</v>
-      </c>
-      <c r="F22" s="12">
-        <v>680.92474744321657</v>
-      </c>
-      <c r="G22" s="12">
-        <v>1485.2530049501809</v>
-      </c>
-      <c r="H22" s="13">
-        <v>4.3029999999999999</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1.3959124382185175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.603</v>
-      </c>
-      <c r="F23" s="8">
-        <v>-184</v>
-      </c>
-      <c r="G23" s="8">
-        <v>-128.1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0.65910000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="F24" s="8">
-        <v>-183.3</v>
-      </c>
-      <c r="G24" s="8">
-        <v>-88.6</v>
-      </c>
-      <c r="H24" s="13">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1.7290000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="F25" s="8">
-        <v>-182.5</v>
-      </c>
-      <c r="G25" s="8">
-        <v>-161.5</v>
-      </c>
-      <c r="H25" s="13">
-        <v>2.3E-3</v>
-      </c>
-      <c r="I25" s="10">
-        <v>2.1560000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="F26" s="8">
-        <v>-101</v>
-      </c>
-      <c r="G26" s="8">
-        <v>-34</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F27" s="8">
-        <v>-205.1</v>
-      </c>
-      <c r="G27" s="8">
-        <v>-191.4</v>
-      </c>
-      <c r="H27" s="13">
-        <v>2.8E-3</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1.042</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.9770000000000001</v>
-      </c>
-      <c r="F28" s="8">
-        <v>-78.45</v>
-      </c>
-      <c r="G28" s="8">
-        <v>-56.55</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E29" s="2">
-        <v>8960</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1083.4000000000001</v>
-      </c>
-      <c r="G29" s="8">
-        <v>2562</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0.38600000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6500</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1326</v>
-      </c>
-      <c r="G30" s="12">
-        <v>1838.4996584390676</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0.62075619203401167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1.554</v>
-      </c>
-      <c r="F31" s="8">
-        <v>-219.62</v>
-      </c>
-      <c r="G31" s="8">
-        <v>-188.1</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0.82389999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J31" s="10">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>487</v>
+        <v>556</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="2">
-        <v>7800</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1538</v>
-      </c>
-      <c r="G32" s="8">
-        <v>2750</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="16">
+        <v>5.2549999999999997E-5</v>
+      </c>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>303</v>
+        <v>557</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="16">
+        <v>2.0970000000000001E-9</v>
+      </c>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="2">
         <v>5340</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G34" s="8">
         <v>1565</v>
       </c>
-      <c r="G33" s="8">
+      <c r="H34" s="8">
         <v>3414</v>
       </c>
-      <c r="H33" s="9">
+      <c r="I34" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I33" s="11">
+      <c r="J34" s="11">
         <v>1.6420837840585196</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F35" s="2">
         <v>5180</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G35" s="8">
         <v>1595</v>
       </c>
-      <c r="G34" s="12">
+      <c r="H35" s="12">
         <v>3112.247881079189</v>
       </c>
-      <c r="H34" s="9">
+      <c r="I35" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I34" s="11">
+      <c r="J35" s="11">
         <v>1.940758400609909</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F36" s="2">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G36" s="8">
         <v>-259.2</v>
       </c>
-      <c r="G35" s="8">
+      <c r="H36" s="8">
         <v>-252.77</v>
       </c>
-      <c r="H35" s="13">
+      <c r="I36" s="13">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="I35" s="10">
+      <c r="J36" s="10">
         <v>1.43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F37" s="2">
         <v>1000</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G37" s="8">
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="H37" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="I37" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I36" s="10">
+      <c r="J37" s="10">
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F38" s="2">
         <v>1.1890000000000001</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G38" s="8">
         <v>-85.5</v>
       </c>
-      <c r="G37" s="8">
+      <c r="H38" s="8">
         <v>-60.4</v>
       </c>
-      <c r="H37" s="13">
+      <c r="I38" s="13">
         <v>0.2</v>
       </c>
-      <c r="I37" s="10">
+      <c r="J38" s="10">
         <v>1.105</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1874</v>
+      </c>
+      <c r="G39" s="8">
+        <v>46</v>
+      </c>
+      <c r="H39" s="8">
+        <v>261</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B40" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F40" s="2">
         <v>1.4770000000000001</v>
       </c>
-      <c r="F38" s="8">
+      <c r="G40" s="8">
         <v>-114.2</v>
       </c>
-      <c r="G38" s="8">
+      <c r="H40" s="8">
         <v>-85</v>
       </c>
-      <c r="H38" s="13">
+      <c r="I40" s="13">
         <v>72</v>
       </c>
-      <c r="I38" s="10">
+      <c r="J40" s="10">
         <v>0.79458000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B41" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F41" s="2">
         <v>697</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G41" s="8">
         <v>-13.4</v>
       </c>
-      <c r="G39" s="8">
+      <c r="H41" s="8">
         <v>26</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="I39" s="11">
+      <c r="J41" s="11">
         <v>0.5697879031834302</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="E40" s="2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F42" s="2">
         <v>1420</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G42" s="8">
         <v>-42</v>
       </c>
-      <c r="G40" s="8">
+      <c r="H42" s="8">
         <v>83</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I40" s="11">
+      <c r="J42" s="11">
         <v>3.222</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1874</v>
-      </c>
-      <c r="F41" s="8">
-        <v>46</v>
-      </c>
-      <c r="G41" s="8">
-        <v>261</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="I41" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F43" s="2">
         <v>0.17849999999999999</v>
       </c>
-      <c r="F42" s="8">
+      <c r="G43" s="8">
         <v>-222.52</v>
       </c>
-      <c r="G42" s="8">
+      <c r="H43" s="8">
         <v>-219.52</v>
       </c>
-      <c r="H42" s="13">
+      <c r="I43" s="13">
         <v>0.6</v>
       </c>
-      <c r="I42" s="10">
+      <c r="J43" s="10">
         <v>5.2275000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F44" s="2">
         <v>1359</v>
       </c>
-      <c r="F43" s="8">
+      <c r="G44" s="8">
         <v>-39</v>
       </c>
-      <c r="G43" s="8">
+      <c r="H44" s="8">
         <v>356.7</v>
       </c>
-      <c r="H43" s="9">
+      <c r="I44" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I43" s="10">
+      <c r="J44" s="10">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F45" s="2">
         <v>862</v>
       </c>
-      <c r="F44" s="8">
+      <c r="G45" s="8">
         <v>63</v>
       </c>
-      <c r="G44" s="8">
+      <c r="H45" s="8">
         <v>770</v>
       </c>
-      <c r="H44" s="9">
+      <c r="I45" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I44" s="11">
+      <c r="J45" s="11">
         <v>0.93842356714859831</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2044</v>
+      </c>
+      <c r="G46" s="8">
+        <v>380</v>
+      </c>
+      <c r="H46" s="8">
+        <v>1324</v>
+      </c>
+      <c r="I46" s="13">
+        <v>112</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1.4914384287497624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B47" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F47" s="2">
         <v>2170</v>
       </c>
-      <c r="F45" s="12">
+      <c r="G47" s="12">
         <v>1531.1863054651058</v>
       </c>
-      <c r="G45" s="12">
+      <c r="H47" s="12">
         <v>2953.2330409237115</v>
       </c>
-      <c r="H45" s="13">
+      <c r="I47" s="13">
         <v>36.4</v>
       </c>
-      <c r="I45" s="11">
+      <c r="J47" s="11">
         <v>0.88783223074323669</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B48" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F48" s="2">
         <v>2430</v>
       </c>
-      <c r="F46" s="8">
+      <c r="G48" s="8">
         <v>891</v>
       </c>
-      <c r="G46" s="8">
+      <c r="H48" s="8">
         <v>3336</v>
       </c>
-      <c r="H46" s="13">
+      <c r="I48" s="13">
         <v>111</v>
       </c>
-      <c r="I46" s="11">
+      <c r="J48" s="11">
         <v>1.0803616347544793</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2170</v>
+      </c>
+      <c r="G49" s="8">
+        <v>292</v>
+      </c>
+      <c r="H49" s="12">
+        <v>400.07437040147806</v>
+      </c>
+      <c r="I49" s="13">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J49" s="11">
+        <v>1.0565045108229185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2564</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1380</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1380.4182120719777</v>
+      </c>
+      <c r="I50" s="13">
+        <v>92.3</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1.0849318506974142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="13">
+        <v>22.6</v>
+      </c>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B52" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F52" s="2">
         <v>2440</v>
       </c>
-      <c r="F47" s="8">
+      <c r="G52" s="8">
         <v>340</v>
       </c>
-      <c r="G47" s="12">
+      <c r="H52" s="12">
         <v>511.59327080634193</v>
       </c>
-      <c r="H47" s="13">
+      <c r="I52" s="13">
         <v>150</v>
       </c>
-      <c r="I47" s="11">
+      <c r="J52" s="11">
         <v>1.4942978880056739</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E48" s="2">
-        <v>2564</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1380</v>
-      </c>
-      <c r="G48" s="12">
-        <v>1380.4182120719777</v>
-      </c>
-      <c r="H48" s="13">
-        <v>92.3</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1.0849318506974142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B53" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F53" s="2">
         <v>1984</v>
       </c>
-      <c r="F49" s="8">
+      <c r="G53" s="8">
         <v>770</v>
       </c>
-      <c r="G49" s="8">
+      <c r="H53" s="8">
         <v>1420</v>
       </c>
-      <c r="H49" s="13">
+      <c r="I53" s="13">
         <v>34.200000000000003</v>
       </c>
-      <c r="I49" s="10">
+      <c r="J53" s="10">
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B54" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F54" s="2">
         <v>2320</v>
       </c>
-      <c r="F50" s="8">
+      <c r="G54" s="8">
         <v>356</v>
       </c>
-      <c r="G50" s="8">
+      <c r="H54" s="8">
         <v>400</v>
       </c>
-      <c r="H50" s="13">
+      <c r="I54" s="13">
         <v>7.3</v>
       </c>
-      <c r="I50" s="11">
+      <c r="J54" s="11">
         <v>1.7121280264193122</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E51" s="2">
-        <v>2170</v>
-      </c>
-      <c r="F51" s="8">
-        <v>292</v>
-      </c>
-      <c r="G51" s="12">
-        <v>400.07437040147806</v>
-      </c>
-      <c r="H51" s="13">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="I51" s="11">
-        <v>1.0565045108229185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2044</v>
-      </c>
-      <c r="F52" s="8">
-        <v>380</v>
-      </c>
-      <c r="G52" s="8">
-        <v>1324</v>
-      </c>
-      <c r="H52" s="13">
-        <v>112</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1.4914384287497624</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B55" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F55" s="2">
         <v>534</v>
       </c>
-      <c r="F53" s="8">
+      <c r="G55" s="8">
         <v>180</v>
       </c>
-      <c r="G53" s="8">
+      <c r="H55" s="8">
         <v>1340</v>
       </c>
-      <c r="H53" s="9">
+      <c r="I55" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I53" s="10">
+      <c r="J55" s="10">
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E54" s="2">
-        <v>2110</v>
-      </c>
-      <c r="F54" s="8">
-        <v>723</v>
-      </c>
-      <c r="G54" s="12">
-        <v>1239.7212365888865</v>
-      </c>
-      <c r="H54" s="13">
-        <v>1.33</v>
-      </c>
-      <c r="I54" s="11">
-        <v>1.7298136019301498</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1740</v>
-      </c>
-      <c r="F55" s="8">
-        <v>648</v>
-      </c>
-      <c r="G55" s="8">
-        <v>1107</v>
-      </c>
-      <c r="H55" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0.6391125033813938</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>332</v>
+        <v>560</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="2">
-        <v>3580</v>
-      </c>
-      <c r="F56" s="8">
-        <v>2800</v>
-      </c>
-      <c r="G56" s="8">
-        <v>3600</v>
-      </c>
-      <c r="H56" s="13">
-        <v>8.6E-3</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0.71663173855209439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="16">
+        <v>12.8</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>87</v>
+        <v>243</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F57" s="8">
-        <v>-211.4</v>
+        <v>328</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2110</v>
       </c>
       <c r="G57" s="8">
-        <v>-195.8</v>
-      </c>
-      <c r="H57" s="13">
-        <v>1.9E-3</v>
-      </c>
-      <c r="I57" s="10">
-        <v>1.042</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+      <c r="H57" s="12">
+        <v>1239.7212365888865</v>
+      </c>
+      <c r="I57" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="J57" s="11">
+        <v>1.7298136019301498</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>438</v>
+        <v>584</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1740</v>
+      </c>
+      <c r="G59" s="8">
+        <v>648</v>
+      </c>
+      <c r="H59" s="8">
+        <v>1107</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0.6391125033813938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="13">
+        <v>9.6279999999999998E-4</v>
+      </c>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3580</v>
+      </c>
+      <c r="G61" s="8">
+        <v>2800</v>
+      </c>
+      <c r="H61" s="8">
+        <v>3600</v>
+      </c>
+      <c r="I61" s="13">
+        <v>8.6E-3</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.71663173855209439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G62" s="8">
+        <v>-211.4</v>
+      </c>
+      <c r="H62" s="8">
+        <v>-195.8</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J62" s="10">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="2">
         <v>1.22</v>
       </c>
-      <c r="F58" s="8">
+      <c r="G63" s="8">
         <v>-90.8</v>
       </c>
-      <c r="G58" s="8">
+      <c r="H63" s="8">
         <v>-88.46</v>
       </c>
-      <c r="H58" s="13">
+      <c r="I63" s="13">
         <v>0.112</v>
       </c>
-      <c r="I58" s="10">
+      <c r="J63" s="10">
         <v>0.878</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="G64" s="8">
+        <v>-163.6</v>
+      </c>
+      <c r="H64" s="8">
+        <v>-151.80000000000001</v>
+      </c>
+      <c r="I64" s="13">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J64" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1450</v>
+      </c>
+      <c r="G65" s="8">
+        <v>-11</v>
+      </c>
+      <c r="H65" s="8">
+        <v>21</v>
+      </c>
+      <c r="I65" s="13">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0.83150000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B66" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F66" s="2">
         <v>968</v>
       </c>
-      <c r="F59" s="8">
+      <c r="G66" s="8">
         <v>97.7</v>
       </c>
-      <c r="G59" s="8">
+      <c r="H66" s="8">
         <v>883</v>
       </c>
-      <c r="H59" s="9">
+      <c r="I66" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I59" s="11">
+      <c r="J66" s="11">
         <v>1.9581211980839592</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="16">
+        <v>109</v>
+      </c>
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B68" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F68" s="2">
         <v>2532</v>
       </c>
-      <c r="F60" s="8">
+      <c r="G68" s="8">
         <v>851</v>
       </c>
-      <c r="G60" s="8">
+      <c r="H68" s="8">
         <v>1600</v>
       </c>
-      <c r="H60" s="13">
+      <c r="I68" s="13">
         <v>20</v>
       </c>
-      <c r="I60" s="11">
+      <c r="J68" s="11">
         <v>1.5784756084082265</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B69" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F69" s="2">
         <v>2159</v>
       </c>
-      <c r="F61" s="8">
+      <c r="G69" s="8">
         <v>270</v>
       </c>
-      <c r="G61" s="12">
+      <c r="H69" s="12">
         <v>488.57717347157711</v>
       </c>
-      <c r="H61" s="13">
+      <c r="I69" s="13">
         <v>7.8</v>
       </c>
-      <c r="I61" s="11">
+      <c r="J69" s="11">
         <v>1.9432352494828293</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="13">
+        <v>86.9</v>
+      </c>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B72" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F72" s="2">
         <v>2165</v>
       </c>
-      <c r="F62" s="8">
+      <c r="G72" s="8">
         <v>801</v>
       </c>
-      <c r="G62" s="8">
+      <c r="H72" s="8">
         <v>1465</v>
       </c>
-      <c r="H62" s="13">
+      <c r="I72" s="13">
         <v>35.9</v>
       </c>
-      <c r="I62" s="10">
+      <c r="J72" s="10">
         <v>4.03</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B73" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F73" s="2">
         <v>0.77100000000000002</v>
       </c>
-      <c r="F63" s="8">
+      <c r="G73" s="8">
         <v>-77.7</v>
       </c>
-      <c r="G63" s="8">
+      <c r="H73" s="8">
         <v>-33.5</v>
       </c>
-      <c r="H63" s="13">
+      <c r="I73" s="13">
         <v>52.9</v>
       </c>
-      <c r="I63" s="10">
+      <c r="J73" s="10">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B74" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F74" s="2">
         <v>910</v>
       </c>
-      <c r="F64" s="8">
+      <c r="G74" s="8">
         <v>-77</v>
       </c>
-      <c r="G64" s="8">
+      <c r="H74" s="8">
         <v>36</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="I74" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="I64" s="10">
+      <c r="J74" s="10">
         <v>4.3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G75" s="8">
+        <v>58</v>
+      </c>
+      <c r="H75" s="8">
+        <v>251</v>
+      </c>
+      <c r="I75" s="13">
+        <v>100</v>
+      </c>
+      <c r="J75" s="11">
+        <v>1.1176930318083564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1580</v>
+      </c>
+      <c r="G76" s="8">
+        <v>105</v>
+      </c>
+      <c r="H76" s="12">
+        <v>126.51046336281522</v>
+      </c>
+      <c r="I76" s="13">
+        <v>21.7</v>
+      </c>
+      <c r="J76" s="11">
+        <v>1.1367072050884368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1803</v>
+      </c>
+      <c r="G77" s="8">
+        <v>155</v>
+      </c>
+      <c r="H77" s="8">
+        <v>158</v>
+      </c>
+      <c r="I77" s="13">
+        <v>26.1</v>
+      </c>
+      <c r="J77" s="10">
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1803</v>
+      </c>
+      <c r="G78" s="8">
+        <v>180</v>
+      </c>
+      <c r="H78" s="12">
+        <v>335.03979663631816</v>
+      </c>
+      <c r="I78" s="13">
+        <v>37.4</v>
+      </c>
+      <c r="J78" s="10">
+        <v>1.6930000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B79" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E79" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F79" s="2">
         <v>1527</v>
       </c>
-      <c r="F65" s="8">
+      <c r="G79" s="8">
         <v>340</v>
       </c>
-      <c r="G65" s="8">
+      <c r="H79" s="8">
         <v>520</v>
       </c>
-      <c r="H65" s="13">
+      <c r="I79" s="13">
         <v>37.200000000000003</v>
       </c>
-      <c r="I65" s="11">
+      <c r="J79" s="11">
         <v>1.2435766847482452</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1803</v>
-      </c>
-      <c r="F66" s="8">
-        <v>180</v>
-      </c>
-      <c r="G66" s="12">
-        <v>335.03979663631816</v>
-      </c>
-      <c r="H66" s="13">
-        <v>37.4</v>
-      </c>
-      <c r="I66" s="10">
-        <v>1.6930000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1580</v>
-      </c>
-      <c r="F67" s="8">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1.4289000000000001</v>
+      </c>
+      <c r="G80" s="8">
+        <v>-218.4</v>
+      </c>
+      <c r="H80" s="8">
+        <v>-183</v>
+      </c>
+      <c r="I80" s="13">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J80" s="10">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G81" s="8">
+        <v>-192</v>
+      </c>
+      <c r="H81" s="8">
+        <v>-111</v>
+      </c>
+      <c r="I81" s="13">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J81" s="10">
+        <v>1.405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="12">
-        <v>126.51046336281522</v>
-      </c>
-      <c r="H67" s="13">
-        <v>21.7</v>
-      </c>
-      <c r="I67" s="11">
-        <v>1.1367072050884368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="E82" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1820</v>
+      </c>
+      <c r="G82" s="8">
+        <v>44.2</v>
+      </c>
+      <c r="H82" s="8">
+        <v>280.5</v>
+      </c>
+      <c r="I82" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J82" s="10">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2940</v>
+      </c>
+      <c r="G83" s="8">
+        <v>340</v>
+      </c>
+      <c r="H83" s="8">
+        <v>360</v>
+      </c>
+      <c r="I83" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0.64557633195798869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" s="2">
+        <v>11344</v>
+      </c>
+      <c r="G84" s="8">
+        <v>327.5</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1749</v>
+      </c>
+      <c r="I84" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J84" s="10">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F85" s="2">
+        <v>21550</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1768</v>
+      </c>
+      <c r="H85" s="8">
+        <v>3825</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J85" s="10">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2360</v>
+      </c>
+      <c r="G86" s="8">
+        <v>112.8</v>
+      </c>
+      <c r="H86" s="8">
+        <v>444.6</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J86" s="10">
+        <v>0.7527600000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2.9275000000000002</v>
+      </c>
+      <c r="G87" s="8">
+        <v>-75.5</v>
+      </c>
+      <c r="H87" s="8">
+        <v>-10</v>
+      </c>
+      <c r="I87" s="13">
+        <v>11.28</v>
+      </c>
+      <c r="J87" s="10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2328</v>
+      </c>
+      <c r="G88" s="8">
+        <v>1420</v>
+      </c>
+      <c r="H88" s="8">
+        <v>2900</v>
+      </c>
+      <c r="I88" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="J88" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="2">
         <v>2200</v>
       </c>
-      <c r="F68" s="8">
-        <v>58</v>
-      </c>
-      <c r="G68" s="8">
-        <v>251</v>
-      </c>
-      <c r="H68" s="13">
-        <v>100</v>
-      </c>
-      <c r="I68" s="11">
-        <v>1.1176930318083564</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1803</v>
-      </c>
-      <c r="F69" s="8">
-        <v>155</v>
-      </c>
-      <c r="G69" s="8">
-        <v>158</v>
-      </c>
-      <c r="H69" s="13">
-        <v>26.1</v>
-      </c>
-      <c r="I69" s="10">
-        <v>1.417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="G89" s="8">
+        <v>1600</v>
+      </c>
+      <c r="H89" s="8">
+        <v>2230</v>
+      </c>
+      <c r="I89" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="J89" s="10">
+        <v>0.83640000000000014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E70" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="F70" s="8">
-        <v>-163.6</v>
-      </c>
-      <c r="G70" s="8">
-        <v>-151.80000000000001</v>
-      </c>
-      <c r="H70" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="I70" s="10">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1450</v>
-      </c>
-      <c r="F71" s="8">
-        <v>-11</v>
-      </c>
-      <c r="G71" s="8">
-        <v>21</v>
-      </c>
-      <c r="H71" s="13">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="I71" s="10">
-        <v>0.83150000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="F90" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G90" s="8">
+        <v>-182.5</v>
+      </c>
+      <c r="H90" s="8">
+        <v>-161.5</v>
+      </c>
+      <c r="I90" s="13">
+        <v>2.3E-3</v>
+      </c>
+      <c r="J90" s="10">
+        <v>2.1560000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="G91" s="8">
+        <v>-183.3</v>
+      </c>
+      <c r="H91" s="8">
+        <v>-88.6</v>
+      </c>
+      <c r="I91" s="13">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="J91" s="10">
+        <v>1.7290000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" s="2">
+        <v>789</v>
+      </c>
+      <c r="G92" s="8">
+        <v>-114</v>
+      </c>
+      <c r="H92" s="8">
+        <v>78</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J92" s="10">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1.256</v>
+      </c>
+      <c r="G93" s="8">
+        <v>-169.4</v>
+      </c>
+      <c r="H93" s="8">
+        <v>-103.9</v>
+      </c>
+      <c r="I93" s="13">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J93" s="10">
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1.1747000000000001</v>
+      </c>
+      <c r="G94" s="8">
+        <v>-183.3</v>
+      </c>
+      <c r="H94" s="8">
+        <v>-88.6</v>
+      </c>
+      <c r="I94" s="13">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J94" s="10">
+        <v>1.5109999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1681</v>
+      </c>
+      <c r="G95" s="8">
+        <v>87</v>
+      </c>
+      <c r="H95" s="8">
+        <v>375.4</v>
+      </c>
+      <c r="I95" s="13">
+        <v>10</v>
+      </c>
+      <c r="J95" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G96" s="8">
         <v>80</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1.4289000000000001</v>
-      </c>
-      <c r="F72" s="8">
-        <v>-218.4</v>
-      </c>
-      <c r="G72" s="8">
-        <v>-183</v>
-      </c>
-      <c r="H72" s="13">
-        <v>4.3E-3</v>
-      </c>
-      <c r="I72" s="10">
-        <v>0.91800000000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="H96" s="8"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="11"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1508</v>
+      </c>
+      <c r="G97" s="8">
+        <v>144</v>
+      </c>
+      <c r="H97" s="8">
+        <v>415.5</v>
+      </c>
+      <c r="I97" s="13">
+        <v>55.5</v>
+      </c>
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A98" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1540</v>
+      </c>
+      <c r="G98" s="2">
+        <v>146</v>
+      </c>
+      <c r="H98" s="2">
+        <v>410.8</v>
+      </c>
+      <c r="I98" s="13">
         <v>83</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2.14</v>
-      </c>
-      <c r="F73" s="8">
-        <v>-192</v>
-      </c>
-      <c r="G73" s="8">
-        <v>-111</v>
-      </c>
-      <c r="H73" s="13">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="I73" s="10">
-        <v>1.405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+      <c r="J98" s="11">
+        <v>4.1867999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A99" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1694</v>
+      </c>
+      <c r="G99" s="2">
+        <v>104</v>
+      </c>
+      <c r="H99" s="2">
+        <v>440.1</v>
+      </c>
+      <c r="I99" s="13">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A100" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1581</v>
+      </c>
+      <c r="G100" s="2">
         <v>161</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="2">
-        <v>2940</v>
-      </c>
-      <c r="F74" s="8">
-        <v>340</v>
-      </c>
-      <c r="G74" s="8">
-        <v>360</v>
-      </c>
-      <c r="H74" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I74" s="11">
-        <v>0.64557633195798869</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1820</v>
-      </c>
-      <c r="F75" s="8">
-        <v>44.2</v>
-      </c>
-      <c r="G75" s="8">
-        <v>280.5</v>
-      </c>
-      <c r="H75" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I75" s="10">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="H100" s="2">
+        <v>527.1</v>
+      </c>
+      <c r="I100" s="13">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="F101" s="2">
+        <v>1587</v>
+      </c>
+      <c r="G101" s="2">
+        <v>160</v>
+      </c>
+      <c r="H101" s="12">
+        <v>186</v>
+      </c>
+      <c r="I101" s="13">
+        <v>204</v>
+      </c>
+      <c r="J101" s="11">
+        <v>3.7679999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="2">
-        <v>11344</v>
-      </c>
-      <c r="F76" s="8">
-        <v>327.5</v>
-      </c>
-      <c r="G76" s="8">
-        <v>1749</v>
-      </c>
-      <c r="H76" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I76" s="10">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="I102" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="I103" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E77" s="2">
-        <v>21550</v>
-      </c>
-      <c r="F77" s="8">
-        <v>1768</v>
-      </c>
-      <c r="G77" s="8">
-        <v>3825</v>
-      </c>
-      <c r="H77" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I77" s="10">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="2">
-        <v>2360</v>
-      </c>
-      <c r="F78" s="8">
-        <v>112.8</v>
-      </c>
-      <c r="G78" s="8">
-        <v>444.6</v>
-      </c>
-      <c r="H78" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I78" s="10">
-        <v>0.7527600000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="2">
-        <v>2328</v>
-      </c>
-      <c r="F79" s="8">
-        <v>1420</v>
-      </c>
-      <c r="G79" s="8">
-        <v>2900</v>
-      </c>
-      <c r="H79" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="I79" s="10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E80" s="2">
-        <v>2200</v>
-      </c>
-      <c r="F80" s="8">
-        <v>1600</v>
-      </c>
-      <c r="G80" s="8">
-        <v>2230</v>
-      </c>
-      <c r="H80" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="I80" s="10">
-        <v>0.83640000000000014</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E81" s="2">
-        <v>2.9275000000000002</v>
-      </c>
-      <c r="F81" s="8">
-        <v>-75.5</v>
-      </c>
-      <c r="G81" s="8">
-        <v>-10</v>
-      </c>
-      <c r="H81" s="13">
-        <v>11.28</v>
-      </c>
-      <c r="I81" s="10">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E82" s="2">
-        <v>1540</v>
-      </c>
-      <c r="F82" s="2">
-        <v>146</v>
-      </c>
-      <c r="G82" s="2">
-        <v>410.8</v>
-      </c>
-      <c r="H82" s="2">
-        <v>83</v>
-      </c>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E83" s="2">
-        <v>1587</v>
-      </c>
-      <c r="F83" s="2">
-        <v>160</v>
-      </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="2">
-        <v>204</v>
-      </c>
-      <c r="I83" s="11"/>
+      <c r="F105" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G105" s="2">
+        <v>257</v>
+      </c>
+      <c r="H105" s="2">
+        <v>357.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G106" s="2">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7400,7 +8346,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -7523,7 +8469,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B11" s="6">
         <v>6.2899999999999998E-19</v>
@@ -7534,7 +8480,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B12" s="6">
         <v>3.0700000000000003E-10</v>
@@ -7655,7 +8601,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B23" s="6">
         <v>3960000</v>
@@ -7677,7 +8623,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B25" s="6">
         <v>156000000</v>
@@ -7697,14 +8643,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -7719,28 +8665,37 @@
         <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>539</v>
+        <v>595</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="C4" s="1">
         <v>595</v>
@@ -7755,37 +8710,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>544</v>
+        <v>597</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>536</v>
+        <v>601</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/Init.xlsx
+++ b/Init.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="662" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$J$89</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="600">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,10 +656,6 @@
     <t>Hydrogen Cyanide</t>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C+O2=CO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,10 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'H+','OH-'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,14 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'H+','CN-'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -926,10 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2094,164 +2074,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ribose(核糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucose(葡萄糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fructose(果糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Galactose(半乳糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugar(蔗糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maltose(麦芽糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5H10O4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deoxyribose(脱氧核糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactose(乳糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycogen(糖原)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C24H42O21</t>
+  </si>
+  <si>
+    <t>C5H10O5</t>
+  </si>
+  <si>
+    <t>Xylose(木糖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starch(淀粉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellulose(纤维素)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomeride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaH2PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH2PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li3PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na3PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaH2PO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgNO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C6H10O5)n</t>
+  </si>
+  <si>
+    <t>(C6H10O5)n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;ATP'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;ADP'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NADP+H2O=NADPH+O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;NADPH'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H12O6+6*O2=6*CO2+6*H2O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme&lt;-C6H12O6'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme&lt;-C12H22O1'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme&lt;-(C6H10O5)n'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enzyme-&gt;C6H12O6'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12H22O11#II+H2O=C6H12O6#I+C6H12O6#II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12H22O11#I+H2O=2*C6H12O6#I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C6H10O5)n+n*H2O=n*C6H12O6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ribose(核糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glucose(葡萄糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fructose(果糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Galactose(半乳糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sugar(蔗糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maltose(麦芽糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5H10O4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deoxyribose(脱氧核糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lactose(乳糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glycogen(糖原)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C24H42O21</t>
-  </si>
-  <si>
-    <t>C5H10O5</t>
-  </si>
-  <si>
-    <t>Xylose(木糖)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Starch(淀粉)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cellulose(纤维素)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomeride</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaH2PO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KH2PO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Li3PO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Na3PO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaH2PO4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CuS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgNO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(C6H10O5)n</t>
-  </si>
-  <si>
-    <t>(C6H10O5)n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'enzyme-&gt;ATP'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'enzyme-&gt;ADP'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NADP+H2O=NADPH+O2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'enzyme-&gt;NADPH'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6H12O6+6*O2=6*CO2+6*H2O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'enzyme&lt;-C6H12O6'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C12H22O11+H2O=2*C6H12O6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'enzyme&lt;-C12H22O1'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(C6H10O5)n+n*H2O=n*C6H12O6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'enzyme&lt;-(C6H10O5)n'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'enzyme-&gt;C6H12O6'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2374,7 +2358,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2416,7 +2400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2451,7 +2435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2666,20 +2650,20 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="8.75" style="4"/>
-    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="16.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>57</v>
@@ -2691,22 +2675,22 @@
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2726,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2755,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2778,13 +2762,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2804,13 +2788,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2830,13 +2814,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2856,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2882,13 +2866,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2908,13 +2892,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2934,13 +2918,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2963,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2986,13 +2970,13 @@
         <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3012,13 +2996,13 @@
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3038,13 +3022,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3064,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3090,13 +3074,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3116,13 +3100,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3142,13 +3126,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3171,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3194,13 +3178,13 @@
         <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3220,18 +3204,18 @@
         <v>4</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -3246,18 +3230,18 @@
         <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -3272,18 +3256,18 @@
         <v>4</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -3298,18 +3282,18 @@
         <v>4</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -3324,18 +3308,18 @@
         <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -3350,13 +3334,13 @@
         <v>4</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3376,13 +3360,13 @@
         <v>4</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3402,18 +3386,18 @@
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -3428,13 +3412,13 @@
         <v>4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3454,13 +3438,13 @@
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3480,18 +3464,18 @@
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -3506,18 +3490,18 @@
         <v>4</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
@@ -3532,18 +3516,18 @@
         <v>4</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -3558,13 +3542,13 @@
         <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3584,13 +3568,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3610,18 +3594,18 @@
         <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -3639,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3662,18 +3646,18 @@
         <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C39" s="1">
         <v>47</v>
@@ -3688,13 +3672,13 @@
         <v>5</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>53</v>
       </c>
@@ -3714,18 +3698,18 @@
         <v>5</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C41" s="1">
         <v>54</v>
@@ -3743,15 +3727,15 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C42" s="1">
         <v>74</v>
@@ -3766,18 +3750,18 @@
         <v>6</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C43" s="1">
         <v>78</v>
@@ -3792,18 +3776,18 @@
         <v>6</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C44" s="1">
         <v>79</v>
@@ -3818,18 +3802,18 @@
         <v>6</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C45" s="1">
         <v>80</v>
@@ -3844,13 +3828,13 @@
         <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>82</v>
       </c>
@@ -3870,18 +3854,18 @@
         <v>6</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C47" s="1">
         <v>86</v>
@@ -3899,15 +3883,15 @@
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C48" s="1">
         <v>92</v>
@@ -3922,7 +3906,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3940,14 +3924,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -3955,79 +3939,79 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="14">
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B3" s="14">
         <v>514.63200000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B4" s="14">
         <v>372.37600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B5" s="14">
         <v>543.92000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B6" s="14">
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B7" s="14">
         <v>212.5472</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B8" s="14">
         <v>401.66399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B9" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B10" s="14">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>121</v>
       </c>
@@ -4035,7 +4019,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>122</v>
       </c>
@@ -4043,7 +4027,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -4051,7 +4035,7 @@
         <v>193.87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
@@ -4059,7 +4043,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -4067,7 +4051,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4075,7 +4059,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -4083,7 +4067,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -4091,7 +4075,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>129</v>
       </c>
@@ -4099,47 +4083,47 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B20" s="14">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B21" s="14">
         <v>460.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B22" s="14">
         <v>426.76800000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B23" s="14">
         <v>552.28800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B24" s="14">
         <v>418.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
@@ -4147,7 +4131,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -4155,7 +4139,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -4163,7 +4147,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -4171,7 +4155,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -4179,7 +4163,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -4187,7 +4171,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
@@ -4195,15 +4179,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B32" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -4211,7 +4195,7 @@
         <v>242.58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4219,7 +4203,7 @@
         <v>431.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
@@ -4227,7 +4211,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -4235,7 +4219,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -4243,7 +4227,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -4251,7 +4235,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
@@ -4259,7 +4243,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4267,63 +4251,63 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B41" s="14">
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B42" s="14">
         <v>368.19200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B43" s="14">
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B44" s="14">
         <v>812</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B45" s="14">
         <v>937</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B46" s="14">
         <v>397.48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B47" s="14">
         <v>313.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -4331,7 +4315,7 @@
         <v>156.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -4339,15 +4323,15 @@
         <v>568.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B50" s="14">
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -4355,7 +4339,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -4363,15 +4347,15 @@
         <v>498.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B53" s="14">
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -4379,7 +4363,7 @@
         <v>298.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -4387,15 +4371,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B56" s="14">
         <v>50.207999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
@@ -4403,7 +4387,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -4411,7 +4395,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4403,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -4427,15 +4411,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B61" s="14">
         <v>338.904</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -4443,15 +4427,15 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B63" s="14">
         <v>573.20799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -4459,7 +4443,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -4467,63 +4451,63 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B66" s="14">
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B67" s="14">
         <v>422.584</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B68" s="14">
         <v>376.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B69" s="14">
         <v>259.40800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B70" s="14">
         <v>564.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B71" s="14">
         <v>234.304</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B72" s="14">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -4531,7 +4515,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -4539,7 +4523,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
@@ -4547,7 +4531,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -4555,7 +4539,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -4563,7 +4547,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -4571,7 +4555,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>127</v>
       </c>
@@ -4579,31 +4563,31 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B80" s="14">
         <v>380.74400000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B81" s="14">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B82" s="14">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4611,15 +4595,15 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B84" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -4627,7 +4611,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -4635,23 +4619,23 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B87" s="14">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B88" s="14">
         <v>946</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -4659,7 +4643,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -4667,7 +4651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -4675,15 +4659,15 @@
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B92" s="14">
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>137</v>
       </c>
@@ -4691,7 +4675,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>128</v>
       </c>
@@ -4699,23 +4683,23 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B95" s="14">
         <v>297.06400000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B96" s="14">
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -4723,7 +4707,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -4731,7 +4715,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -4739,7 +4723,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -4747,7 +4731,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -4755,7 +4739,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -4763,7 +4747,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -4771,15 +4755,15 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B104" s="14">
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>139</v>
       </c>
@@ -4787,7 +4771,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>140</v>
       </c>
@@ -4795,7 +4779,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>141</v>
       </c>
@@ -4803,7 +4787,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>143</v>
       </c>
@@ -4811,7 +4795,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>144</v>
       </c>
@@ -4819,15 +4803,15 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B110" s="14">
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>145</v>
       </c>
@@ -4835,15 +4819,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B112" s="14">
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -4851,7 +4835,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -4859,7 +4843,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -4867,7 +4851,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -4875,15 +4859,15 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B117" s="14">
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -4891,23 +4875,23 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B119" s="14">
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B120" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
@@ -4915,7 +4899,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>142</v>
       </c>
@@ -4923,7 +4907,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -4931,135 +4915,135 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B124" s="14">
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B125" s="14">
         <v>439.32</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B126" s="14">
         <v>652.70400000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B127" s="14">
         <v>748.93600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B128" s="14">
         <v>560.65600000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B129" s="14">
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B130" s="14">
         <v>661.072</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B131" s="14">
         <v>129.70400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B132" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B133" s="14">
         <v>376.56</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B134" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B135" s="14">
         <v>158.99200000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B136" s="14">
         <v>188.28</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B137" s="14">
         <v>215.476</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B138" s="14">
         <v>292.88</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B139" s="14">
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
@@ -5067,73 +5051,73 @@
         <v>190.37200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B141" s="14">
         <v>236.81790000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B142" s="14">
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B143" s="14">
         <v>49.371200000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B144" s="14">
         <v>104.60000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B145" s="14">
         <v>83.846999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B146" s="14">
         <v>72.383200000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B147" s="14">
         <v>242.672</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B148" s="14">
         <v>303.81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B149" s="14">
         <v>74.328000000000003</v>
@@ -5150,74 +5134,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>175</v>
+        <v>477</v>
       </c>
       <c r="F2" s="2">
         <v>10490</v>
@@ -5235,18 +5216,12 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -5255,18 +5230,12 @@
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -5275,21 +5244,18 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>478</v>
       </c>
       <c r="F5" s="2">
         <v>2700</v>
@@ -5307,21 +5273,21 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F6" s="2">
         <v>2400</v>
@@ -5339,21 +5305,21 @@
         <v>0.79606891016022852</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F7" s="2">
         <v>2440</v>
@@ -5371,21 +5337,21 @@
         <v>0.58606651629604467</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F8" s="2">
         <v>3000</v>
@@ -5403,21 +5369,18 @@
         <v>0.78789131518402311</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="F9" s="2">
         <v>3500</v>
@@ -5435,21 +5398,18 @@
         <v>0.66109061402221958</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>479</v>
       </c>
       <c r="F10" s="2">
         <v>19320</v>
@@ -5467,12 +5427,12 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>81</v>
@@ -5480,9 +5440,6 @@
       <c r="D11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F11" s="2">
         <v>2250</v>
       </c>
@@ -5499,21 +5456,18 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="F12" s="2">
         <v>1.603</v>
@@ -5531,12 +5485,12 @@
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>170</v>
@@ -5544,9 +5498,6 @@
       <c r="D13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F13" s="2">
         <v>1.9770000000000001</v>
       </c>
@@ -5563,22 +5514,19 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F14" s="2">
         <v>1.25</v>
       </c>
@@ -5595,12 +5543,12 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>86</v>
@@ -5608,9 +5556,6 @@
       <c r="D15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F15" s="2">
         <v>3.21</v>
       </c>
@@ -5627,21 +5572,18 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>480</v>
       </c>
       <c r="F16" s="2">
         <v>1550</v>
@@ -5659,21 +5601,21 @@
         <v>0.57654068001231196</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F17" s="2">
         <v>2240</v>
@@ -5691,21 +5633,21 @@
         <v>1.4158377790716348</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F18" s="2">
         <v>2930</v>
@@ -5723,21 +5665,21 @@
         <v>0.87863999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F19" s="2">
         <v>2169</v>
@@ -5755,21 +5697,21 @@
         <v>1.6497880620837919</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F20" s="2">
         <v>2200</v>
@@ -5787,21 +5729,21 @@
         <v>0.8791228488246472</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F21" s="2">
         <v>3140</v>
@@ -5819,18 +5761,12 @@
         <v>1.1353563099031463</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="12"/>
@@ -5839,21 +5775,21 @@
       </c>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F23" s="2">
         <v>2360</v>
@@ -5871,21 +5807,21 @@
         <v>1.3959124382185175</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F24" s="2">
         <v>1086</v>
@@ -5903,21 +5839,21 @@
         <v>0.72243535324415098</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F25" s="2">
         <v>3180</v>
@@ -5935,21 +5871,18 @@
         <v>0.57983621973010036</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="F26" s="2">
         <v>3350</v>
@@ -5967,21 +5900,18 @@
         <v>0.62022216920268813</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="F27" s="2">
         <v>8960</v>
@@ -5999,18 +5929,12 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -6019,21 +5943,18 @@
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="F29" s="2">
         <v>6500</v>
@@ -6051,12 +5972,12 @@
         <v>0.62075619203401167</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>78</v>
@@ -6064,9 +5985,6 @@
       <c r="D30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F30" s="2">
         <v>1.554</v>
       </c>
@@ -6083,21 +6001,18 @@
         <v>0.82389999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>175</v>
+        <v>482</v>
       </c>
       <c r="F31" s="2">
         <v>7800</v>
@@ -6115,18 +6030,12 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -6135,18 +6044,12 @@
       </c>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -6155,21 +6058,18 @@
       </c>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="F34" s="2">
         <v>5340</v>
@@ -6187,21 +6087,18 @@
         <v>1.6420837840585196</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="F35" s="2">
         <v>5180</v>
@@ -6219,12 +6116,12 @@
         <v>1.940758400609909</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>84</v>
@@ -6232,9 +6129,6 @@
       <c r="D36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F36" s="2">
         <v>8.9899999999999994E-2</v>
       </c>
@@ -6251,12 +6145,12 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>85</v>
@@ -6265,7 +6159,7 @@
         <v>94</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F37" s="2">
         <v>1000</v>
@@ -6277,27 +6171,27 @@
         <v>100</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J37" s="10">
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F38" s="2">
         <v>1.1890000000000001</v>
@@ -6315,21 +6209,21 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F39" s="2">
         <v>1874</v>
@@ -6341,27 +6235,27 @@
         <v>261</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J39" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F40" s="2">
         <v>1.4770000000000001</v>
@@ -6379,21 +6273,21 @@
         <v>0.79458000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>174</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F41" s="2">
         <v>697</v>
@@ -6405,27 +6299,27 @@
         <v>26</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J41" s="11">
         <v>0.5697879031834302</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F42" s="2">
         <v>1420</v>
@@ -6437,27 +6331,21 @@
         <v>83</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J42" s="11">
         <v>3.222</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="F43" s="2">
         <v>0.17849999999999999</v>
@@ -6475,21 +6363,18 @@
         <v>5.2275000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>175</v>
+        <v>483</v>
       </c>
       <c r="F44" s="2">
         <v>1359</v>
@@ -6507,21 +6392,18 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>175</v>
+        <v>484</v>
       </c>
       <c r="F45" s="2">
         <v>862</v>
@@ -6539,21 +6421,21 @@
         <v>0.93842356714859831</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F46" s="2">
         <v>2044</v>
@@ -6571,21 +6453,21 @@
         <v>1.4914384287497624</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F47" s="2">
         <v>2170</v>
@@ -6603,21 +6485,21 @@
         <v>0.88783223074323669</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F48" s="2">
         <v>2430</v>
@@ -6635,21 +6517,21 @@
         <v>1.0803616347544793</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F49" s="2">
         <v>2170</v>
@@ -6667,21 +6549,21 @@
         <v>1.0565045108229185</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F50" s="2">
         <v>2564</v>
@@ -6699,18 +6581,12 @@
         <v>1.0849318506974142</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="12"/>
@@ -6719,21 +6595,21 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F52" s="2">
         <v>2440</v>
@@ -6751,12 +6627,12 @@
         <v>1.4942978880056739</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>172</v>
@@ -6765,7 +6641,7 @@
         <v>107</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F53" s="2">
         <v>1984</v>
@@ -6783,21 +6659,21 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F54" s="2">
         <v>2320</v>
@@ -6815,21 +6691,18 @@
         <v>1.7121280264193122</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>175</v>
+        <v>485</v>
       </c>
       <c r="F55" s="2">
         <v>534</v>
@@ -6847,18 +6720,12 @@
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -6867,21 +6734,21 @@
       </c>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F57" s="2">
         <v>2110</v>
@@ -6899,18 +6766,12 @@
         <v>1.7298136019301498</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="12"/>
@@ -6919,21 +6780,18 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>175</v>
+        <v>486</v>
       </c>
       <c r="F59" s="2">
         <v>1740</v>
@@ -6951,18 +6809,12 @@
         <v>0.6391125033813938</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -6971,21 +6823,18 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="F61" s="2">
         <v>3580</v>
@@ -7003,21 +6852,18 @@
         <v>0.71663173855209439</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>201</v>
+        <v>432</v>
       </c>
       <c r="F62" s="2">
         <v>1.25</v>
@@ -7035,21 +6881,18 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>175</v>
+        <v>433</v>
       </c>
       <c r="F63" s="2">
         <v>1.22</v>
@@ -7067,12 +6910,12 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>169</v>
@@ -7080,9 +6923,6 @@
       <c r="D64" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F64" s="2">
         <v>1.27</v>
       </c>
@@ -7099,12 +6939,12 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>168</v>
@@ -7112,9 +6952,6 @@
       <c r="D65" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F65" s="2">
         <v>1450</v>
       </c>
@@ -7131,21 +6968,18 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>175</v>
+        <v>487</v>
       </c>
       <c r="F66" s="2">
         <v>968</v>
@@ -7163,18 +6997,12 @@
         <v>1.9581211980839592</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -7183,21 +7011,21 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F68" s="2">
         <v>2532</v>
@@ -7215,21 +7043,21 @@
         <v>1.5784756084082265</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F69" s="2">
         <v>2159</v>
@@ -7247,18 +7075,12 @@
         <v>1.9432352494828293</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="12"/>
@@ -7267,18 +7089,12 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="12"/>
@@ -7287,12 +7103,12 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>171</v>
@@ -7301,7 +7117,7 @@
         <v>106</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F72" s="2">
         <v>2165</v>
@@ -7319,12 +7135,12 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>88</v>
@@ -7332,9 +7148,6 @@
       <c r="D73" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F73" s="2">
         <v>0.77100000000000002</v>
       </c>
@@ -7351,21 +7164,21 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F74" s="2">
         <v>910</v>
@@ -7377,27 +7190,27 @@
         <v>36</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J74" s="10">
         <v>4.3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F75" s="2">
         <v>2200</v>
@@ -7415,21 +7228,21 @@
         <v>1.1176930318083564</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>166</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F76" s="2">
         <v>1580</v>
@@ -7447,21 +7260,21 @@
         <v>1.1367072050884368</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F77" s="2">
         <v>1803</v>
@@ -7479,21 +7292,21 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F78" s="2">
         <v>1803</v>
@@ -7511,21 +7324,21 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F79" s="2">
         <v>1527</v>
@@ -7543,12 +7356,12 @@
         <v>1.2435766847482452</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>82</v>
@@ -7556,9 +7369,6 @@
       <c r="D80" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F80" s="2">
         <v>1.4289000000000001</v>
       </c>
@@ -7575,12 +7385,12 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>83</v>
@@ -7588,9 +7398,6 @@
       <c r="D81" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F81" s="2">
         <v>2.14</v>
       </c>
@@ -7607,12 +7414,12 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>90</v>
@@ -7620,9 +7427,6 @@
       <c r="D82" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F82" s="2">
         <v>1820</v>
       </c>
@@ -7639,22 +7443,19 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F83" s="2">
         <v>2940</v>
       </c>
@@ -7671,21 +7472,15 @@
         <v>0.64557633195798869</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="F84" s="2">
         <v>11344</v>
@@ -7703,21 +7498,15 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="F85" s="2">
         <v>21550</v>
@@ -7735,22 +7524,19 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="F86" s="2">
         <v>2360</v>
       </c>
@@ -7767,22 +7553,19 @@
         <v>0.7527600000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="F87" s="2">
         <v>2.9275000000000002</v>
       </c>
@@ -7799,21 +7582,18 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="F88" s="2">
         <v>2328</v>
@@ -7831,12 +7611,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>173</v>
@@ -7844,9 +7624,6 @@
       <c r="D89" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F89" s="2">
         <v>2200</v>
       </c>
@@ -7863,12 +7640,12 @@
         <v>0.83640000000000014</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>89</v>
@@ -7876,9 +7653,6 @@
       <c r="D90" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="F90" s="2">
         <v>0.71599999999999997</v>
       </c>
@@ -7895,21 +7669,18 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="F91" s="2">
         <v>1.2450000000000001</v>
@@ -7927,21 +7698,18 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="F92" s="2">
         <v>789</v>
@@ -7953,27 +7721,24 @@
         <v>78</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J92" s="10">
         <v>2.44</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="F93" s="2">
         <v>1.256</v>
@@ -7991,21 +7756,18 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>175</v>
+        <v>434</v>
       </c>
       <c r="F94" s="2">
         <v>1.1747000000000001</v>
@@ -8023,21 +7785,18 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>175</v>
+        <v>547</v>
       </c>
       <c r="F95" s="2">
         <v>1681</v>
@@ -8055,21 +7814,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>175</v>
+        <v>565</v>
       </c>
       <c r="G96" s="8">
         <v>80</v>
@@ -8078,21 +7831,15 @@
       <c r="I96" s="13"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>175</v>
+        <v>570</v>
       </c>
       <c r="F97" s="2">
         <v>1508</v>
@@ -8108,21 +7855,18 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>175</v>
+        <v>548</v>
       </c>
       <c r="F98" s="2">
         <v>1540</v>
@@ -8140,21 +7884,18 @@
         <v>4.1867999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>175</v>
+        <v>548</v>
       </c>
       <c r="F99" s="2">
         <v>1694</v>
@@ -8169,21 +7910,18 @@
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>175</v>
+        <v>548</v>
       </c>
       <c r="F100" s="2">
         <v>1581</v>
@@ -8198,21 +7936,18 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>568</v>
-      </c>
       <c r="D101" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>175</v>
+        <v>549</v>
       </c>
       <c r="F101" s="2">
         <v>1587</v>
@@ -8230,79 +7965,61 @@
         <v>3.7679999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>175</v>
+        <v>549</v>
       </c>
       <c r="I102" s="13">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>175</v>
+        <v>549</v>
       </c>
       <c r="I103" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>175</v>
+        <v>567</v>
       </c>
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>175</v>
+        <v>571</v>
       </c>
       <c r="F105" s="2">
         <v>1500</v>
@@ -8314,21 +8031,15 @@
         <v>357.8</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>175</v>
+        <v>572</v>
       </c>
       <c r="G106" s="2">
         <v>265</v>
@@ -8349,28 +8060,28 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B2" s="5">
         <v>174</v>
@@ -8379,9 +8090,9 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B3" s="5">
         <v>8.7999999999999994E-18</v>
@@ -8390,9 +8101,9 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B4" s="5">
         <v>9.1800000000000002E-20</v>
@@ -8401,9 +8112,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="6">
         <v>41500000000</v>
@@ -8412,9 +8123,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B6" s="6">
         <v>3570000000</v>
@@ -8423,9 +8134,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="1">
         <v>1.6E-11</v>
@@ -8434,9 +8145,9 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="6">
         <v>7.3500000000000005E-11</v>
@@ -8445,9 +8156,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="6">
         <v>4.1999999999999998E-5</v>
@@ -8456,9 +8167,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B10" s="6">
         <v>1.5699999999999999E-18</v>
@@ -8467,9 +8178,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B11" s="6">
         <v>6.2899999999999998E-19</v>
@@ -8478,9 +8189,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B12" s="6">
         <v>3.0700000000000003E-10</v>
@@ -8489,9 +8200,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B13" s="6">
         <v>110000</v>
@@ -8500,9 +8211,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B14" s="6">
         <v>492</v>
@@ -8511,9 +8222,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="6">
         <v>110</v>
@@ -8522,7 +8233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>159</v>
       </c>
@@ -8533,9 +8244,9 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B17" s="6">
         <v>3.3000000000000002E-28</v>
@@ -8544,9 +8255,9 @@
         <v>-4.41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="6">
         <v>1.88E-22</v>
@@ -8555,7 +8266,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
@@ -8566,9 +8277,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="6">
         <v>440</v>
@@ -8577,7 +8288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -8588,9 +8299,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B22" s="6">
         <v>5270</v>
@@ -8599,9 +8310,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B23" s="6">
         <v>3960000</v>
@@ -8610,9 +8321,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="6">
         <v>274000000</v>
@@ -8621,9 +8332,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B25" s="6">
         <v>156000000</v>
@@ -8641,23 +8352,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -8665,37 +8376,37 @@
         <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C4" s="1">
         <v>595</v>
@@ -8708,60 +8419,65 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/Init.xlsx
+++ b/Init.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="662" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="7" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$89</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="822">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1838,10 +1838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'C-C':10,'C-H':14,'C-O':14,'H-O':10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AgO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2020,14 +2016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(C6H10O5)n#I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(C6H10O5)n#II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C12H22O11#II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2812,6 +2800,106 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C6H10O5)n#c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(C6H10O5)n#s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-C':10,'C-H':14,'C-O':14,'H-O':8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-C':5n,'C-H':7n,'C-O':7n,'H-O':3n}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'C-C':20,'C-H':28,'C-O':28,'H-O':14}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900-950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycerol(甘油,丙三醇)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(n)H(2n+1)COOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyunsaturated fatty acids(PUFA,多不饱和脂肪酸)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saturated fatty acids(SFA,饱和脂肪酸)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monounsaturated fatty acids(MUFA,单不饱和脂肪酸)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3H5(OOCR)3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triglyceride(甘油三脂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C15H31COOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软脂酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬脂酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17H35COOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚油酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17H33COOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17H31COOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2OH(CHOH)CH2OH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3H5(OOCR)3+3*H2O=CH2OH(CHOH)CH2OH+3*RCOOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3H5(OOCR)3+3*NaOH=CH2OH(CHOH)CH2OH+3*RCOONa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2995,7 +3083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3069,6 +3157,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3087,7 +3178,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3129,7 +3220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3164,7 +3255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3375,154 +3466,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.75" style="4"/>
+    <col min="7" max="7" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="2.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>777</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>760</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>761</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>762</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>764</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>765</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>767</v>
-      </c>
-      <c r="R1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y1" s="18" t="s">
+      <c r="AE1" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AF1" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AH1" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="AC1" s="20" t="s">
-        <v>782</v>
-      </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="AF1" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>57</v>
@@ -3534,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G2" s="21">
         <v>1.0078400000000001</v>
@@ -3573,12 +3664,12 @@
       <c r="AI2" s="22"/>
       <c r="AJ2" s="24"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>43</v>
@@ -3629,12 +3720,12 @@
       <c r="AI3" s="22"/>
       <c r="AJ3" s="24"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>58</v>
@@ -3646,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G4" s="21">
         <v>6.9379999999999997</v>
@@ -3689,12 +3780,12 @@
       <c r="AI4" s="22"/>
       <c r="AJ4" s="24"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>59</v>
@@ -3706,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G5" s="21">
         <v>9.0121822999999992</v>
@@ -3749,12 +3840,12 @@
       <c r="AI5" s="22"/>
       <c r="AJ5" s="24"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>60</v>
@@ -3766,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G6" s="21">
         <v>10.805999999999999</v>
@@ -3811,12 +3902,12 @@
       <c r="AI6" s="22"/>
       <c r="AJ6" s="24"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>61</v>
@@ -3828,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G7" s="21">
         <v>12.009600000000001</v>
@@ -3873,12 +3964,12 @@
       <c r="AI7" s="22"/>
       <c r="AJ7" s="24"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>62</v>
@@ -3890,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G8" s="21">
         <v>14.00643</v>
@@ -3935,12 +4026,12 @@
       <c r="AI8" s="22"/>
       <c r="AJ8" s="24"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>63</v>
@@ -3952,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G9" s="21">
         <v>15.999029999999999</v>
@@ -3997,12 +4088,12 @@
       <c r="AI9" s="22"/>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>64</v>
@@ -4014,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G10" s="21">
         <v>18.998403249999999</v>
@@ -4059,12 +4150,12 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="24"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>44</v>
@@ -4121,12 +4212,12 @@
       <c r="AI11" s="22"/>
       <c r="AJ11" s="24"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>65</v>
@@ -4138,7 +4229,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G12" s="21">
         <v>22.989769282000001</v>
@@ -4187,12 +4278,12 @@
       <c r="AI12" s="22"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>66</v>
@@ -4204,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G13" s="21">
         <v>24.305060000000001</v>
@@ -4253,12 +4344,12 @@
       <c r="AI13" s="22"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>67</v>
@@ -4270,7 +4361,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G14" s="21">
         <v>26.98153868</v>
@@ -4321,12 +4412,12 @@
       <c r="AI14" s="22"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>68</v>
@@ -4338,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G15" s="21">
         <v>28.084</v>
@@ -4389,12 +4480,12 @@
       <c r="AI15" s="22"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>69</v>
@@ -4406,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G16" s="21">
         <v>30.973762199999999</v>
@@ -4457,12 +4548,12 @@
       <c r="AI16" s="22"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>70</v>
@@ -4474,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G17" s="21">
         <v>32.058999999999997</v>
@@ -4525,12 +4616,12 @@
       <c r="AI17" s="22"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>71</v>
@@ -4542,7 +4633,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G18" s="21">
         <v>35.445999999999998</v>
@@ -4593,12 +4684,12 @@
       <c r="AI18" s="22"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>45</v>
@@ -4661,12 +4752,12 @@
       <c r="AI19" s="22"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>72</v>
@@ -4678,7 +4769,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G20" s="21">
         <v>39.098309999999998</v>
@@ -4733,12 +4824,12 @@
       <c r="AI20" s="22"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>73</v>
@@ -4750,7 +4841,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G21" s="21">
         <v>40.078400000000002</v>
@@ -4805,15 +4896,15 @@
       <c r="AI21" s="22"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D22" s="21">
         <v>24</v>
@@ -4879,15 +4970,15 @@
       <c r="AI22" s="22"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D23" s="21">
         <v>26</v>
@@ -4953,15 +5044,15 @@
       <c r="AI23" s="22"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D24" s="21">
         <v>28</v>
@@ -5027,15 +5118,15 @@
       <c r="AI24" s="22"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D25" s="21">
         <v>28</v>
@@ -5101,15 +5192,15 @@
       <c r="AI25" s="22"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D26" s="21">
         <v>30</v>
@@ -5175,12 +5266,12 @@
       <c r="AI26" s="22"/>
       <c r="AJ26" s="24"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>178</v>
@@ -5192,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G27" s="21">
         <v>55.845199999999998</v>
@@ -5249,15 +5340,15 @@
       <c r="AI27" s="22"/>
       <c r="AJ27" s="24"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D28" s="21">
         <v>32</v>
@@ -5266,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G28" s="21">
         <v>58.933195499999997</v>
@@ -5323,15 +5414,15 @@
       <c r="AI28" s="22"/>
       <c r="AJ28" s="24"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D29" s="21">
         <v>31</v>
@@ -5340,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G29" s="21">
         <v>58.693440000000002</v>
@@ -5397,12 +5488,12 @@
       <c r="AI29" s="22"/>
       <c r="AJ29" s="24"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>179</v>
@@ -5471,15 +5562,15 @@
       <c r="AI30" s="22"/>
       <c r="AJ30" s="24"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D31" s="21">
         <v>35</v>
@@ -5545,15 +5636,15 @@
       <c r="AI31" s="22"/>
       <c r="AJ31" s="24"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D32" s="21">
         <v>39</v>
@@ -5562,7 +5653,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G32" s="21">
         <v>69.723100000000002</v>
@@ -5621,15 +5712,15 @@
       <c r="AI32" s="22"/>
       <c r="AJ32" s="24"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D33" s="21">
         <v>41</v>
@@ -5638,7 +5729,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G33" s="21">
         <v>72.631</v>
@@ -5697,15 +5788,15 @@
       <c r="AI33" s="22"/>
       <c r="AJ33" s="24"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D34" s="21">
         <v>42</v>
@@ -5714,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G34" s="21">
         <v>74.921601999999993</v>
@@ -5773,15 +5864,15 @@
       <c r="AI34" s="22"/>
       <c r="AJ34" s="24"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D35" s="21">
         <v>45</v>
@@ -5790,7 +5881,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G35" s="21">
         <v>78.962999999999994</v>
@@ -5849,15 +5940,15 @@
       <c r="AI35" s="22"/>
       <c r="AJ35" s="24"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D36" s="21">
         <v>45</v>
@@ -5866,7 +5957,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G36" s="21">
         <v>79.9041</v>
@@ -5925,15 +6016,15 @@
       <c r="AI36" s="22"/>
       <c r="AJ36" s="24"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D37" s="21">
         <v>48</v>
@@ -6001,15 +6092,15 @@
       <c r="AI37" s="22"/>
       <c r="AJ37" s="24"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D38" s="21">
         <v>48</v>
@@ -6018,7 +6109,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G38" s="21">
         <v>85.467830000000006</v>
@@ -6081,15 +6172,15 @@
       <c r="AI38" s="22"/>
       <c r="AJ38" s="24"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D39" s="21">
         <v>50</v>
@@ -6098,7 +6189,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G39" s="21">
         <v>87.620999999999995</v>
@@ -6161,15 +6252,15 @@
       <c r="AI39" s="22"/>
       <c r="AJ39" s="24"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D40" s="21">
         <v>50</v>
@@ -6243,15 +6334,15 @@
       <c r="AI40" s="22"/>
       <c r="AJ40" s="24"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D41" s="21">
         <v>51</v>
@@ -6325,15 +6416,15 @@
       <c r="AI41" s="22"/>
       <c r="AJ41" s="24"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>41</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D42" s="21">
         <v>52</v>
@@ -6407,15 +6498,15 @@
       <c r="AI42" s="22"/>
       <c r="AJ42" s="24"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>42</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D43" s="21">
         <v>54</v>
@@ -6489,15 +6580,15 @@
       <c r="AI43" s="22"/>
       <c r="AJ43" s="24"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D44" s="21">
         <v>55</v>
@@ -6571,15 +6662,15 @@
       <c r="AI44" s="22"/>
       <c r="AJ44" s="24"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D45" s="21">
         <v>57</v>
@@ -6588,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G45" s="21">
         <v>101.072</v>
@@ -6653,15 +6744,15 @@
       <c r="AI45" s="22"/>
       <c r="AJ45" s="24"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D46" s="21">
         <v>58</v>
@@ -6670,7 +6761,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G46" s="21">
         <v>102.905502</v>
@@ -6735,15 +6826,15 @@
       <c r="AI46" s="22"/>
       <c r="AJ46" s="24"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D47" s="21">
         <v>60</v>
@@ -6752,7 +6843,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G47" s="21">
         <v>106.42100000000001</v>
@@ -6813,12 +6904,12 @@
       <c r="AI47" s="22"/>
       <c r="AJ47" s="24"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>47</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>180</v>
@@ -6895,15 +6986,15 @@
       <c r="AI48" s="22"/>
       <c r="AJ48" s="24"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>48</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D49" s="21">
         <v>64</v>
@@ -6977,15 +7068,15 @@
       <c r="AI49" s="22"/>
       <c r="AJ49" s="24"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>49</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D50" s="21">
         <v>66</v>
@@ -6994,7 +7085,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G50" s="21">
         <v>114.81829999999999</v>
@@ -7061,15 +7152,15 @@
       <c r="AI50" s="22"/>
       <c r="AJ50" s="24"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D51" s="21">
         <v>69</v>
@@ -7078,7 +7169,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G51" s="21">
         <v>118.7107</v>
@@ -7145,15 +7236,15 @@
       <c r="AI51" s="22"/>
       <c r="AJ51" s="24"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>51</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D52" s="21">
         <v>71</v>
@@ -7162,7 +7253,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G52" s="21">
         <v>121.76009999999999</v>
@@ -7229,15 +7320,15 @@
       <c r="AI52" s="22"/>
       <c r="AJ52" s="24"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D53" s="21">
         <v>76</v>
@@ -7246,7 +7337,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G53" s="21">
         <v>127.60299999999999</v>
@@ -7313,15 +7404,15 @@
       <c r="AI53" s="22"/>
       <c r="AJ53" s="24"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>53</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D54" s="21">
         <v>74</v>
@@ -7330,7 +7421,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G54" s="21">
         <v>126.904473</v>
@@ -7397,15 +7488,15 @@
       <c r="AI54" s="22"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D55" s="21">
         <v>77</v>
@@ -7481,15 +7572,15 @@
       <c r="AI55" s="22"/>
       <c r="AJ55" s="24"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>55</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D56" s="21">
         <v>78</v>
@@ -7498,7 +7589,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G56" s="21">
         <v>132.90545191999999</v>
@@ -7569,15 +7660,15 @@
       </c>
       <c r="AJ56" s="24"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>56</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D57" s="21">
         <v>81</v>
@@ -7586,7 +7677,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G57" s="21">
         <v>137.32769999999999</v>
@@ -7657,15 +7748,15 @@
       </c>
       <c r="AJ57" s="24"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D58" s="21">
         <v>82</v>
@@ -7747,15 +7838,15 @@
       </c>
       <c r="AJ58" s="24"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D59" s="21">
         <v>82</v>
@@ -7839,15 +7930,15 @@
       </c>
       <c r="AJ59" s="24"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D60" s="21">
         <v>82</v>
@@ -7929,15 +8020,15 @@
       </c>
       <c r="AJ60" s="24"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D61" s="21">
         <v>84</v>
@@ -8019,15 +8110,15 @@
       </c>
       <c r="AJ61" s="24"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D62" s="21">
         <v>84</v>
@@ -8109,15 +8200,15 @@
       </c>
       <c r="AJ62" s="24"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D63" s="21">
         <v>88</v>
@@ -8199,15 +8290,15 @@
       </c>
       <c r="AJ63" s="24"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D64" s="21">
         <v>89</v>
@@ -8289,15 +8380,15 @@
       </c>
       <c r="AJ64" s="24"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>64</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D65" s="21">
         <v>93</v>
@@ -8381,15 +8472,15 @@
       </c>
       <c r="AJ65" s="24"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D66" s="21">
         <v>94</v>
@@ -8471,15 +8562,15 @@
       </c>
       <c r="AJ66" s="24"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>66</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D67" s="21">
         <v>97</v>
@@ -8561,15 +8652,15 @@
       </c>
       <c r="AJ67" s="24"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D68" s="21">
         <v>98</v>
@@ -8651,15 +8742,15 @@
       </c>
       <c r="AJ68" s="24"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D69" s="21">
         <v>99</v>
@@ -8741,15 +8832,15 @@
       </c>
       <c r="AJ69" s="24"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D70" s="21">
         <v>100</v>
@@ -8831,15 +8922,15 @@
       </c>
       <c r="AJ70" s="24"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>70</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D71" s="21">
         <v>103</v>
@@ -8921,15 +9012,15 @@
       </c>
       <c r="AJ71" s="24"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D72" s="21">
         <v>104</v>
@@ -9013,15 +9104,15 @@
       </c>
       <c r="AJ72" s="24"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D73" s="21">
         <v>106</v>
@@ -9105,15 +9196,15 @@
       </c>
       <c r="AJ73" s="24"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>73</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D74" s="21">
         <v>108</v>
@@ -9197,15 +9288,15 @@
       </c>
       <c r="AJ74" s="24"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>74</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D75" s="21">
         <v>110</v>
@@ -9289,15 +9380,15 @@
       </c>
       <c r="AJ75" s="24"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D76" s="21">
         <v>111</v>
@@ -9381,15 +9472,15 @@
       </c>
       <c r="AJ76" s="24"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D77" s="21">
         <v>114</v>
@@ -9398,7 +9489,7 @@
         <v>6</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G77" s="21">
         <v>190.233</v>
@@ -9473,15 +9564,15 @@
       </c>
       <c r="AJ77" s="24"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D78" s="21">
         <v>115</v>
@@ -9490,7 +9581,7 @@
         <v>6</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G78" s="21">
         <v>192.21729999999999</v>
@@ -9565,12 +9656,12 @@
       </c>
       <c r="AJ78" s="24"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>182</v>
@@ -9582,7 +9673,7 @@
         <v>6</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G79" s="21">
         <v>195.0849</v>
@@ -9657,12 +9748,12 @@
       </c>
       <c r="AJ79" s="24"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>183</v>
@@ -9749,12 +9840,12 @@
       </c>
       <c r="AJ80" s="24"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C81" s="21" t="s">
         <v>181</v>
@@ -9841,15 +9932,15 @@
       </c>
       <c r="AJ81" s="24"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D82" s="21">
         <v>123</v>
@@ -9858,7 +9949,7 @@
         <v>6</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G82" s="21">
         <v>204.38200000000001</v>
@@ -9935,12 +10026,12 @@
       </c>
       <c r="AJ82" s="24"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>184</v>
@@ -9952,7 +10043,7 @@
         <v>6</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G83" s="21">
         <v>207.21</v>
@@ -10029,15 +10120,15 @@
       </c>
       <c r="AJ83" s="24"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D84" s="21">
         <v>126</v>
@@ -10046,7 +10137,7 @@
         <v>6</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G84" s="21">
         <v>208.980401</v>
@@ -10123,15 +10214,15 @@
       </c>
       <c r="AJ84" s="24"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D85" s="21">
         <v>125</v>
@@ -10140,7 +10231,7 @@
         <v>6</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G85" s="21">
         <v>208.98240000000001</v>
@@ -10217,15 +10308,15 @@
       </c>
       <c r="AJ85" s="24"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D86" s="21">
         <v>125</v>
@@ -10234,7 +10325,7 @@
         <v>6</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G86" s="21">
         <v>209.9871</v>
@@ -10311,15 +10402,15 @@
       </c>
       <c r="AJ86" s="24"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>86</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D87" s="21">
         <v>136</v>
@@ -10405,15 +10496,15 @@
       </c>
       <c r="AJ87" s="24"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>87</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D88" s="21">
         <v>136</v>
@@ -10422,7 +10513,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G88" s="21">
         <v>223</v>
@@ -10503,15 +10594,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D89" s="21">
         <v>138</v>
@@ -10520,7 +10611,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G89" s="21">
         <v>226</v>
@@ -10601,15 +10692,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>89</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D90" s="21">
         <v>138</v>
@@ -10701,15 +10792,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D91" s="21">
         <v>142</v>
@@ -10801,15 +10892,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D92" s="21">
         <v>140</v>
@@ -10903,15 +10994,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D93" s="21">
         <v>146</v>
@@ -11005,15 +11096,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D94" s="21">
         <v>146</v>
@@ -11107,15 +11198,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D95" s="21">
         <v>149</v>
@@ -11207,15 +11298,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D96" s="21">
         <v>150</v>
@@ -11307,15 +11398,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D97" s="21">
         <v>151</v>
@@ -11409,15 +11500,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <v>97</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D98" s="21">
         <v>152</v>
@@ -11509,15 +11600,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>98</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D99" s="21">
         <v>155</v>
@@ -11609,15 +11700,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>99</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D100" s="21">
         <v>155</v>
@@ -11709,15 +11800,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>100</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D101" s="21">
         <v>159</v>
@@ -11809,15 +11900,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>101</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D102" s="21">
         <v>159</v>
@@ -11909,15 +12000,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D103" s="21">
         <v>159</v>
@@ -12009,15 +12100,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <v>103</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D104" s="21">
         <v>161</v>
@@ -12111,15 +12202,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <v>104</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D105" s="21">
         <v>165</v>
@@ -12213,15 +12304,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D106" s="21">
         <v>165</v>
@@ -12315,15 +12406,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <v>106</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D107" s="21">
         <v>167</v>
@@ -12417,15 +12508,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>107</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D108" s="21">
         <v>167</v>
@@ -12519,15 +12610,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>108</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D109" s="21">
         <v>164</v>
@@ -12536,7 +12627,7 @@
         <v>7</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G109" s="21">
         <v>272.10599999999999</v>
@@ -12621,15 +12712,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D110" s="21">
         <v>169</v>
@@ -12638,7 +12729,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G110" s="21">
         <v>278.15280000000001</v>
@@ -12723,15 +12814,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D111" s="21">
         <v>173</v>
@@ -12740,7 +12831,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G111" s="21">
         <v>283.1918</v>
@@ -12825,15 +12916,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D112" s="21">
         <v>171</v>
@@ -12927,15 +13018,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D113" s="21">
         <v>175</v>
@@ -13029,15 +13120,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>113</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D114" s="21">
         <v>173</v>
@@ -13046,7 +13137,7 @@
         <v>7</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G114" s="21">
         <v>286.21519999999998</v>
@@ -13133,15 +13224,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D115" s="21">
         <v>177</v>
@@ -13150,7 +13241,7 @@
         <v>7</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G115" s="21">
         <v>291.19639999999998</v>
@@ -13237,15 +13328,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>115</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D116" s="21">
         <v>175</v>
@@ -13254,7 +13345,7 @@
         <v>7</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G116" s="21">
         <v>290.18880000000001</v>
@@ -13341,15 +13432,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <v>116</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D117" s="21">
         <v>179</v>
@@ -13358,7 +13449,7 @@
         <v>7</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G117" s="21">
         <v>295.22680000000003</v>
@@ -13445,15 +13536,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D118" s="21">
         <v>176</v>
@@ -13462,7 +13553,7 @@
         <v>7</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G118" s="21">
         <v>293.21159999999998</v>
@@ -13549,15 +13640,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>118</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D119" s="25">
         <v>181</v>
@@ -13668,14 +13759,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -13683,7 +13774,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
@@ -13691,7 +13782,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>374</v>
       </c>
@@ -13699,7 +13790,7 @@
         <v>514.63200000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>375</v>
       </c>
@@ -13707,7 +13798,7 @@
         <v>372.37600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -13715,7 +13806,7 @@
         <v>543.92000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>373</v>
       </c>
@@ -13723,7 +13814,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>424</v>
       </c>
@@ -13731,7 +13822,7 @@
         <v>212.5472</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>425</v>
       </c>
@@ -13739,7 +13830,7 @@
         <v>401.66399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>394</v>
       </c>
@@ -13747,7 +13838,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>395</v>
       </c>
@@ -13755,7 +13846,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -13763,7 +13854,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -13771,7 +13862,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
@@ -13779,7 +13870,7 @@
         <v>193.87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
@@ -13787,7 +13878,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -13795,7 +13886,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -13803,7 +13894,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
@@ -13811,7 +13902,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -13819,7 +13910,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
@@ -13827,7 +13918,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>409</v>
       </c>
@@ -13835,7 +13926,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>377</v>
       </c>
@@ -13843,7 +13934,7 @@
         <v>460.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>398</v>
       </c>
@@ -13851,7 +13942,7 @@
         <v>426.76800000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>379</v>
       </c>
@@ -13859,7 +13950,7 @@
         <v>552.28800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>378</v>
       </c>
@@ -13867,7 +13958,7 @@
         <v>418.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -13875,7 +13966,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -13883,7 +13974,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -13891,7 +13982,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>107</v>
       </c>
@@ -13899,7 +13990,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -13907,7 +13998,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -13915,7 +14006,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
@@ -13923,7 +14014,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>399</v>
       </c>
@@ -13931,7 +14022,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -13939,7 +14030,7 @@
         <v>242.58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -13947,7 +14038,7 @@
         <v>431.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -13955,7 +14046,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -13963,7 +14054,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -13971,7 +14062,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
@@ -13979,7 +14070,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
@@ -13987,7 +14078,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
@@ -13995,7 +14086,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>380</v>
       </c>
@@ -14003,7 +14094,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>427</v>
       </c>
@@ -14011,7 +14102,7 @@
         <v>368.19200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>428</v>
       </c>
@@ -14019,7 +14110,7 @@
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>401</v>
       </c>
@@ -14027,7 +14118,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>402</v>
       </c>
@@ -14035,7 +14126,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>381</v>
       </c>
@@ -14043,7 +14134,7 @@
         <v>397.48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>429</v>
       </c>
@@ -14051,7 +14142,7 @@
         <v>313.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -14059,7 +14150,7 @@
         <v>156.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -14067,7 +14158,7 @@
         <v>568.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>387</v>
       </c>
@@ -14075,7 +14166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -14083,7 +14174,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -14091,7 +14182,7 @@
         <v>498.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>430</v>
       </c>
@@ -14099,7 +14190,7 @@
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>115</v>
       </c>
@@ -14107,7 +14198,7 @@
         <v>298.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
@@ -14115,7 +14206,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>448</v>
       </c>
@@ -14123,7 +14214,7 @@
         <v>50.207999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -14131,7 +14222,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -14139,7 +14230,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -14147,7 +14238,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -14155,7 +14246,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>382</v>
       </c>
@@ -14163,7 +14254,7 @@
         <v>338.904</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
@@ -14171,7 +14262,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>431</v>
       </c>
@@ -14179,7 +14270,7 @@
         <v>573.20799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -14187,7 +14278,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
@@ -14195,7 +14286,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -14203,7 +14294,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>383</v>
       </c>
@@ -14211,7 +14302,7 @@
         <v>422.584</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>384</v>
       </c>
@@ -14219,7 +14310,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>432</v>
       </c>
@@ -14227,7 +14318,7 @@
         <v>259.40800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>433</v>
       </c>
@@ -14235,7 +14326,7 @@
         <v>564.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>434</v>
       </c>
@@ -14243,7 +14334,7 @@
         <v>234.304</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>371</v>
       </c>
@@ -14251,7 +14342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -14259,7 +14350,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -14267,7 +14358,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
@@ -14275,7 +14366,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -14283,7 +14374,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -14291,7 +14382,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -14299,7 +14390,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>124</v>
       </c>
@@ -14307,7 +14398,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>385</v>
       </c>
@@ -14315,7 +14406,7 @@
         <v>380.74400000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>386</v>
       </c>
@@ -14323,7 +14414,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>390</v>
       </c>
@@ -14331,7 +14422,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -14339,7 +14430,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>186</v>
       </c>
@@ -14347,7 +14438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -14355,7 +14446,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -14363,7 +14454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>397</v>
       </c>
@@ -14371,7 +14462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>403</v>
       </c>
@@ -14379,7 +14470,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -14387,7 +14478,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14395,7 +14486,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -14403,7 +14494,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>391</v>
       </c>
@@ -14411,7 +14502,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>134</v>
       </c>
@@ -14419,7 +14510,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>125</v>
       </c>
@@ -14427,7 +14518,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>446</v>
       </c>
@@ -14435,7 +14526,7 @@
         <v>297.06400000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>447</v>
       </c>
@@ -14443,7 +14534,7 @@
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>134</v>
       </c>
@@ -14451,7 +14542,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>135</v>
       </c>
@@ -14459,7 +14550,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -14467,7 +14558,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -14475,7 +14566,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -14483,7 +14574,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -14491,7 +14582,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -14499,7 +14590,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>408</v>
       </c>
@@ -14507,7 +14598,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>136</v>
       </c>
@@ -14515,7 +14606,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>137</v>
       </c>
@@ -14523,7 +14614,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>138</v>
       </c>
@@ -14531,7 +14622,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>140</v>
       </c>
@@ -14539,7 +14630,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -14547,7 +14638,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>389</v>
       </c>
@@ -14555,7 +14646,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>142</v>
       </c>
@@ -14563,7 +14654,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>388</v>
       </c>
@@ -14571,7 +14662,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -14579,7 +14670,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -14587,7 +14678,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -14595,7 +14686,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -14603,7 +14694,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>392</v>
       </c>
@@ -14611,7 +14702,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -14619,7 +14710,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>396</v>
       </c>
@@ -14627,7 +14718,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>393</v>
       </c>
@@ -14635,7 +14726,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
@@ -14643,7 +14734,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -14651,7 +14742,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -14659,7 +14750,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>443</v>
       </c>
@@ -14667,7 +14758,7 @@
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>444</v>
       </c>
@@ -14675,7 +14766,7 @@
         <v>439.32</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>445</v>
       </c>
@@ -14683,7 +14774,7 @@
         <v>652.70400000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>441</v>
       </c>
@@ -14691,7 +14782,7 @@
         <v>748.93600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>442</v>
       </c>
@@ -14699,7 +14790,7 @@
         <v>560.65600000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>439</v>
       </c>
@@ -14707,7 +14798,7 @@
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>440</v>
       </c>
@@ -14715,7 +14806,7 @@
         <v>661.072</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>438</v>
       </c>
@@ -14723,7 +14814,7 @@
         <v>129.70400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>435</v>
       </c>
@@ -14731,7 +14822,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>436</v>
       </c>
@@ -14739,7 +14830,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>437</v>
       </c>
@@ -14747,7 +14838,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>410</v>
       </c>
@@ -14755,7 +14846,7 @@
         <v>158.99200000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>411</v>
       </c>
@@ -14763,7 +14854,7 @@
         <v>188.28</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>412</v>
       </c>
@@ -14771,7 +14862,7 @@
         <v>215.476</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>426</v>
       </c>
@@ -14779,7 +14870,7 @@
         <v>292.88</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>468</v>
       </c>
@@ -14787,7 +14878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
@@ -14795,7 +14886,7 @@
         <v>190.37200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>414</v>
       </c>
@@ -14803,7 +14894,7 @@
         <v>236.81790000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>415</v>
       </c>
@@ -14811,7 +14902,7 @@
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>416</v>
       </c>
@@ -14819,7 +14910,7 @@
         <v>49.371200000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>417</v>
       </c>
@@ -14827,7 +14918,7 @@
         <v>104.60000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>298</v>
       </c>
@@ -14835,7 +14926,7 @@
         <v>83.846999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>418</v>
       </c>
@@ -14843,7 +14934,7 @@
         <v>72.383200000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>419</v>
       </c>
@@ -14851,7 +14942,7 @@
         <v>242.672</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>420</v>
       </c>
@@ -14859,7 +14950,7 @@
         <v>303.81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>421</v>
       </c>
@@ -14876,31 +14967,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="22.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>171</v>
@@ -14927,7 +15018,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>180</v>
       </c>
@@ -14953,9 +15044,9 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -14964,9 +15055,9 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -14975,7 +15066,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
@@ -15001,7 +15092,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>214</v>
       </c>
@@ -15030,7 +15121,7 @@
         <v>0.79606891016022852</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>213</v>
       </c>
@@ -15059,7 +15150,7 @@
         <v>0.58606651629604467</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>245</v>
       </c>
@@ -15088,7 +15179,7 @@
         <v>0.78789131518402311</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>229</v>
       </c>
@@ -15114,7 +15205,7 @@
         <v>0.66109061402221958</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>183</v>
       </c>
@@ -15140,7 +15231,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -15166,7 +15257,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>177</v>
       </c>
@@ -15192,7 +15283,7 @@
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -15218,7 +15309,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -15244,7 +15335,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -15270,7 +15361,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>413</v>
       </c>
@@ -15292,11 +15383,11 @@
       <c r="H16" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I16" s="11">
-        <v>0.57654068001231196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I16" s="29">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>202</v>
       </c>
@@ -15325,7 +15416,7 @@
         <v>1.4158377790716348</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>218</v>
       </c>
@@ -15354,7 +15445,7 @@
         <v>0.87863999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>464</v>
       </c>
@@ -15383,7 +15474,7 @@
         <v>1.6497880620837919</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>203</v>
       </c>
@@ -15412,7 +15503,7 @@
         <v>0.8791228488246472</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>204</v>
       </c>
@@ -15441,9 +15532,9 @@
         <v>1.1353563099031463</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="12"/>
@@ -15452,7 +15543,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>201</v>
       </c>
@@ -15481,7 +15572,7 @@
         <v>1.3959124382185175</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>199</v>
       </c>
@@ -15510,7 +15601,7 @@
         <v>0.72243535324415098</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>200</v>
       </c>
@@ -15539,7 +15630,7 @@
         <v>0.57983621973010036</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>230</v>
       </c>
@@ -15565,7 +15656,7 @@
         <v>0.62022216920268813</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>179</v>
       </c>
@@ -15591,9 +15682,9 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -15602,7 +15693,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>233</v>
       </c>
@@ -15628,7 +15719,7 @@
         <v>0.62075619203401167</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
@@ -15654,7 +15745,7 @@
         <v>0.82389999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>178</v>
       </c>
@@ -15680,9 +15771,9 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -15691,9 +15782,9 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -15702,7 +15793,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>231</v>
       </c>
@@ -15728,7 +15819,7 @@
         <v>1.6420837840585196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>232</v>
       </c>
@@ -15754,7 +15845,7 @@
         <v>1.940758400609909</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -15780,7 +15871,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -15809,7 +15900,7 @@
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>174</v>
       </c>
@@ -15838,7 +15929,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>319</v>
       </c>
@@ -15867,7 +15958,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>227</v>
       </c>
@@ -15896,7 +15987,7 @@
         <v>0.79458000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -15925,7 +16016,7 @@
         <v>0.5697879031834302</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>488</v>
       </c>
@@ -15954,7 +16045,7 @@
         <v>3.222</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>219</v>
       </c>
@@ -15977,7 +16068,7 @@
         <v>5.2275000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>181</v>
       </c>
@@ -16003,7 +16094,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
@@ -16020,16 +16111,16 @@
         <v>63</v>
       </c>
       <c r="G45" s="8">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="H45" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I45" s="11">
-        <v>0.93842356714859831</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I45" s="29">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>209</v>
       </c>
@@ -16058,7 +16149,7 @@
         <v>1.4914384287497624</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>210</v>
       </c>
@@ -16087,7 +16178,7 @@
         <v>0.88783223074323669</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>205</v>
       </c>
@@ -16116,7 +16207,7 @@
         <v>1.0803616347544793</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>207</v>
       </c>
@@ -16145,7 +16236,7 @@
         <v>1.0565045108229185</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>211</v>
       </c>
@@ -16174,9 +16265,9 @@
         <v>1.0849318506974142</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="12"/>
@@ -16185,7 +16276,7 @@
       </c>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>208</v>
       </c>
@@ -16214,7 +16305,7 @@
         <v>1.4942978880056739</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -16243,7 +16334,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>206</v>
       </c>
@@ -16272,7 +16363,7 @@
         <v>1.7121280264193122</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>195</v>
       </c>
@@ -16298,9 +16389,9 @@
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -16309,7 +16400,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>212</v>
       </c>
@@ -16338,9 +16429,9 @@
         <v>1.7298136019301498</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="12"/>
@@ -16349,7 +16440,7 @@
       </c>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>298</v>
       </c>
@@ -16371,13 +16462,13 @@
       <c r="H59" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I59" s="11">
-        <v>0.6391125033813938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I59" s="29">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -16386,7 +16477,7 @@
       </c>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>228</v>
       </c>
@@ -16412,7 +16503,7 @@
         <v>0.71663173855209439</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -16438,7 +16529,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>198</v>
       </c>
@@ -16464,7 +16555,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -16490,7 +16581,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -16516,7 +16607,7 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>235</v>
       </c>
@@ -16538,13 +16629,13 @@
       <c r="H66" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I66" s="11">
-        <v>1.9581211980839592</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I66" s="29">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -16553,7 +16644,7 @@
       </c>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>305</v>
       </c>
@@ -16582,7 +16673,7 @@
         <v>1.5784756084082265</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>306</v>
       </c>
@@ -16611,9 +16702,9 @@
         <v>1.9432352494828293</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="12"/>
@@ -16622,9 +16713,9 @@
       </c>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="12"/>
@@ -16633,7 +16724,7 @@
       </c>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>49</v>
       </c>
@@ -16662,7 +16753,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
@@ -16688,7 +16779,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>370</v>
       </c>
@@ -16717,7 +16808,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>216</v>
       </c>
@@ -16746,7 +16837,7 @@
         <v>1.1176930318083564</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>152</v>
       </c>
@@ -16775,7 +16866,7 @@
         <v>1.1367072050884368</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>197</v>
       </c>
@@ -16804,7 +16895,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>217</v>
       </c>
@@ -16833,7 +16924,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>215</v>
       </c>
@@ -16862,7 +16953,7 @@
         <v>1.2435766847482452</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -16888,7 +16979,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
@@ -16914,7 +17005,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
@@ -16940,7 +17031,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>150</v>
       </c>
@@ -16966,7 +17057,7 @@
         <v>0.64557633195798869</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>184</v>
       </c>
@@ -16989,7 +17080,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>182</v>
       </c>
@@ -17012,7 +17103,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>145</v>
       </c>
@@ -17038,7 +17129,7 @@
         <v>0.7527600000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>151</v>
       </c>
@@ -17064,7 +17155,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>236</v>
       </c>
@@ -17087,10 +17178,10 @@
         <v>1E-4</v>
       </c>
       <c r="I88" s="10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>55</v>
       </c>
@@ -17116,7 +17207,7 @@
         <v>0.83640000000000014</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
@@ -17142,7 +17233,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>222</v>
       </c>
@@ -17168,7 +17259,7 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>175</v>
       </c>
@@ -17194,7 +17285,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>365</v>
       </c>
@@ -17220,7 +17311,7 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>176</v>
       </c>
@@ -17246,12 +17337,12 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>495</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>496</v>
@@ -17272,12 +17363,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="F96" s="8">
         <v>80</v>
@@ -17286,12 +17377,12 @@
       <c r="H96" s="13"/>
       <c r="I96" s="11"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="E97" s="2">
         <v>1508</v>
@@ -17307,12 +17398,12 @@
       </c>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>497</v>
@@ -17333,12 +17424,12 @@
         <v>4.1867999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>497</v>
@@ -17356,12 +17447,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>497</v>
@@ -17379,15 +17470,15 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>498</v>
+        <v>799</v>
       </c>
       <c r="E101" s="2">
         <v>1587</v>
@@ -17405,49 +17496,55 @@
         <v>3.7679999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>498</v>
+        <v>799</v>
       </c>
       <c r="H102" s="13">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>498</v>
+        <v>799</v>
       </c>
       <c r="H103" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>801</v>
       </c>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>544</v>
+        <v>798</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>800</v>
       </c>
       <c r="E105" s="2">
         <v>1500</v>
@@ -17459,15 +17556,102 @@
         <v>357.8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>545</v>
+        <v>797</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="F106" s="2">
         <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1263.6199999999999</v>
+      </c>
+      <c r="F107" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="G107" s="2">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="I107" s="2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -17481,19 +17665,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -17504,7 +17688,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>469</v>
       </c>
@@ -17515,7 +17699,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>462</v>
       </c>
@@ -17526,7 +17710,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>463</v>
       </c>
@@ -17537,7 +17721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>165</v>
       </c>
@@ -17548,7 +17732,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>461</v>
       </c>
@@ -17559,7 +17743,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>164</v>
       </c>
@@ -17570,7 +17754,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>166</v>
       </c>
@@ -17581,7 +17765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>167</v>
       </c>
@@ -17592,7 +17776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>465</v>
       </c>
@@ -17603,7 +17787,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>486</v>
       </c>
@@ -17614,7 +17798,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>487</v>
       </c>
@@ -17625,7 +17809,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>466</v>
       </c>
@@ -17636,7 +17820,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>467</v>
       </c>
@@ -17647,7 +17831,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>168</v>
       </c>
@@ -17658,7 +17842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>148</v>
       </c>
@@ -17669,7 +17853,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>460</v>
       </c>
@@ -17680,7 +17864,7 @@
         <v>-4.41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>169</v>
       </c>
@@ -17691,7 +17875,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>147</v>
       </c>
@@ -17702,7 +17886,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>170</v>
       </c>
@@ -17713,7 +17897,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>149</v>
       </c>
@@ -17724,7 +17908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>226</v>
       </c>
@@ -17735,7 +17919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>490</v>
       </c>
@@ -17746,7 +17930,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
@@ -17757,7 +17941,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>493</v>
       </c>
@@ -17777,23 +17961,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -17810,28 +17994,28 @@
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C4" s="1">
         <v>595</v>
@@ -17844,65 +18028,75 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/Init.xlsx
+++ b/Init.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="662" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="7" r:id="rId1"/>
     <sheet name="chemical_bond" sheetId="1" r:id="rId2"/>
     <sheet name="molecule" sheetId="2" r:id="rId3"/>
-    <sheet name="chemical_equation" sheetId="5" r:id="rId4"/>
-    <sheet name="biochemical_reaction" sheetId="6" r:id="rId5"/>
+    <sheet name="radical_group" sheetId="8" r:id="rId4"/>
+    <sheet name="amino_acid" sheetId="9" r:id="rId5"/>
+    <sheet name="chemical_equation" sheetId="5" r:id="rId6"/>
+    <sheet name="biochemical_reaction" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$89</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1066">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'F-F':2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Cl-Cl':2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,10 +875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'NH4+','CO3-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Argentum</t>
   </si>
   <si>
@@ -891,18 +885,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Al3+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Al-O':3,'H-O':3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Al3+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AlF3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,10 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Al3+','F-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Welding Gas</t>
   </si>
   <si>
@@ -933,18 +915,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Ca2+','HCO3-','CO3^2-','H+'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Ca-O':2,'H-O':2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Ca2+','OH-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Calcium Phosphate Tribasic</t>
   </si>
   <si>
@@ -952,14 +926,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Ca2+','PO4^3-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','C2O4^2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Ca-O':2,'C-O':2,'C=O':2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -968,14 +934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Ca2+','Cl-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Ca2+','CO3^2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fluorspar</t>
   </si>
   <si>
@@ -983,18 +941,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Ca2+','F-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Ca-O':2,'P-O':3,'P=O':1,'H-O':1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Ca2+','PO4^3-','HPO4^2-','H+'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'C-F':4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'H+','S2-'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Cl-H':1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1469,27 +1415,6 @@
     <t>standard density</t>
   </si>
   <si>
-    <t>CΞC</t>
-  </si>
-  <si>
-    <t>CΞN</t>
-  </si>
-  <si>
-    <t>NΞN</t>
-  </si>
-  <si>
-    <t>{'CΞN':1,'C-H':1}</t>
-  </si>
-  <si>
-    <t>{'NΞN':1}</t>
-  </si>
-  <si>
-    <t>{'NΞN':1,'N-O':1}</t>
-  </si>
-  <si>
-    <t>{'C-H':2,'CΞC':1}</t>
-  </si>
-  <si>
     <t>P-S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1553,10 +1478,6 @@
     <t>Calcium</t>
   </si>
   <si>
-    <t>AlΞP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Al=S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2900,6 +2821,844 @@
   </si>
   <si>
     <t>C3H5(OOCR)3+3*NaOH=CH2OH(CHOH)CH2OH+3*RCOONa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al^3+','OH-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al^3+','Cl-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Al^3+','F-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Ca^2+','OH-'}</t>
+  </si>
+  <si>
+    <t>{'Ca^2+','CO3^2-'}</t>
+  </si>
+  <si>
+    <t>{'Ca^2+','HCO3-','CO3^2-','H+'}</t>
+  </si>
+  <si>
+    <t>{'Ca^2+','C2O4^2-'}</t>
+  </si>
+  <si>
+    <t>{'Ca^2+','PO4^3-'}</t>
+  </si>
+  <si>
+    <t>{'Ca^2+','PO4^3-','HPO4^2-','H+'}</t>
+  </si>
+  <si>
+    <t>{'Ca^2+','Cl-'}</t>
+  </si>
+  <si>
+    <t>{'Ca^2+','F-'}</t>
+  </si>
+  <si>
+    <t>{'H+','S^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'NH4+','CO3^2-'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Asparagine</t>
+  </si>
+  <si>
+    <t>asn</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>asp</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>HOOC-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>天冬氨酸</t>
+  </si>
+  <si>
+    <t>Cysteine</t>
+  </si>
+  <si>
+    <t>cys</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>gln</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>glu</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>gly</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Histidine</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>ile</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>leu</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Lysine</t>
+  </si>
+  <si>
+    <t>lys</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>H2N-(CH2)4-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>赖氨酸</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>phe</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>thr</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Tryptophan</t>
+  </si>
+  <si>
+    <t>trp</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Tyrosine</t>
+  </si>
+  <si>
+    <t>tyr</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single lette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>丙氨酸</t>
+  </si>
+  <si>
+    <t>HN=C(NH2)-NH-(CH2)3-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>精氨酸</t>
+  </si>
+  <si>
+    <t>H2N-CO-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>天冬酰胺</t>
+  </si>
+  <si>
+    <t>HS-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>半胱氨酸</t>
+  </si>
+  <si>
+    <t>H2N-CO-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>谷氨酰胺</t>
+  </si>
+  <si>
+    <t>NH2-CH2-COOH</t>
+  </si>
+  <si>
+    <t>甘氨酸</t>
+  </si>
+  <si>
+    <t>NH-CH=N-CH=C-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>组氨酸</t>
+  </si>
+  <si>
+    <t>CH3-CH2-CH(CH3)-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>异亮氨酸</t>
+  </si>
+  <si>
+    <t>(CH3)2-CH-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>亮氨酸</t>
+  </si>
+  <si>
+    <t>CH3-S-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>Ph-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>苯丙氨酸</t>
+  </si>
+  <si>
+    <t>NH-(CH2)3-CH-COOH</t>
+  </si>
+  <si>
+    <t>脯氨酸</t>
+  </si>
+  <si>
+    <t>HO-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>丝氨酸</t>
+  </si>
+  <si>
+    <t>CH3-CH(OH)-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>苏氨酸</t>
+  </si>
+  <si>
+    <t>甲硫氨酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ph-NH-CH=CH-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>色氨酸</t>
+  </si>
+  <si>
+    <t>HO-p-Ph-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>酪氨酸</t>
+  </si>
+  <si>
+    <t>(CH3)2-CH-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>缬氨酸</t>
+  </si>
+  <si>
+    <t>Glutamic acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOOC-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>谷氨酸</t>
+  </si>
+  <si>
+    <t>Aspartic acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>methyl</t>
+  </si>
+  <si>
+    <t>甲基</t>
+  </si>
+  <si>
+    <t>ethyl</t>
+  </si>
+  <si>
+    <t>乙基</t>
+  </si>
+  <si>
+    <t>(n-)propyl</t>
+  </si>
+  <si>
+    <t>正丙基</t>
+  </si>
+  <si>
+    <t>isopropyl</t>
+  </si>
+  <si>
+    <t>isobutyl</t>
+  </si>
+  <si>
+    <t>异丁基</t>
+  </si>
+  <si>
+    <t>allyl</t>
+  </si>
+  <si>
+    <t>烯丙基</t>
+  </si>
+  <si>
+    <t>2-propynyl</t>
+  </si>
+  <si>
+    <t>2-丙炔基</t>
+  </si>
+  <si>
+    <t>Benzyl=-tolyl</t>
+  </si>
+  <si>
+    <t>Isopropyl=sec-propyl</t>
+  </si>
+  <si>
+    <t>异丙基</t>
+  </si>
+  <si>
+    <t>vinyl</t>
+  </si>
+  <si>
+    <t>乙烯基</t>
+  </si>
+  <si>
+    <t>Sec-butyl</t>
+  </si>
+  <si>
+    <t>仲丁基</t>
+  </si>
+  <si>
+    <t>cyclohexyl</t>
+  </si>
+  <si>
+    <t>环己基</t>
+  </si>
+  <si>
+    <t>propenyl</t>
+  </si>
+  <si>
+    <t>丙烯基</t>
+  </si>
+  <si>
+    <t>Tert-butyl</t>
+  </si>
+  <si>
+    <t>叔丁基</t>
+  </si>
+  <si>
+    <t>isopropenyl</t>
+  </si>
+  <si>
+    <t>异丙烯基</t>
+  </si>
+  <si>
+    <t>Acetenyl=ethynyl</t>
+  </si>
+  <si>
+    <t>乙炔基</t>
+  </si>
+  <si>
+    <t>benzol</t>
+  </si>
+  <si>
+    <t>苯基</t>
+  </si>
+  <si>
+    <t>p-methylphenyl</t>
+  </si>
+  <si>
+    <t>对甲苯基</t>
+  </si>
+  <si>
+    <t>m-methylphenyl</t>
+  </si>
+  <si>
+    <t>间甲苯基</t>
+  </si>
+  <si>
+    <t>o-methylphenyl</t>
+  </si>
+  <si>
+    <t>邻甲苯基</t>
+  </si>
+  <si>
+    <t>o-nitrophenyl</t>
+  </si>
+  <si>
+    <t>邻硝基苯基</t>
+  </si>
+  <si>
+    <t>formyl</t>
+  </si>
+  <si>
+    <t>甲酰基</t>
+  </si>
+  <si>
+    <t>acetyl</t>
+  </si>
+  <si>
+    <t>乙酰基</t>
+  </si>
+  <si>
+    <t>benzoyl</t>
+  </si>
+  <si>
+    <t>carboxy</t>
+  </si>
+  <si>
+    <t>羧基</t>
+  </si>
+  <si>
+    <t>benzyloxycarbonyl</t>
+  </si>
+  <si>
+    <t>苄氧羰基</t>
+  </si>
+  <si>
+    <t>Tert-butoxycarbonyl</t>
+  </si>
+  <si>
+    <t>叔丁氧羰基</t>
+  </si>
+  <si>
+    <t>amino</t>
+  </si>
+  <si>
+    <t>Methylamino-</t>
+  </si>
+  <si>
+    <t>甲氨基</t>
+  </si>
+  <si>
+    <t>dimethylamino二甲氨基</t>
+  </si>
+  <si>
+    <t>diethylamino</t>
+  </si>
+  <si>
+    <t>二乙氨基</t>
+  </si>
+  <si>
+    <t>acetamido</t>
+  </si>
+  <si>
+    <t>乙酰氨基</t>
+  </si>
+  <si>
+    <t>benzyloxycarbonylamino</t>
+  </si>
+  <si>
+    <t>苄氧羰基氨基</t>
+  </si>
+  <si>
+    <t>nitro</t>
+  </si>
+  <si>
+    <t>硝基</t>
+  </si>
+  <si>
+    <t>hydroxy</t>
+  </si>
+  <si>
+    <t>羟基—OH</t>
+  </si>
+  <si>
+    <t>methoxy</t>
+  </si>
+  <si>
+    <t>甲氧基</t>
+  </si>
+  <si>
+    <t>benzyloxy</t>
+  </si>
+  <si>
+    <t>苄氧基</t>
+  </si>
+  <si>
+    <t>phenoxy</t>
+  </si>
+  <si>
+    <t>苯氧基</t>
+  </si>
+  <si>
+    <t>formyloxy</t>
+  </si>
+  <si>
+    <t>甲酰氧基</t>
+  </si>
+  <si>
+    <t>acetoxy</t>
+  </si>
+  <si>
+    <t>乙酰氧基</t>
+  </si>
+  <si>
+    <t>benzoyloxy</t>
+  </si>
+  <si>
+    <t>苯甲酰氧基</t>
+  </si>
+  <si>
+    <t>fluoro</t>
+  </si>
+  <si>
+    <t>氟基</t>
+  </si>
+  <si>
+    <t>Thiohydroxy=mercapto=sulfhydryl</t>
+  </si>
+  <si>
+    <t>巯基</t>
+  </si>
+  <si>
+    <t>Methylsulfonyl=mesyl</t>
+  </si>
+  <si>
+    <t>甲基磺酰基</t>
+  </si>
+  <si>
+    <t>sulfo</t>
+  </si>
+  <si>
+    <t>磺酸基</t>
+  </si>
+  <si>
+    <t>chloro</t>
+  </si>
+  <si>
+    <t>氯基</t>
+  </si>
+  <si>
+    <t>bromo</t>
+  </si>
+  <si>
+    <t>溴基</t>
+  </si>
+  <si>
+    <t>iodo</t>
+  </si>
+  <si>
+    <t>碘基</t>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-H</t>
+  </si>
+  <si>
+    <t>-C2H5</t>
+  </si>
+  <si>
+    <t>-CH3</t>
+  </si>
+  <si>
+    <t>-CH2CH(CH3)2</t>
+  </si>
+  <si>
+    <t>苯甲酰基-COPh</t>
+  </si>
+  <si>
+    <t>-N(CH3)2</t>
+  </si>
+  <si>
+    <t>-CH2-CH=CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH2C≡CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH2-Ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH(CH3)2</t>
+  </si>
+  <si>
+    <t>苄基(苯甲基)</t>
+  </si>
+  <si>
+    <t>氨基(伯氨基)</t>
+  </si>
+  <si>
+    <t>-CH=CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH=CH-CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-C(CH3)3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COOC(CH3)3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NHCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-N(C2H5)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NHCOCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NHCOOCH2Ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-OCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-OCH2Pd</t>
+  </si>
+  <si>
+    <t>-OPd</t>
+  </si>
+  <si>
+    <t>-OCOH</t>
+  </si>
+  <si>
+    <t>-OCOCH3</t>
+  </si>
+  <si>
+    <t>-OCOPd</t>
+  </si>
+  <si>
+    <t>-F</t>
+  </si>
+  <si>
+    <t>-SH</t>
+  </si>
+  <si>
+    <t>-SO2CH3</t>
+  </si>
+  <si>
+    <t>-SO3H</t>
+  </si>
+  <si>
+    <t>-Cl</t>
+  </si>
+  <si>
+    <t>-Br</t>
+  </si>
+  <si>
+    <t>-I</t>
+  </si>
+  <si>
+    <t>-C≡CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2C=C(CH3)C-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al≡P</t>
+  </si>
+  <si>
+    <t>C≡C</t>
+  </si>
+  <si>
+    <t>C≡N</t>
+  </si>
+  <si>
+    <t>N≡N</t>
+  </si>
+  <si>
+    <t>{'N≡N':1}</t>
+  </si>
+  <si>
+    <t>{'N≡N':1,'N-O':1}</t>
+  </si>
+  <si>
+    <t>{'C-H':2,'C≡C':1}</t>
+  </si>
+  <si>
+    <t>{'C≡N':1,'C-H':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异丙基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH(CH3)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-C3H7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'F-F':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3083,7 +3842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3160,6 +3919,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3178,7 +3938,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3220,7 +3980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3255,7 +4015,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3468,152 +4228,152 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="2.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="17.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="2.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="3.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>755</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="V1" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y1" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="Z1" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="AD1" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="AE1" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="AF1" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="AG1" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AI1" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>766</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>767</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>768</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>57</v>
@@ -3625,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G2" s="21">
         <v>1.0078400000000001</v>
@@ -3664,12 +4424,12 @@
       <c r="AI2" s="22"/>
       <c r="AJ2" s="24"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>43</v>
@@ -3720,12 +4480,12 @@
       <c r="AI3" s="22"/>
       <c r="AJ3" s="24"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>58</v>
@@ -3737,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G4" s="21">
         <v>6.9379999999999997</v>
@@ -3780,12 +4540,12 @@
       <c r="AI4" s="22"/>
       <c r="AJ4" s="24"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>59</v>
@@ -3797,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G5" s="21">
         <v>9.0121822999999992</v>
@@ -3840,12 +4600,12 @@
       <c r="AI5" s="22"/>
       <c r="AJ5" s="24"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>60</v>
@@ -3857,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="G6" s="21">
         <v>10.805999999999999</v>
@@ -3902,12 +4662,12 @@
       <c r="AI6" s="22"/>
       <c r="AJ6" s="24"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>61</v>
@@ -3919,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G7" s="21">
         <v>12.009600000000001</v>
@@ -3964,12 +4724,12 @@
       <c r="AI7" s="22"/>
       <c r="AJ7" s="24"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>62</v>
@@ -3981,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="G8" s="21">
         <v>14.00643</v>
@@ -4026,12 +4786,12 @@
       <c r="AI8" s="22"/>
       <c r="AJ8" s="24"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>63</v>
@@ -4043,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G9" s="21">
         <v>15.999029999999999</v>
@@ -4088,12 +4848,12 @@
       <c r="AI9" s="22"/>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>64</v>
@@ -4105,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="G10" s="21">
         <v>18.998403249999999</v>
@@ -4150,12 +4910,12 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="24"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>44</v>
@@ -4212,12 +4972,12 @@
       <c r="AI11" s="22"/>
       <c r="AJ11" s="24"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>65</v>
@@ -4229,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G12" s="21">
         <v>22.989769282000001</v>
@@ -4278,12 +5038,12 @@
       <c r="AI12" s="22"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>66</v>
@@ -4295,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G13" s="21">
         <v>24.305060000000001</v>
@@ -4344,12 +5104,12 @@
       <c r="AI13" s="22"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>67</v>
@@ -4361,7 +5121,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="G14" s="21">
         <v>26.98153868</v>
@@ -4412,12 +5172,12 @@
       <c r="AI14" s="22"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>68</v>
@@ -4429,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G15" s="21">
         <v>28.084</v>
@@ -4480,12 +5240,12 @@
       <c r="AI15" s="22"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>69</v>
@@ -4497,7 +5257,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="G16" s="21">
         <v>30.973762199999999</v>
@@ -4548,12 +5308,12 @@
       <c r="AI16" s="22"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>70</v>
@@ -4565,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G17" s="21">
         <v>32.058999999999997</v>
@@ -4616,12 +5376,12 @@
       <c r="AI17" s="22"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>71</v>
@@ -4633,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="G18" s="21">
         <v>35.445999999999998</v>
@@ -4684,12 +5444,12 @@
       <c r="AI18" s="22"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>45</v>
@@ -4752,12 +5512,12 @@
       <c r="AI19" s="22"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>72</v>
@@ -4769,7 +5529,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G20" s="21">
         <v>39.098309999999998</v>
@@ -4824,12 +5584,12 @@
       <c r="AI20" s="22"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>73</v>
@@ -4841,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G21" s="21">
         <v>40.078400000000002</v>
@@ -4896,15 +5656,15 @@
       <c r="AI21" s="22"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="D22" s="21">
         <v>24</v>
@@ -4913,7 +5673,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G22" s="21">
         <v>44.955912599999998</v>
@@ -4970,15 +5730,15 @@
       <c r="AI22" s="22"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="D23" s="21">
         <v>26</v>
@@ -4987,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G23" s="21">
         <v>47.867100000000001</v>
@@ -5044,15 +5804,15 @@
       <c r="AI23" s="22"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D24" s="21">
         <v>28</v>
@@ -5061,7 +5821,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="G24" s="21">
         <v>50.941510000000001</v>
@@ -5118,15 +5878,15 @@
       <c r="AI24" s="22"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="D25" s="21">
         <v>28</v>
@@ -5135,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="G25" s="21">
         <v>51.996160000000003</v>
@@ -5192,15 +5952,15 @@
       <c r="AI25" s="22"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="D26" s="21">
         <v>30</v>
@@ -5209,7 +5969,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="G26" s="21">
         <v>54.938045500000001</v>
@@ -5266,15 +6026,15 @@
       <c r="AI26" s="22"/>
       <c r="AJ26" s="24"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" s="21">
         <v>30</v>
@@ -5283,7 +6043,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G27" s="21">
         <v>55.845199999999998</v>
@@ -5340,15 +6100,15 @@
       <c r="AI27" s="22"/>
       <c r="AJ27" s="24"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="D28" s="21">
         <v>32</v>
@@ -5357,7 +6117,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G28" s="21">
         <v>58.933195499999997</v>
@@ -5414,15 +6174,15 @@
       <c r="AI28" s="22"/>
       <c r="AJ28" s="24"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="D29" s="21">
         <v>31</v>
@@ -5431,7 +6191,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G29" s="21">
         <v>58.693440000000002</v>
@@ -5488,15 +6248,15 @@
       <c r="AI29" s="22"/>
       <c r="AJ29" s="24"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="21">
         <v>35</v>
@@ -5505,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="G30" s="21">
         <v>63.546300000000002</v>
@@ -5562,15 +6322,15 @@
       <c r="AI30" s="22"/>
       <c r="AJ30" s="24"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="D31" s="21">
         <v>35</v>
@@ -5579,7 +6339,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="G31" s="21">
         <v>65.382000000000005</v>
@@ -5636,15 +6396,15 @@
       <c r="AI31" s="22"/>
       <c r="AJ31" s="24"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="D32" s="21">
         <v>39</v>
@@ -5653,7 +6413,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="G32" s="21">
         <v>69.723100000000002</v>
@@ -5712,15 +6472,15 @@
       <c r="AI32" s="22"/>
       <c r="AJ32" s="24"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A33" s="21">
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="D33" s="21">
         <v>41</v>
@@ -5729,7 +6489,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G33" s="21">
         <v>72.631</v>
@@ -5788,15 +6548,15 @@
       <c r="AI33" s="22"/>
       <c r="AJ33" s="24"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A34" s="21">
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="D34" s="21">
         <v>42</v>
@@ -5805,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="G34" s="21">
         <v>74.921601999999993</v>
@@ -5864,15 +6624,15 @@
       <c r="AI34" s="22"/>
       <c r="AJ34" s="24"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A35" s="21">
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="D35" s="21">
         <v>45</v>
@@ -5881,7 +6641,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G35" s="21">
         <v>78.962999999999994</v>
@@ -5940,15 +6700,15 @@
       <c r="AI35" s="22"/>
       <c r="AJ35" s="24"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A36" s="21">
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="D36" s="21">
         <v>45</v>
@@ -5957,7 +6717,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="G36" s="21">
         <v>79.9041</v>
@@ -6016,15 +6776,15 @@
       <c r="AI36" s="22"/>
       <c r="AJ36" s="24"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A37" s="21">
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="D37" s="21">
         <v>48</v>
@@ -6092,15 +6852,15 @@
       <c r="AI37" s="22"/>
       <c r="AJ37" s="24"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A38" s="21">
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="D38" s="21">
         <v>48</v>
@@ -6109,7 +6869,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G38" s="21">
         <v>85.467830000000006</v>
@@ -6172,15 +6932,15 @@
       <c r="AI38" s="22"/>
       <c r="AJ38" s="24"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A39" s="21">
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="D39" s="21">
         <v>50</v>
@@ -6189,7 +6949,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G39" s="21">
         <v>87.620999999999995</v>
@@ -6252,15 +7012,15 @@
       <c r="AI39" s="22"/>
       <c r="AJ39" s="24"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A40" s="21">
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="D40" s="21">
         <v>50</v>
@@ -6269,7 +7029,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G40" s="21">
         <v>88.905851999999996</v>
@@ -6334,15 +7094,15 @@
       <c r="AI40" s="22"/>
       <c r="AJ40" s="24"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A41" s="21">
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="D41" s="21">
         <v>51</v>
@@ -6351,7 +7111,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G41" s="21">
         <v>91.224199999999996</v>
@@ -6416,15 +7176,15 @@
       <c r="AI41" s="22"/>
       <c r="AJ41" s="24"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A42" s="21">
         <v>41</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="D42" s="21">
         <v>52</v>
@@ -6433,7 +7193,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="G42" s="21">
         <v>92.906381999999994</v>
@@ -6498,15 +7258,15 @@
       <c r="AI42" s="22"/>
       <c r="AJ42" s="24"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A43" s="21">
         <v>42</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="D43" s="21">
         <v>54</v>
@@ -6515,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="G43" s="21">
         <v>95.962000000000003</v>
@@ -6580,15 +7340,15 @@
       <c r="AI43" s="22"/>
       <c r="AJ43" s="24"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A44" s="21">
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="D44" s="21">
         <v>55</v>
@@ -6597,7 +7357,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="G44" s="21">
         <v>97.907200000000003</v>
@@ -6662,15 +7422,15 @@
       <c r="AI44" s="22"/>
       <c r="AJ44" s="24"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A45" s="21">
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="D45" s="21">
         <v>57</v>
@@ -6679,7 +7439,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G45" s="21">
         <v>101.072</v>
@@ -6744,15 +7504,15 @@
       <c r="AI45" s="22"/>
       <c r="AJ45" s="24"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A46" s="21">
         <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="D46" s="21">
         <v>58</v>
@@ -6761,7 +7521,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G46" s="21">
         <v>102.905502</v>
@@ -6826,15 +7586,15 @@
       <c r="AI46" s="22"/>
       <c r="AJ46" s="24"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A47" s="21">
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="D47" s="21">
         <v>60</v>
@@ -6843,7 +7603,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G47" s="21">
         <v>106.42100000000001</v>
@@ -6904,15 +7664,15 @@
       <c r="AI47" s="22"/>
       <c r="AJ47" s="24"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A48" s="21">
         <v>47</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="21">
         <v>61</v>
@@ -6921,7 +7681,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="G48" s="21">
         <v>107.86821999999999</v>
@@ -6986,15 +7746,15 @@
       <c r="AI48" s="22"/>
       <c r="AJ48" s="24"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A49" s="21">
         <v>48</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="D49" s="21">
         <v>64</v>
@@ -7003,7 +7763,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="G49" s="21">
         <v>112.4118</v>
@@ -7068,15 +7828,15 @@
       <c r="AI49" s="22"/>
       <c r="AJ49" s="24"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A50" s="21">
         <v>49</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="D50" s="21">
         <v>66</v>
@@ -7085,7 +7845,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="G50" s="21">
         <v>114.81829999999999</v>
@@ -7152,15 +7912,15 @@
       <c r="AI50" s="22"/>
       <c r="AJ50" s="24"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A51" s="21">
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="D51" s="21">
         <v>69</v>
@@ -7169,7 +7929,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G51" s="21">
         <v>118.7107</v>
@@ -7236,15 +7996,15 @@
       <c r="AI51" s="22"/>
       <c r="AJ51" s="24"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A52" s="21">
         <v>51</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="D52" s="21">
         <v>71</v>
@@ -7253,7 +8013,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="G52" s="21">
         <v>121.76009999999999</v>
@@ -7320,15 +8080,15 @@
       <c r="AI52" s="22"/>
       <c r="AJ52" s="24"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A53" s="21">
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D53" s="21">
         <v>76</v>
@@ -7337,7 +8097,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G53" s="21">
         <v>127.60299999999999</v>
@@ -7404,15 +8164,15 @@
       <c r="AI53" s="22"/>
       <c r="AJ53" s="24"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A54" s="21">
         <v>53</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="D54" s="21">
         <v>74</v>
@@ -7421,7 +8181,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="G54" s="21">
         <v>126.904473</v>
@@ -7488,15 +8248,15 @@
       <c r="AI54" s="22"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="D55" s="21">
         <v>77</v>
@@ -7572,15 +8332,15 @@
       <c r="AI55" s="22"/>
       <c r="AJ55" s="24"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A56" s="21">
         <v>55</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="D56" s="21">
         <v>78</v>
@@ -7589,7 +8349,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G56" s="21">
         <v>132.90545191999999</v>
@@ -7660,15 +8420,15 @@
       </c>
       <c r="AJ56" s="24"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A57" s="21">
         <v>56</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="D57" s="21">
         <v>81</v>
@@ -7677,7 +8437,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G57" s="21">
         <v>137.32769999999999</v>
@@ -7748,15 +8508,15 @@
       </c>
       <c r="AJ57" s="24"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A58" s="21">
         <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="D58" s="21">
         <v>82</v>
@@ -7765,7 +8525,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G58" s="21">
         <v>138.90547699999999</v>
@@ -7838,15 +8598,15 @@
       </c>
       <c r="AJ58" s="24"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A59" s="21">
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="D59" s="21">
         <v>82</v>
@@ -7855,7 +8615,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G59" s="21">
         <v>140.11609999999999</v>
@@ -7930,15 +8690,15 @@
       </c>
       <c r="AJ59" s="24"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A60" s="21">
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="D60" s="21">
         <v>82</v>
@@ -7947,7 +8707,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G60" s="21">
         <v>140.90765200000001</v>
@@ -8020,15 +8780,15 @@
       </c>
       <c r="AJ60" s="24"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A61" s="21">
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="D61" s="21">
         <v>84</v>
@@ -8037,7 +8797,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G61" s="21">
         <v>144.2423</v>
@@ -8110,15 +8870,15 @@
       </c>
       <c r="AJ61" s="24"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A62" s="21">
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="D62" s="21">
         <v>84</v>
@@ -8127,7 +8887,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G62" s="21">
         <v>145</v>
@@ -8200,15 +8960,15 @@
       </c>
       <c r="AJ62" s="24"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A63" s="21">
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="D63" s="21">
         <v>88</v>
@@ -8217,7 +8977,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G63" s="21">
         <v>150.36199999999999</v>
@@ -8290,15 +9050,15 @@
       </c>
       <c r="AJ63" s="24"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A64" s="21">
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="D64" s="21">
         <v>89</v>
@@ -8307,7 +9067,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G64" s="21">
         <v>151.9641</v>
@@ -8380,15 +9140,15 @@
       </c>
       <c r="AJ64" s="24"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A65" s="21">
         <v>64</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="D65" s="21">
         <v>93</v>
@@ -8397,7 +9157,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G65" s="21">
         <v>157.25299999999999</v>
@@ -8472,15 +9232,15 @@
       </c>
       <c r="AJ65" s="24"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A66" s="21">
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="D66" s="21">
         <v>94</v>
@@ -8489,7 +9249,7 @@
         <v>6</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G66" s="21">
         <v>158.925352</v>
@@ -8562,15 +9322,15 @@
       </c>
       <c r="AJ66" s="24"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A67" s="21">
         <v>66</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="D67" s="21">
         <v>97</v>
@@ -8579,7 +9339,7 @@
         <v>6</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G67" s="21">
         <v>162.5001</v>
@@ -8652,15 +9412,15 @@
       </c>
       <c r="AJ67" s="24"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A68" s="21">
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="D68" s="21">
         <v>98</v>
@@ -8669,7 +9429,7 @@
         <v>6</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G68" s="21">
         <v>164.93032199999999</v>
@@ -8742,15 +9502,15 @@
       </c>
       <c r="AJ68" s="24"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A69" s="21">
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="D69" s="21">
         <v>99</v>
@@ -8759,7 +9519,7 @@
         <v>6</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G69" s="21">
         <v>167.2593</v>
@@ -8832,15 +9592,15 @@
       </c>
       <c r="AJ69" s="24"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A70" s="21">
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="D70" s="21">
         <v>100</v>
@@ -8849,7 +9609,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G70" s="21">
         <v>168.934212</v>
@@ -8922,15 +9682,15 @@
       </c>
       <c r="AJ70" s="24"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A71" s="21">
         <v>70</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="D71" s="21">
         <v>103</v>
@@ -8939,7 +9699,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G71" s="21">
         <v>173.05449999999999</v>
@@ -9012,15 +9772,15 @@
       </c>
       <c r="AJ71" s="24"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A72" s="21">
         <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="D72" s="21">
         <v>104</v>
@@ -9029,7 +9789,7 @@
         <v>6</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G72" s="21">
         <v>174.96681000000001</v>
@@ -9104,15 +9864,15 @@
       </c>
       <c r="AJ72" s="24"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A73" s="21">
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="D73" s="21">
         <v>106</v>
@@ -9121,7 +9881,7 @@
         <v>6</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G73" s="21">
         <v>178.49199999999999</v>
@@ -9196,15 +9956,15 @@
       </c>
       <c r="AJ73" s="24"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A74" s="21">
         <v>73</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="D74" s="21">
         <v>108</v>
@@ -9213,7 +9973,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="G74" s="21">
         <v>180.94788199999999</v>
@@ -9288,15 +10048,15 @@
       </c>
       <c r="AJ74" s="24"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A75" s="21">
         <v>74</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="D75" s="21">
         <v>110</v>
@@ -9305,7 +10065,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="G75" s="21">
         <v>183.84100000000001</v>
@@ -9380,15 +10140,15 @@
       </c>
       <c r="AJ75" s="24"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A76" s="21">
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="D76" s="21">
         <v>111</v>
@@ -9397,7 +10157,7 @@
         <v>6</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="G76" s="21">
         <v>186.2071</v>
@@ -9472,15 +10232,15 @@
       </c>
       <c r="AJ76" s="24"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A77" s="21">
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="D77" s="21">
         <v>114</v>
@@ -9489,7 +10249,7 @@
         <v>6</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G77" s="21">
         <v>190.233</v>
@@ -9564,15 +10324,15 @@
       </c>
       <c r="AJ77" s="24"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="D78" s="21">
         <v>115</v>
@@ -9581,7 +10341,7 @@
         <v>6</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G78" s="21">
         <v>192.21729999999999</v>
@@ -9656,15 +10416,15 @@
       </c>
       <c r="AJ78" s="24"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D79" s="21">
         <v>117</v>
@@ -9673,7 +10433,7 @@
         <v>6</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G79" s="21">
         <v>195.0849</v>
@@ -9748,15 +10508,15 @@
       </c>
       <c r="AJ79" s="24"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D80" s="21">
         <v>118</v>
@@ -9765,7 +10525,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="G80" s="21">
         <v>196.9665694</v>
@@ -9840,15 +10600,15 @@
       </c>
       <c r="AJ80" s="24"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81" s="21">
         <v>121</v>
@@ -9857,7 +10617,7 @@
         <v>6</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="G81" s="21">
         <v>200.59200000000001</v>
@@ -9932,15 +10692,15 @@
       </c>
       <c r="AJ81" s="24"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="D82" s="21">
         <v>123</v>
@@ -9949,7 +10709,7 @@
         <v>6</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="G82" s="21">
         <v>204.38200000000001</v>
@@ -10026,15 +10786,15 @@
       </c>
       <c r="AJ82" s="24"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D83" s="21">
         <v>125</v>
@@ -10043,7 +10803,7 @@
         <v>6</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G83" s="21">
         <v>207.21</v>
@@ -10120,15 +10880,15 @@
       </c>
       <c r="AJ83" s="24"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="D84" s="21">
         <v>126</v>
@@ -10137,7 +10897,7 @@
         <v>6</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="G84" s="21">
         <v>208.980401</v>
@@ -10214,15 +10974,15 @@
       </c>
       <c r="AJ84" s="24"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="D85" s="21">
         <v>125</v>
@@ -10231,7 +10991,7 @@
         <v>6</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G85" s="21">
         <v>208.98240000000001</v>
@@ -10308,15 +11068,15 @@
       </c>
       <c r="AJ85" s="24"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="D86" s="21">
         <v>125</v>
@@ -10325,7 +11085,7 @@
         <v>6</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="G86" s="21">
         <v>209.9871</v>
@@ -10402,15 +11162,15 @@
       </c>
       <c r="AJ86" s="24"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A87" s="21">
         <v>86</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="D87" s="21">
         <v>136</v>
@@ -10496,15 +11256,15 @@
       </c>
       <c r="AJ87" s="24"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A88" s="21">
         <v>87</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="D88" s="21">
         <v>136</v>
@@ -10513,7 +11273,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G88" s="21">
         <v>223</v>
@@ -10594,15 +11354,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A89" s="21">
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="D89" s="21">
         <v>138</v>
@@ -10611,7 +11371,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G89" s="21">
         <v>226</v>
@@ -10692,15 +11452,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A90" s="21">
         <v>89</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="D90" s="21">
         <v>138</v>
@@ -10709,7 +11469,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G90" s="21">
         <v>227</v>
@@ -10792,15 +11552,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A91" s="21">
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="D91" s="21">
         <v>142</v>
@@ -10809,7 +11569,7 @@
         <v>7</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G91" s="21">
         <v>232.038062</v>
@@ -10892,15 +11652,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A92" s="21">
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="D92" s="21">
         <v>140</v>
@@ -10909,7 +11669,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G92" s="21">
         <v>231.03588199999999</v>
@@ -10994,15 +11754,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A93" s="21">
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D93" s="21">
         <v>146</v>
@@ -11011,7 +11771,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G93" s="21">
         <v>238.02891299999999</v>
@@ -11096,15 +11856,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A94" s="21">
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="D94" s="21">
         <v>146</v>
@@ -11113,7 +11873,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G94" s="21">
         <v>238.8486</v>
@@ -11198,15 +11958,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A95" s="21">
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="D95" s="21">
         <v>149</v>
@@ -11215,7 +11975,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G95" s="21">
         <v>242.87979999999999</v>
@@ -11298,15 +12058,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A96" s="21">
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="D96" s="21">
         <v>150</v>
@@ -11315,7 +12075,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G96" s="21">
         <v>244.85939999999999</v>
@@ -11398,15 +12158,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A97" s="21">
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="D97" s="21">
         <v>151</v>
@@ -11415,7 +12175,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G97" s="21">
         <v>246.911</v>
@@ -11500,15 +12260,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A98" s="21">
         <v>97</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="D98" s="21">
         <v>152</v>
@@ -11517,7 +12277,7 @@
         <v>7</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G98" s="21">
         <v>248.92660000000001</v>
@@ -11600,15 +12360,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A99" s="21">
         <v>98</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="D99" s="21">
         <v>155</v>
@@ -11617,7 +12377,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G99" s="21">
         <v>252.95779999999999</v>
@@ -11700,15 +12460,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A100" s="21">
         <v>99</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="D100" s="21">
         <v>155</v>
@@ -11717,7 +12477,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G100" s="21">
         <v>253.96559999999999</v>
@@ -11800,15 +12560,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A101" s="21">
         <v>100</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="D101" s="21">
         <v>159</v>
@@ -11817,7 +12577,7 @@
         <v>7</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G101" s="21">
         <v>259.00459999999998</v>
@@ -11900,15 +12660,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A102" s="21">
         <v>101</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="D102" s="21">
         <v>159</v>
@@ -11917,7 +12677,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G102" s="21">
         <v>260.01240000000001</v>
@@ -12000,15 +12760,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A103" s="21">
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="D103" s="21">
         <v>159</v>
@@ -12017,7 +12777,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G103" s="21">
         <v>261.02019999999999</v>
@@ -12100,15 +12860,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A104" s="21">
         <v>103</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="D104" s="21">
         <v>161</v>
@@ -12117,7 +12877,7 @@
         <v>7</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="G104" s="21">
         <v>264.04360000000003</v>
@@ -12202,15 +12962,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A105" s="21">
         <v>104</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="D105" s="21">
         <v>165</v>
@@ -12219,7 +12979,7 @@
         <v>7</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G105" s="21">
         <v>269.08260000000001</v>
@@ -12304,15 +13064,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A106" s="21">
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="D106" s="21">
         <v>165</v>
@@ -12321,7 +13081,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="G106" s="21">
         <v>270.09039999999999</v>
@@ -12406,15 +13166,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A107" s="21">
         <v>106</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="D107" s="21">
         <v>167</v>
@@ -12423,7 +13183,7 @@
         <v>7</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="G107" s="21">
         <v>273.11380000000003</v>
@@ -12508,15 +13268,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A108" s="21">
         <v>107</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="D108" s="21">
         <v>167</v>
@@ -12525,7 +13285,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="G108" s="21">
         <v>274.1216</v>
@@ -12610,15 +13370,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A109" s="21">
         <v>108</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="D109" s="21">
         <v>164</v>
@@ -12627,7 +13387,7 @@
         <v>7</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G109" s="21">
         <v>272.10599999999999</v>
@@ -12712,15 +13472,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A110" s="21">
         <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="D110" s="21">
         <v>169</v>
@@ -12729,7 +13489,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G110" s="21">
         <v>278.15280000000001</v>
@@ -12814,15 +13574,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A111" s="21">
         <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="D111" s="21">
         <v>173</v>
@@ -12831,7 +13591,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="G111" s="21">
         <v>283.1918</v>
@@ -12916,15 +13676,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A112" s="21">
         <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="D112" s="21">
         <v>171</v>
@@ -12933,7 +13693,7 @@
         <v>7</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="G112" s="21">
         <v>282.18400000000003</v>
@@ -13018,15 +13778,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A113" s="21">
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="D113" s="21">
         <v>175</v>
@@ -13035,7 +13795,7 @@
         <v>7</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="G113" s="21">
         <v>287.22300000000001</v>
@@ -13120,15 +13880,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A114" s="21">
         <v>113</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="D114" s="21">
         <v>173</v>
@@ -13137,7 +13897,7 @@
         <v>7</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="G114" s="21">
         <v>286.21519999999998</v>
@@ -13224,15 +13984,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A115" s="21">
         <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="D115" s="21">
         <v>177</v>
@@ -13241,7 +14001,7 @@
         <v>7</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G115" s="21">
         <v>291.19639999999998</v>
@@ -13328,15 +14088,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A116" s="21">
         <v>115</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="D116" s="21">
         <v>175</v>
@@ -13345,7 +14105,7 @@
         <v>7</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="G116" s="21">
         <v>290.18880000000001</v>
@@ -13432,15 +14192,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A117" s="21">
         <v>116</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="D117" s="21">
         <v>179</v>
@@ -13449,7 +14209,7 @@
         <v>7</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="G117" s="21">
         <v>295.22680000000003</v>
@@ -13536,15 +14296,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A118" s="21">
         <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="D118" s="21">
         <v>176</v>
@@ -13553,7 +14313,7 @@
         <v>7</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="G118" s="21">
         <v>293.21159999999998</v>
@@ -13640,15 +14400,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21">
         <v>118</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="D119" s="25">
         <v>181</v>
@@ -13755,138 +14515,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="14">
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B3" s="14">
         <v>514.63200000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B4" s="14">
         <v>372.37600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B5" s="14">
         <v>543.92000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B6" s="14">
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>424</v>
+        <v>1052</v>
       </c>
       <c r="B7" s="14">
         <v>212.5472</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B8" s="14">
         <v>401.66399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B9" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B10" s="14">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="14">
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="14">
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="14">
         <v>193.87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="14">
         <v>365.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="14">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -13894,15 +14654,15 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="14">
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -13910,71 +14670,71 @@
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="14">
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B20" s="14">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B21" s="14">
         <v>460.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B22" s="14">
         <v>426.76800000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B23" s="14">
         <v>552.28800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B24" s="14">
         <v>418.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="14">
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="14">
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -13982,23 +14742,23 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="14">
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="14">
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -14006,23 +14766,23 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="14">
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B32" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -14030,7 +14790,7 @@
         <v>242.58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -14038,23 +14798,23 @@
         <v>431.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="14">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="14">
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -14062,87 +14822,87 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="14">
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="14">
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="14">
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B41" s="14">
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B42" s="14">
         <v>368.19200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B43" s="14">
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>401</v>
+        <v>1053</v>
       </c>
       <c r="B44" s="14">
         <v>812</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>402</v>
+        <v>1054</v>
       </c>
       <c r="B45" s="14">
         <v>937</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B46" s="14">
         <v>397.48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B47" s="14">
         <v>313.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -14150,7 +14910,7 @@
         <v>156.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -14158,15 +14918,15 @@
         <v>568.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B50" s="14">
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -14174,7 +14934,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -14182,47 +14942,47 @@
         <v>498.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B53" s="14">
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="14">
         <v>298.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="14">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B56" s="14">
         <v>50.207999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="14">
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -14230,7 +14990,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -14238,111 +14998,111 @@
         <v>498</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" s="14">
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B61" s="14">
         <v>338.904</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="14">
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B63" s="14">
         <v>573.20799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="14">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="14">
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B66" s="14">
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B67" s="14">
         <v>422.584</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B68" s="14">
         <v>376.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B69" s="14">
         <v>259.40800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B70" s="14">
         <v>564.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B71" s="14">
         <v>234.304</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B72" s="14">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -14350,7 +15110,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -14358,15 +15118,15 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="14">
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -14374,7 +15134,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -14382,7 +15142,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -14390,39 +15150,39 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="14">
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B80" s="14">
         <v>380.74400000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B81" s="14">
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B82" s="14">
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -14430,15 +15190,15 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B84" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -14446,7 +15206,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -14454,23 +15214,23 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B87" s="14">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>403</v>
+        <v>1055</v>
       </c>
       <c r="B88" s="14">
         <v>946</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -14478,7 +15238,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -14486,7 +15246,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -14494,63 +15254,63 @@
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B92" s="14">
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B93" s="14">
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" s="14">
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="B95" s="14">
         <v>297.06400000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B96" s="14">
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" s="14">
         <v>376.56</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" s="14">
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -14558,7 +15318,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -14566,7 +15326,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -14574,7 +15334,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -14582,7 +15342,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -14590,79 +15350,79 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B104" s="14">
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105" s="14">
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B106" s="14">
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B107" s="14">
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" s="14">
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B109" s="14">
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B110" s="14">
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B111" s="14">
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B112" s="14">
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -14670,7 +15430,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -14678,7 +15438,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -14686,7 +15446,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -14694,15 +15454,15 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B117" s="14">
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -14710,23 +15470,23 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B119" s="14">
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B120" s="14">
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
@@ -14734,15 +15494,15 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" s="14">
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -14750,209 +15510,209 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B124" s="14">
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B125" s="14">
         <v>439.32</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B126" s="14">
         <v>652.70400000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B127" s="14">
         <v>748.93600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B128" s="14">
         <v>560.65600000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="B129" s="14">
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B130" s="14">
         <v>661.072</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B131" s="14">
         <v>129.70400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B132" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B133" s="14">
         <v>376.56</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B134" s="14">
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B135" s="14">
         <v>158.99200000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B136" s="14">
         <v>188.28</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B137" s="14">
         <v>215.476</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B138" s="14">
         <v>292.88</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B139" s="14">
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" s="14">
         <v>190.37200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B141" s="14">
         <v>236.81790000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B142" s="14">
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B143" s="14">
         <v>49.371200000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B144" s="14">
         <v>104.60000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B145" s="14">
         <v>83.846999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B146" s="14">
         <v>72.383200000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B147" s="14">
         <v>242.672</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B148" s="14">
         <v>303.81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B149" s="14">
         <v>74.328000000000003</v>
@@ -14970,63 +15730,63 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="E2" s="2">
         <v>10490</v>
@@ -15044,9 +15804,9 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -15055,9 +15815,9 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -15066,15 +15826,15 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E5" s="2">
         <v>2700</v>
@@ -15092,18 +15852,18 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>242</v>
+        <v>800</v>
       </c>
       <c r="E6" s="2">
         <v>2400</v>
@@ -15121,18 +15881,18 @@
         <v>0.79606891016022852</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>244</v>
+        <v>801</v>
       </c>
       <c r="E7" s="2">
         <v>2440</v>
@@ -15150,18 +15910,18 @@
         <v>0.58606651629604467</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>249</v>
+        <v>802</v>
       </c>
       <c r="E8" s="2">
         <v>3000</v>
@@ -15179,15 +15939,15 @@
         <v>0.78789131518402311</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E9" s="2">
         <v>3500</v>
@@ -15205,15 +15965,15 @@
         <v>0.66109061402221958</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="E10" s="2">
         <v>19320</v>
@@ -15231,7 +15991,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -15239,7 +15999,7 @@
         <v>78</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2">
         <v>2250</v>
@@ -15257,15 +16017,15 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E12" s="2">
         <v>1.603</v>
@@ -15283,15 +16043,15 @@
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2">
         <v>1.9770000000000001</v>
@@ -15309,15 +16069,15 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2">
         <v>1.25</v>
@@ -15335,7 +16095,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -15343,7 +16103,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2">
         <v>3.21</v>
@@ -15361,15 +16121,15 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="E16" s="2">
         <v>1550</v>
@@ -15387,18 +16147,18 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>255</v>
+        <v>803</v>
       </c>
       <c r="E17" s="2">
         <v>2240</v>
@@ -15416,18 +16176,18 @@
         <v>1.4158377790716348</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>263</v>
+        <v>804</v>
       </c>
       <c r="E18" s="2">
         <v>2930</v>
@@ -15445,18 +16205,18 @@
         <v>0.87863999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>253</v>
+        <v>805</v>
       </c>
       <c r="E19" s="2">
         <v>2169</v>
@@ -15474,18 +16234,18 @@
         <v>1.6497880620837919</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>259</v>
+        <v>806</v>
       </c>
       <c r="E20" s="2">
         <v>2200</v>
@@ -15503,18 +16263,18 @@
         <v>0.8791228488246472</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>258</v>
+        <v>807</v>
       </c>
       <c r="E21" s="2">
         <v>3140</v>
@@ -15532,9 +16292,9 @@
         <v>1.1353563099031463</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="12"/>
@@ -15543,18 +16303,18 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>268</v>
+        <v>808</v>
       </c>
       <c r="E23" s="2">
         <v>2360</v>
@@ -15572,18 +16332,18 @@
         <v>1.3959124382185175</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>262</v>
+        <v>809</v>
       </c>
       <c r="E24" s="2">
         <v>1086</v>
@@ -15601,18 +16361,18 @@
         <v>0.72243535324415098</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>266</v>
+        <v>810</v>
       </c>
       <c r="E25" s="2">
         <v>3180</v>
@@ -15630,15 +16390,15 @@
         <v>0.57983621973010036</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2">
         <v>3350</v>
@@ -15656,15 +16416,15 @@
         <v>0.62022216920268813</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="E27" s="2">
         <v>8960</v>
@@ -15682,9 +16442,9 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -15693,15 +16453,15 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E29" s="2">
         <v>6500</v>
@@ -15719,7 +16479,7 @@
         <v>0.62075619203401167</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
@@ -15727,7 +16487,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>92</v>
+        <v>1063</v>
       </c>
       <c r="E30" s="2">
         <v>1.554</v>
@@ -15745,15 +16505,15 @@
         <v>0.82389999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="E31" s="2">
         <v>7800</v>
@@ -15771,9 +16531,9 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -15782,9 +16542,9 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -15793,15 +16553,15 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E34" s="2">
         <v>5340</v>
@@ -15819,15 +16579,15 @@
         <v>1.6420837840585196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E35" s="2">
         <v>5180</v>
@@ -15845,7 +16605,7 @@
         <v>1.940758400609909</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -15871,7 +16631,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -15882,7 +16642,7 @@
         <v>91</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2">
         <v>1000</v>
@@ -15894,24 +16654,24 @@
         <v>100</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I37" s="10">
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>274</v>
+        <v>811</v>
       </c>
       <c r="E38" s="2">
         <v>1.1890000000000001</v>
@@ -15929,18 +16689,18 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E39" s="2">
         <v>1874</v>
@@ -15952,24 +16712,24 @@
         <v>261</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="I39" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E40" s="2">
         <v>1.4770000000000001</v>
@@ -15987,18 +16747,18 @@
         <v>0.79458000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>404</v>
+        <v>1059</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E41" s="2">
         <v>697</v>
@@ -16010,24 +16770,24 @@
         <v>26</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I41" s="11">
         <v>0.5697879031834302</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="E42" s="2">
         <v>1420</v>
@@ -16039,18 +16799,18 @@
         <v>83</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I42" s="11">
         <v>3.222</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E43" s="2">
         <v>0.17849999999999999</v>
@@ -16068,15 +16828,15 @@
         <v>5.2275000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="E44" s="2">
         <v>1359</v>
@@ -16094,15 +16854,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="E45" s="2">
         <v>862</v>
@@ -16120,18 +16880,18 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E46" s="2">
         <v>2044</v>
@@ -16149,18 +16909,18 @@
         <v>1.4914384287497624</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E47" s="2">
         <v>2170</v>
@@ -16178,18 +16938,18 @@
         <v>0.88783223074323669</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E48" s="2">
         <v>2430</v>
@@ -16207,18 +16967,18 @@
         <v>1.0803616347544793</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E49" s="2">
         <v>2170</v>
@@ -16236,18 +16996,18 @@
         <v>1.0565045108229185</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E50" s="2">
         <v>2564</v>
@@ -16265,9 +17025,9 @@
         <v>1.0849318506974142</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="12"/>
@@ -16276,18 +17036,18 @@
       </c>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E52" s="2">
         <v>2440</v>
@@ -16305,18 +17065,18 @@
         <v>1.4942978880056739</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E53" s="2">
         <v>1984</v>
@@ -16334,18 +17094,18 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E54" s="2">
         <v>2320</v>
@@ -16363,15 +17123,15 @@
         <v>1.7121280264193122</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="E55" s="2">
         <v>534</v>
@@ -16389,9 +17149,9 @@
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -16400,18 +17160,18 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E57" s="2">
         <v>2110</v>
@@ -16429,9 +17189,9 @@
         <v>1.7298136019301498</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="12"/>
@@ -16440,15 +17200,15 @@
       </c>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="E59" s="2">
         <v>1740</v>
@@ -16466,9 +17226,9 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -16477,15 +17237,15 @@
       </c>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E61" s="2">
         <v>3580</v>
@@ -16503,7 +17263,7 @@
         <v>0.71663173855209439</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -16511,7 +17271,7 @@
         <v>84</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>405</v>
+        <v>1056</v>
       </c>
       <c r="E62" s="2">
         <v>1.25</v>
@@ -16529,15 +17289,15 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>406</v>
+        <v>1057</v>
       </c>
       <c r="E63" s="2">
         <v>1.22</v>
@@ -16555,15 +17315,15 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2">
         <v>1.27</v>
@@ -16581,15 +17341,15 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2">
         <v>1450</v>
@@ -16607,15 +17367,15 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="E66" s="2">
         <v>968</v>
@@ -16633,9 +17393,9 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -16644,18 +17404,18 @@
       </c>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E68" s="2">
         <v>2532</v>
@@ -16673,18 +17433,18 @@
         <v>1.5784756084082265</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E69" s="2">
         <v>2159</v>
@@ -16702,9 +17462,9 @@
         <v>1.9432352494828293</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="12"/>
@@ -16713,9 +17473,9 @@
       </c>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="12"/>
@@ -16724,18 +17484,18 @@
       </c>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E72" s="2">
         <v>2165</v>
@@ -16753,7 +17513,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
@@ -16761,7 +17521,7 @@
         <v>85</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2">
         <v>0.77100000000000002</v>
@@ -16779,18 +17539,18 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E74" s="2">
         <v>910</v>
@@ -16802,24 +17562,24 @@
         <v>36</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="I74" s="10">
         <v>4.3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>238</v>
+        <v>812</v>
       </c>
       <c r="E75" s="2">
         <v>2200</v>
@@ -16837,18 +17597,18 @@
         <v>1.1176930318083564</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E76" s="2">
         <v>1580</v>
@@ -16866,18 +17626,18 @@
         <v>1.1367072050884368</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E77" s="2">
         <v>1803</v>
@@ -16895,18 +17655,18 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E78" s="2">
         <v>1803</v>
@@ -16924,18 +17684,18 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E79" s="2">
         <v>1527</v>
@@ -16953,7 +17713,7 @@
         <v>1.2435766847482452</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -16979,7 +17739,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
@@ -16987,7 +17747,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2">
         <v>2.14</v>
@@ -17005,7 +17765,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
@@ -17013,7 +17773,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2">
         <v>1820</v>
@@ -17031,15 +17791,15 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E83" s="2">
         <v>2940</v>
@@ -17057,12 +17817,12 @@
         <v>0.64557633195798869</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E84" s="2">
         <v>11344</v>
@@ -17080,12 +17840,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E85" s="2">
         <v>21550</v>
@@ -17103,15 +17863,15 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E86" s="2">
         <v>2360</v>
@@ -17129,15 +17889,15 @@
         <v>0.7527600000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2">
         <v>2.9275000000000002</v>
@@ -17155,15 +17915,15 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E88" s="2">
         <v>2328</v>
@@ -17181,15 +17941,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2">
         <v>2200</v>
@@ -17207,7 +17967,7 @@
         <v>0.83640000000000014</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
@@ -17215,7 +17975,7 @@
         <v>86</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2">
         <v>0.71599999999999997</v>
@@ -17233,15 +17993,15 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="E91" s="2">
         <v>1.2450000000000001</v>
@@ -17259,15 +18019,15 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E92" s="2">
         <v>789</v>
@@ -17279,21 +18039,21 @@
         <v>78</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I92" s="10">
         <v>2.44</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E93" s="2">
         <v>1.256</v>
@@ -17311,15 +18071,15 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>407</v>
+        <v>1058</v>
       </c>
       <c r="E94" s="2">
         <v>1.1747000000000001</v>
@@ -17337,15 +18097,15 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="E95" s="2">
         <v>1681</v>
@@ -17363,12 +18123,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="F96" s="8">
         <v>80</v>
@@ -17377,12 +18137,12 @@
       <c r="H96" s="13"/>
       <c r="I96" s="11"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="E97" s="2">
         <v>1508</v>
@@ -17398,15 +18158,15 @@
       </c>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="E98" s="2">
         <v>1540</v>
@@ -17424,15 +18184,15 @@
         <v>4.1867999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="E99" s="2">
         <v>1694</v>
@@ -17447,15 +18207,15 @@
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="E100" s="2">
         <v>1581</v>
@@ -17470,15 +18230,15 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="E101" s="2">
         <v>1587</v>
@@ -17496,55 +18256,55 @@
         <v>3.7679999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="H102" s="13">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="H103" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="E105" s="2">
         <v>1500</v>
@@ -17556,29 +18316,29 @@
         <v>357.8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="F106" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="E107" s="2">
         <v>1263.6199999999999</v>
@@ -17590,68 +18350,68 @@
         <v>290.89999999999998</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="I107" s="2">
         <v>2.46</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B111" s="7" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
       <c r="B114" s="7" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -17663,293 +18423,534 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B2" s="5">
-        <v>174</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" s="5">
-        <v>8.7999999999999994E-18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="5">
-        <v>9.1800000000000002E-20</v>
-      </c>
-      <c r="C4" s="15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="6">
-        <v>41500000000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3570000000</v>
-      </c>
-      <c r="C6" s="15">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.6E-11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="6">
-        <v>7.3500000000000005E-11</v>
-      </c>
-      <c r="C8" s="15">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1.5699999999999999E-18</v>
-      </c>
-      <c r="C10" s="15">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6.2899999999999998E-19</v>
-      </c>
-      <c r="C11" s="15">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3.0700000000000003E-10</v>
-      </c>
-      <c r="C12" s="15">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="6">
-        <v>110000</v>
-      </c>
-      <c r="C13" s="15">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B14" s="6">
-        <v>492</v>
-      </c>
-      <c r="C14" s="15">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="6">
-        <v>110</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>18.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B17" s="6">
-        <v>3.3000000000000002E-28</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-4.41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1.88E-22</v>
-      </c>
-      <c r="C18" s="1">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1100000000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="6">
-        <v>440</v>
-      </c>
-      <c r="C20" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="6">
-        <v>68700</v>
-      </c>
-      <c r="C21" s="15">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="6">
-        <v>5270</v>
-      </c>
-      <c r="C22" s="15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B23" s="6">
-        <v>3960000</v>
-      </c>
-      <c r="C23" s="15">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="6">
-        <v>274000000</v>
-      </c>
-      <c r="C24" s="15">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B25" s="6">
-        <v>156000000</v>
-      </c>
-      <c r="C25" s="15">
-        <v>202</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>926</v>
+      </c>
+      <c r="B7" t="s">
+        <v>927</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>928</v>
+      </c>
+      <c r="B8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>930</v>
+      </c>
+      <c r="B9" t="s">
+        <v>931</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>932</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>933</v>
+      </c>
+      <c r="B11" t="s">
+        <v>934</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>937</v>
+      </c>
+      <c r="B13" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>939</v>
+      </c>
+      <c r="B14" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>941</v>
+      </c>
+      <c r="B15" t="s">
+        <v>942</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>943</v>
+      </c>
+      <c r="B16" t="s">
+        <v>944</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>945</v>
+      </c>
+      <c r="B17" t="s">
+        <v>946</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>947</v>
+      </c>
+      <c r="B18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>949</v>
+      </c>
+      <c r="B19" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>951</v>
+      </c>
+      <c r="B20" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>953</v>
+      </c>
+      <c r="B21" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>955</v>
+      </c>
+      <c r="B22" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B23" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>959</v>
+      </c>
+      <c r="B24" t="s">
+        <v>960</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>961</v>
+      </c>
+      <c r="B25" t="s">
+        <v>962</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>963</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>964</v>
+      </c>
+      <c r="B27" t="s">
+        <v>965</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>966</v>
+      </c>
+      <c r="B28" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>968</v>
+      </c>
+      <c r="B29" t="s">
+        <v>969</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>970</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>971</v>
+      </c>
+      <c r="B31" t="s">
+        <v>972</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>973</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>974</v>
+      </c>
+      <c r="B33" t="s">
+        <v>975</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>976</v>
+      </c>
+      <c r="B34" t="s">
+        <v>977</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>978</v>
+      </c>
+      <c r="B35" t="s">
+        <v>979</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>980</v>
+      </c>
+      <c r="B36" t="s">
+        <v>981</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>982</v>
+      </c>
+      <c r="B37" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>984</v>
+      </c>
+      <c r="B38" t="s">
+        <v>985</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>986</v>
+      </c>
+      <c r="B39" t="s">
+        <v>987</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>988</v>
+      </c>
+      <c r="B40" t="s">
+        <v>989</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>990</v>
+      </c>
+      <c r="B41" t="s">
+        <v>991</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>992</v>
+      </c>
+      <c r="B42" t="s">
+        <v>993</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>994</v>
+      </c>
+      <c r="B43" t="s">
+        <v>995</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>996</v>
+      </c>
+      <c r="B44" t="s">
+        <v>997</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>998</v>
+      </c>
+      <c r="B45" t="s">
+        <v>999</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -17961,61 +18962,742 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C5" t="s">
+        <v>822</v>
+      </c>
+      <c r="D5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" t="s">
+        <v>827</v>
+      </c>
+      <c r="D6" t="s">
+        <v>828</v>
+      </c>
+      <c r="E6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>829</v>
+      </c>
+      <c r="B7" t="s">
+        <v>889</v>
+      </c>
+      <c r="C7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D7" t="s">
+        <v>831</v>
+      </c>
+      <c r="E7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B8" t="s">
+        <v>916</v>
+      </c>
+      <c r="C8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B9" t="s">
+        <v>891</v>
+      </c>
+      <c r="C9" t="s">
+        <v>835</v>
+      </c>
+      <c r="D9" t="s">
+        <v>836</v>
+      </c>
+      <c r="E9" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>837</v>
+      </c>
+      <c r="B10" t="s">
+        <v>893</v>
+      </c>
+      <c r="C10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D10" t="s">
+        <v>839</v>
+      </c>
+      <c r="E10" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B11" t="s">
+        <v>895</v>
+      </c>
+      <c r="C11" t="s">
+        <v>841</v>
+      </c>
+      <c r="D11" t="s">
+        <v>842</v>
+      </c>
+      <c r="E11" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B12" t="s">
+        <v>897</v>
+      </c>
+      <c r="C12" t="s">
+        <v>844</v>
+      </c>
+      <c r="D12" t="s">
+        <v>845</v>
+      </c>
+      <c r="E12" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C13" t="s">
+        <v>847</v>
+      </c>
+      <c r="D13" t="s">
+        <v>848</v>
+      </c>
+      <c r="E13" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>851</v>
+      </c>
+      <c r="B14" t="s">
+        <v>907</v>
+      </c>
+      <c r="C14" t="s">
+        <v>852</v>
+      </c>
+      <c r="D14" t="s">
+        <v>853</v>
+      </c>
+      <c r="E14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>854</v>
+      </c>
+      <c r="B15" t="s">
+        <v>900</v>
+      </c>
+      <c r="C15" t="s">
+        <v>855</v>
+      </c>
+      <c r="D15" t="s">
+        <v>856</v>
+      </c>
+      <c r="E15" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>857</v>
+      </c>
+      <c r="B16" t="s">
+        <v>902</v>
+      </c>
+      <c r="C16" t="s">
+        <v>858</v>
+      </c>
+      <c r="D16" t="s">
+        <v>859</v>
+      </c>
+      <c r="E16" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>860</v>
+      </c>
+      <c r="B17" t="s">
+        <v>904</v>
+      </c>
+      <c r="C17" t="s">
+        <v>861</v>
+      </c>
+      <c r="D17" t="s">
+        <v>862</v>
+      </c>
+      <c r="E17" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18" t="s">
+        <v>906</v>
+      </c>
+      <c r="C18" t="s">
+        <v>864</v>
+      </c>
+      <c r="D18" t="s">
+        <v>865</v>
+      </c>
+      <c r="E18" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>866</v>
+      </c>
+      <c r="B19" t="s">
+        <v>909</v>
+      </c>
+      <c r="C19" t="s">
+        <v>867</v>
+      </c>
+      <c r="D19" t="s">
+        <v>868</v>
+      </c>
+      <c r="E19" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>869</v>
+      </c>
+      <c r="B20" t="s">
+        <v>911</v>
+      </c>
+      <c r="C20" t="s">
+        <v>870</v>
+      </c>
+      <c r="D20" t="s">
+        <v>871</v>
+      </c>
+      <c r="E20" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>872</v>
+      </c>
+      <c r="B21" t="s">
+        <v>913</v>
+      </c>
+      <c r="C21" t="s">
+        <v>873</v>
+      </c>
+      <c r="D21" t="s">
+        <v>874</v>
+      </c>
+      <c r="E21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="5">
+        <v>174</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8.7999999999999994E-18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9.1800000000000002E-20</v>
+      </c>
+      <c r="C4" s="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41500000000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3570000000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.6E-11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7.3500000000000005E-11</v>
+      </c>
+      <c r="C8" s="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.5699999999999999E-18</v>
+      </c>
+      <c r="C10" s="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6.2899999999999998E-19</v>
+      </c>
+      <c r="C11" s="15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.0700000000000003E-10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="6">
+        <v>110000</v>
+      </c>
+      <c r="C13" s="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="6">
+        <v>492</v>
+      </c>
+      <c r="C14" s="15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="6">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3.3000000000000002E-28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1.88E-22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1100000000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="6">
+        <v>440</v>
+      </c>
+      <c r="C20" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="6">
+        <v>68700</v>
+      </c>
+      <c r="C21" s="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5270</v>
+      </c>
+      <c r="C22" s="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3960000</v>
+      </c>
+      <c r="C23" s="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="6">
+        <v>274000000</v>
+      </c>
+      <c r="C24" s="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B25" s="6">
+        <v>156000000</v>
+      </c>
+      <c r="C25" s="15">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="C4" s="1">
         <v>595</v>
@@ -18028,75 +19710,75 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>

--- a/Init.xlsx
+++ b/Init.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="662" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="662" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="periodic_table" sheetId="7" r:id="rId1"/>
@@ -12,19 +12,20 @@
     <sheet name="molecule" sheetId="2" r:id="rId3"/>
     <sheet name="radical_group" sheetId="8" r:id="rId4"/>
     <sheet name="amino_acid" sheetId="9" r:id="rId5"/>
-    <sheet name="chemical_equation" sheetId="5" r:id="rId6"/>
-    <sheet name="biochemical_reaction" sheetId="6" r:id="rId7"/>
+    <sheet name="genetic_code" sheetId="10" r:id="rId6"/>
+    <sheet name="chemical_equation" sheetId="5" r:id="rId7"/>
+    <sheet name="biochemical_reaction" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemical_bond!$A$1:$B$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">molecule!$A$1:$I$89</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1161">
   <si>
     <t>C=O</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2736,10 +2737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'C-C':5n,'C-H':7n,'C-O':7n,'H-O':3n}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'C-C':20,'C-H':28,'C-O':28,'H-O':14}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3057,608 +3054,897 @@
     <t>name</t>
   </si>
   <si>
+    <t>abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>丙氨酸</t>
+  </si>
+  <si>
+    <t>HN=C(NH2)-NH-(CH2)3-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>精氨酸</t>
+  </si>
+  <si>
+    <t>H2N-CO-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>天冬酰胺</t>
+  </si>
+  <si>
+    <t>HS-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>半胱氨酸</t>
+  </si>
+  <si>
+    <t>H2N-CO-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>谷氨酰胺</t>
+  </si>
+  <si>
+    <t>NH2-CH2-COOH</t>
+  </si>
+  <si>
+    <t>甘氨酸</t>
+  </si>
+  <si>
+    <t>NH-CH=N-CH=C-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>组氨酸</t>
+  </si>
+  <si>
+    <t>CH3-CH2-CH(CH3)-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>异亮氨酸</t>
+  </si>
+  <si>
+    <t>(CH3)2-CH-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>亮氨酸</t>
+  </si>
+  <si>
+    <t>CH3-S-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>Ph-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>苯丙氨酸</t>
+  </si>
+  <si>
+    <t>NH-(CH2)3-CH-COOH</t>
+  </si>
+  <si>
+    <t>脯氨酸</t>
+  </si>
+  <si>
+    <t>HO-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>丝氨酸</t>
+  </si>
+  <si>
+    <t>CH3-CH(OH)-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>苏氨酸</t>
+  </si>
+  <si>
+    <t>甲硫氨酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ph-NH-CH=CH-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>色氨酸</t>
+  </si>
+  <si>
+    <t>HO-p-Ph-CH2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>酪氨酸</t>
+  </si>
+  <si>
+    <t>(CH3)2-CH-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>缬氨酸</t>
+  </si>
+  <si>
+    <t>Glutamic acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOOC-(CH2)2-CH(NH2)-COOH</t>
+  </si>
+  <si>
+    <t>谷氨酸</t>
+  </si>
+  <si>
+    <t>Aspartic acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>methyl</t>
+  </si>
+  <si>
+    <t>甲基</t>
+  </si>
+  <si>
+    <t>ethyl</t>
+  </si>
+  <si>
+    <t>乙基</t>
+  </si>
+  <si>
+    <t>(n-)propyl</t>
+  </si>
+  <si>
+    <t>正丙基</t>
+  </si>
+  <si>
+    <t>isopropyl</t>
+  </si>
+  <si>
+    <t>isobutyl</t>
+  </si>
+  <si>
+    <t>异丁基</t>
+  </si>
+  <si>
+    <t>allyl</t>
+  </si>
+  <si>
+    <t>烯丙基</t>
+  </si>
+  <si>
+    <t>2-propynyl</t>
+  </si>
+  <si>
+    <t>2-丙炔基</t>
+  </si>
+  <si>
+    <t>Benzyl=-tolyl</t>
+  </si>
+  <si>
+    <t>Isopropyl=sec-propyl</t>
+  </si>
+  <si>
+    <t>异丙基</t>
+  </si>
+  <si>
+    <t>vinyl</t>
+  </si>
+  <si>
+    <t>乙烯基</t>
+  </si>
+  <si>
+    <t>Sec-butyl</t>
+  </si>
+  <si>
+    <t>仲丁基</t>
+  </si>
+  <si>
+    <t>cyclohexyl</t>
+  </si>
+  <si>
+    <t>环己基</t>
+  </si>
+  <si>
+    <t>propenyl</t>
+  </si>
+  <si>
+    <t>丙烯基</t>
+  </si>
+  <si>
+    <t>Tert-butyl</t>
+  </si>
+  <si>
+    <t>叔丁基</t>
+  </si>
+  <si>
+    <t>isopropenyl</t>
+  </si>
+  <si>
+    <t>异丙烯基</t>
+  </si>
+  <si>
+    <t>Acetenyl=ethynyl</t>
+  </si>
+  <si>
+    <t>乙炔基</t>
+  </si>
+  <si>
+    <t>benzol</t>
+  </si>
+  <si>
+    <t>苯基</t>
+  </si>
+  <si>
+    <t>p-methylphenyl</t>
+  </si>
+  <si>
+    <t>对甲苯基</t>
+  </si>
+  <si>
+    <t>m-methylphenyl</t>
+  </si>
+  <si>
+    <t>间甲苯基</t>
+  </si>
+  <si>
+    <t>o-methylphenyl</t>
+  </si>
+  <si>
+    <t>邻甲苯基</t>
+  </si>
+  <si>
+    <t>o-nitrophenyl</t>
+  </si>
+  <si>
+    <t>邻硝基苯基</t>
+  </si>
+  <si>
+    <t>formyl</t>
+  </si>
+  <si>
+    <t>甲酰基</t>
+  </si>
+  <si>
+    <t>acetyl</t>
+  </si>
+  <si>
+    <t>乙酰基</t>
+  </si>
+  <si>
+    <t>benzoyl</t>
+  </si>
+  <si>
+    <t>carboxy</t>
+  </si>
+  <si>
+    <t>羧基</t>
+  </si>
+  <si>
+    <t>benzyloxycarbonyl</t>
+  </si>
+  <si>
+    <t>苄氧羰基</t>
+  </si>
+  <si>
+    <t>Tert-butoxycarbonyl</t>
+  </si>
+  <si>
+    <t>叔丁氧羰基</t>
+  </si>
+  <si>
+    <t>amino</t>
+  </si>
+  <si>
+    <t>Methylamino-</t>
+  </si>
+  <si>
+    <t>甲氨基</t>
+  </si>
+  <si>
+    <t>dimethylamino二甲氨基</t>
+  </si>
+  <si>
+    <t>diethylamino</t>
+  </si>
+  <si>
+    <t>二乙氨基</t>
+  </si>
+  <si>
+    <t>acetamido</t>
+  </si>
+  <si>
+    <t>乙酰氨基</t>
+  </si>
+  <si>
+    <t>benzyloxycarbonylamino</t>
+  </si>
+  <si>
+    <t>苄氧羰基氨基</t>
+  </si>
+  <si>
+    <t>nitro</t>
+  </si>
+  <si>
+    <t>硝基</t>
+  </si>
+  <si>
+    <t>hydroxy</t>
+  </si>
+  <si>
+    <t>羟基—OH</t>
+  </si>
+  <si>
+    <t>methoxy</t>
+  </si>
+  <si>
+    <t>甲氧基</t>
+  </si>
+  <si>
+    <t>benzyloxy</t>
+  </si>
+  <si>
+    <t>苄氧基</t>
+  </si>
+  <si>
+    <t>phenoxy</t>
+  </si>
+  <si>
+    <t>苯氧基</t>
+  </si>
+  <si>
+    <t>formyloxy</t>
+  </si>
+  <si>
+    <t>甲酰氧基</t>
+  </si>
+  <si>
+    <t>acetoxy</t>
+  </si>
+  <si>
+    <t>乙酰氧基</t>
+  </si>
+  <si>
+    <t>benzoyloxy</t>
+  </si>
+  <si>
+    <t>苯甲酰氧基</t>
+  </si>
+  <si>
+    <t>fluoro</t>
+  </si>
+  <si>
+    <t>氟基</t>
+  </si>
+  <si>
+    <t>Thiohydroxy=mercapto=sulfhydryl</t>
+  </si>
+  <si>
+    <t>巯基</t>
+  </si>
+  <si>
+    <t>Methylsulfonyl=mesyl</t>
+  </si>
+  <si>
+    <t>甲基磺酰基</t>
+  </si>
+  <si>
+    <t>sulfo</t>
+  </si>
+  <si>
+    <t>磺酸基</t>
+  </si>
+  <si>
+    <t>chloro</t>
+  </si>
+  <si>
+    <t>氯基</t>
+  </si>
+  <si>
+    <t>bromo</t>
+  </si>
+  <si>
+    <t>溴基</t>
+  </si>
+  <si>
+    <t>iodo</t>
+  </si>
+  <si>
+    <t>碘基</t>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-H</t>
+  </si>
+  <si>
+    <t>-C2H5</t>
+  </si>
+  <si>
+    <t>-CH3</t>
+  </si>
+  <si>
+    <t>-CH2CH(CH3)2</t>
+  </si>
+  <si>
+    <t>苯甲酰基-COPh</t>
+  </si>
+  <si>
+    <t>-N(CH3)2</t>
+  </si>
+  <si>
+    <t>-CH2-CH=CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH2C≡CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH2-Ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH(CH3)2</t>
+  </si>
+  <si>
+    <t>苄基(苯甲基)</t>
+  </si>
+  <si>
+    <t>氨基(伯氨基)</t>
+  </si>
+  <si>
+    <t>-CH=CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH=CH-CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-C(CH3)3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COOH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-COOC(CH3)3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NHCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-N(C2H5)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NHCOCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NHCOOCH2Ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-OCH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-OCH2Pd</t>
+  </si>
+  <si>
+    <t>-OPd</t>
+  </si>
+  <si>
+    <t>-OCOH</t>
+  </si>
+  <si>
+    <t>-OCOCH3</t>
+  </si>
+  <si>
+    <t>-OCOPd</t>
+  </si>
+  <si>
+    <t>-F</t>
+  </si>
+  <si>
+    <t>-SH</t>
+  </si>
+  <si>
+    <t>-SO2CH3</t>
+  </si>
+  <si>
+    <t>-SO3H</t>
+  </si>
+  <si>
+    <t>-Cl</t>
+  </si>
+  <si>
+    <t>-Br</t>
+  </si>
+  <si>
+    <t>-I</t>
+  </si>
+  <si>
+    <t>-C≡CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2C=C(CH3)C-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Al≡P</t>
+  </si>
+  <si>
+    <t>C≡C</t>
+  </si>
+  <si>
+    <t>C≡N</t>
+  </si>
+  <si>
+    <t>N≡N</t>
+  </si>
+  <si>
+    <t>{'N≡N':1}</t>
+  </si>
+  <si>
+    <t>{'N≡N':1,'N-O':1}</t>
+  </si>
+  <si>
+    <t>{'C-H':2,'C≡C':1}</t>
+  </si>
+  <si>
+    <t>{'C≡N':1,'C-H':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异丙基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CH(CH3)2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-C3H7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'F-F':1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>UUU</t>
+  </si>
+  <si>
+    <t>UUC</t>
+  </si>
+  <si>
+    <t>UUA</t>
+  </si>
+  <si>
+    <t>UUG</t>
+  </si>
+  <si>
+    <t>UCU</t>
+  </si>
+  <si>
+    <t>UCC</t>
+  </si>
+  <si>
+    <t>UCA</t>
+  </si>
+  <si>
+    <t>UCG</t>
+  </si>
+  <si>
+    <t>UAU</t>
+  </si>
+  <si>
+    <t>UAC</t>
+  </si>
+  <si>
+    <t>UAA</t>
+  </si>
+  <si>
+    <t>UAG</t>
+  </si>
+  <si>
+    <t>UGU</t>
+  </si>
+  <si>
+    <t>UGC</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UGG</t>
+  </si>
+  <si>
+    <t>CUU</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>CUA</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>CCG</t>
+  </si>
+  <si>
+    <t>CAU</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>CGU</t>
+  </si>
+  <si>
+    <t>CGC</t>
+  </si>
+  <si>
+    <t>CGA</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AUU</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>AUA</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>ACU</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>ACG</t>
+  </si>
+  <si>
+    <t>AAU</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>AAG</t>
+  </si>
+  <si>
+    <t>AGU</t>
+  </si>
+  <si>
+    <t>AGC</t>
+  </si>
+  <si>
+    <t>AGA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>GUU</t>
+  </si>
+  <si>
+    <t>GUC</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>GCU</t>
+  </si>
+  <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>GAU</t>
+  </si>
+  <si>
+    <t>GAC</t>
+  </si>
+  <si>
+    <t>GAA</t>
+  </si>
+  <si>
+    <t>GGU</t>
+  </si>
+  <si>
+    <t>GGC</t>
+  </si>
+  <si>
+    <t>GCA</t>
+  </si>
+  <si>
+    <t>GCG</t>
+  </si>
+  <si>
+    <t>GUG</t>
+  </si>
+  <si>
+    <t>GAG</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Leu</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>终止）</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>Trp</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>His</t>
+  </si>
+  <si>
+    <t>Gln</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>Asn</t>
+  </si>
+  <si>
+    <t>Lys</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Asp</t>
+  </si>
+  <si>
+    <t>Glu</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>codon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amino acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abbreviation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single lette</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chinese name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>丙氨酸</t>
-  </si>
-  <si>
-    <t>HN=C(NH2)-NH-(CH2)3-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>精氨酸</t>
-  </si>
-  <si>
-    <t>H2N-CO-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>天冬酰胺</t>
-  </si>
-  <si>
-    <t>HS-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>半胱氨酸</t>
-  </si>
-  <si>
-    <t>H2N-CO-(CH2)2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>谷氨酰胺</t>
-  </si>
-  <si>
-    <t>NH2-CH2-COOH</t>
-  </si>
-  <si>
-    <t>甘氨酸</t>
-  </si>
-  <si>
-    <t>NH-CH=N-CH=C-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>组氨酸</t>
-  </si>
-  <si>
-    <t>CH3-CH2-CH(CH3)-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>异亮氨酸</t>
-  </si>
-  <si>
-    <t>(CH3)2-CH-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>亮氨酸</t>
-  </si>
-  <si>
-    <t>CH3-S-(CH2)2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>Ph-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>苯丙氨酸</t>
-  </si>
-  <si>
-    <t>NH-(CH2)3-CH-COOH</t>
-  </si>
-  <si>
-    <t>脯氨酸</t>
-  </si>
-  <si>
-    <t>HO-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>丝氨酸</t>
-  </si>
-  <si>
-    <t>CH3-CH(OH)-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>苏氨酸</t>
-  </si>
-  <si>
-    <t>甲硫氨酸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ph-NH-CH=CH-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>色氨酸</t>
-  </si>
-  <si>
-    <t>HO-p-Ph-CH2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>酪氨酸</t>
-  </si>
-  <si>
-    <t>(CH3)2-CH-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>缬氨酸</t>
-  </si>
-  <si>
-    <t>Glutamic acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOOC-(CH2)2-CH(NH2)-COOH</t>
-  </si>
-  <si>
-    <t>谷氨酸</t>
-  </si>
-  <si>
-    <t>Aspartic acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>methyl</t>
-  </si>
-  <si>
-    <t>甲基</t>
-  </si>
-  <si>
-    <t>ethyl</t>
-  </si>
-  <si>
-    <t>乙基</t>
-  </si>
-  <si>
-    <t>(n-)propyl</t>
-  </si>
-  <si>
-    <t>正丙基</t>
-  </si>
-  <si>
-    <t>isopropyl</t>
-  </si>
-  <si>
-    <t>isobutyl</t>
-  </si>
-  <si>
-    <t>异丁基</t>
-  </si>
-  <si>
-    <t>allyl</t>
-  </si>
-  <si>
-    <t>烯丙基</t>
-  </si>
-  <si>
-    <t>2-propynyl</t>
-  </si>
-  <si>
-    <t>2-丙炔基</t>
-  </si>
-  <si>
-    <t>Benzyl=-tolyl</t>
-  </si>
-  <si>
-    <t>Isopropyl=sec-propyl</t>
-  </si>
-  <si>
-    <t>异丙基</t>
-  </si>
-  <si>
-    <t>vinyl</t>
-  </si>
-  <si>
-    <t>乙烯基</t>
-  </si>
-  <si>
-    <t>Sec-butyl</t>
-  </si>
-  <si>
-    <t>仲丁基</t>
-  </si>
-  <si>
-    <t>cyclohexyl</t>
-  </si>
-  <si>
-    <t>环己基</t>
-  </si>
-  <si>
-    <t>propenyl</t>
-  </si>
-  <si>
-    <t>丙烯基</t>
-  </si>
-  <si>
-    <t>Tert-butyl</t>
-  </si>
-  <si>
-    <t>叔丁基</t>
-  </si>
-  <si>
-    <t>isopropenyl</t>
-  </si>
-  <si>
-    <t>异丙烯基</t>
-  </si>
-  <si>
-    <t>Acetenyl=ethynyl</t>
-  </si>
-  <si>
-    <t>乙炔基</t>
-  </si>
-  <si>
-    <t>benzol</t>
-  </si>
-  <si>
-    <t>苯基</t>
-  </si>
-  <si>
-    <t>p-methylphenyl</t>
-  </si>
-  <si>
-    <t>对甲苯基</t>
-  </si>
-  <si>
-    <t>m-methylphenyl</t>
-  </si>
-  <si>
-    <t>间甲苯基</t>
-  </si>
-  <si>
-    <t>o-methylphenyl</t>
-  </si>
-  <si>
-    <t>邻甲苯基</t>
-  </si>
-  <si>
-    <t>o-nitrophenyl</t>
-  </si>
-  <si>
-    <t>邻硝基苯基</t>
-  </si>
-  <si>
-    <t>formyl</t>
-  </si>
-  <si>
-    <t>甲酰基</t>
-  </si>
-  <si>
-    <t>acetyl</t>
-  </si>
-  <si>
-    <t>乙酰基</t>
-  </si>
-  <si>
-    <t>benzoyl</t>
-  </si>
-  <si>
-    <t>carboxy</t>
-  </si>
-  <si>
-    <t>羧基</t>
-  </si>
-  <si>
-    <t>benzyloxycarbonyl</t>
-  </si>
-  <si>
-    <t>苄氧羰基</t>
-  </si>
-  <si>
-    <t>Tert-butoxycarbonyl</t>
-  </si>
-  <si>
-    <t>叔丁氧羰基</t>
-  </si>
-  <si>
-    <t>amino</t>
-  </si>
-  <si>
-    <t>Methylamino-</t>
-  </si>
-  <si>
-    <t>甲氨基</t>
-  </si>
-  <si>
-    <t>dimethylamino二甲氨基</t>
-  </si>
-  <si>
-    <t>diethylamino</t>
-  </si>
-  <si>
-    <t>二乙氨基</t>
-  </si>
-  <si>
-    <t>acetamido</t>
-  </si>
-  <si>
-    <t>乙酰氨基</t>
-  </si>
-  <si>
-    <t>benzyloxycarbonylamino</t>
-  </si>
-  <si>
-    <t>苄氧羰基氨基</t>
-  </si>
-  <si>
-    <t>nitro</t>
-  </si>
-  <si>
-    <t>硝基</t>
-  </si>
-  <si>
-    <t>hydroxy</t>
-  </si>
-  <si>
-    <t>羟基—OH</t>
-  </si>
-  <si>
-    <t>methoxy</t>
-  </si>
-  <si>
-    <t>甲氧基</t>
-  </si>
-  <si>
-    <t>benzyloxy</t>
-  </si>
-  <si>
-    <t>苄氧基</t>
-  </si>
-  <si>
-    <t>phenoxy</t>
-  </si>
-  <si>
-    <t>苯氧基</t>
-  </si>
-  <si>
-    <t>formyloxy</t>
-  </si>
-  <si>
-    <t>甲酰氧基</t>
-  </si>
-  <si>
-    <t>acetoxy</t>
-  </si>
-  <si>
-    <t>乙酰氧基</t>
-  </si>
-  <si>
-    <t>benzoyloxy</t>
-  </si>
-  <si>
-    <t>苯甲酰氧基</t>
-  </si>
-  <si>
-    <t>fluoro</t>
-  </si>
-  <si>
-    <t>氟基</t>
-  </si>
-  <si>
-    <t>Thiohydroxy=mercapto=sulfhydryl</t>
-  </si>
-  <si>
-    <t>巯基</t>
-  </si>
-  <si>
-    <t>Methylsulfonyl=mesyl</t>
-  </si>
-  <si>
-    <t>甲基磺酰基</t>
-  </si>
-  <si>
-    <t>sulfo</t>
-  </si>
-  <si>
-    <t>磺酸基</t>
-  </si>
-  <si>
-    <t>chloro</t>
-  </si>
-  <si>
-    <t>氯基</t>
-  </si>
-  <si>
-    <t>bromo</t>
-  </si>
-  <si>
-    <t>溴基</t>
-  </si>
-  <si>
-    <t>iodo</t>
-  </si>
-  <si>
-    <t>碘基</t>
-  </si>
-  <si>
-    <t>formula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氢基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-H</t>
-  </si>
-  <si>
-    <t>-C2H5</t>
-  </si>
-  <si>
-    <t>-CH3</t>
-  </si>
-  <si>
-    <t>-CH2CH(CH3)2</t>
-  </si>
-  <si>
-    <t>苯甲酰基-COPh</t>
-  </si>
-  <si>
-    <t>-N(CH3)2</t>
-  </si>
-  <si>
-    <t>-CH2-CH=CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-CH2C≡CH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-CH2-Ph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-CH(CH3)2</t>
-  </si>
-  <si>
-    <t>苄基(苯甲基)</t>
-  </si>
-  <si>
-    <t>氨基(伯氨基)</t>
-  </si>
-  <si>
-    <t>-CH=CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-CH=CH-CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-C(CH3)3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-COH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-COCH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-COOH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-COOC(CH3)3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-NH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-NHCH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-N(C2H5)2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-NHCOCH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-NHCOOCH2Ph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-NO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-OCH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-OCH2Pd</t>
-  </si>
-  <si>
-    <t>-OPd</t>
-  </si>
-  <si>
-    <t>-OCOH</t>
-  </si>
-  <si>
-    <t>-OCOCH3</t>
-  </si>
-  <si>
-    <t>-OCOPd</t>
-  </si>
-  <si>
-    <t>-F</t>
-  </si>
-  <si>
-    <t>-SH</t>
-  </si>
-  <si>
-    <t>-SO2CH3</t>
-  </si>
-  <si>
-    <t>-SO3H</t>
-  </si>
-  <si>
-    <t>-Cl</t>
-  </si>
-  <si>
-    <t>-Br</t>
-  </si>
-  <si>
-    <t>-I</t>
-  </si>
-  <si>
-    <t>-C≡CH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2C=C(CH3)C-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Al≡P</t>
-  </si>
-  <si>
-    <t>C≡C</t>
-  </si>
-  <si>
-    <t>C≡N</t>
-  </si>
-  <si>
-    <t>N≡N</t>
-  </si>
-  <si>
-    <t>{'N≡N':1}</t>
-  </si>
-  <si>
-    <t>{'N≡N':1,'N-O':1}</t>
-  </si>
-  <si>
-    <t>{'C-H':2,'C≡C':1}</t>
-  </si>
-  <si>
-    <t>{'C≡N':1,'C-H':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异丙基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-CH(CH3)2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-C3H7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'F-F':1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formula</t>
+    <t>{'C-C':'5n','C-H':'7n','C-O':'7n','H-O':'3n'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3938,7 +4224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3980,7 +4266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4015,7 +4301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4231,34 +4517,34 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="2.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="3.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.75" style="4"/>
+    <col min="7" max="7" width="17.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="2.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="3.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>732</v>
       </c>
@@ -4368,7 +4654,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4424,7 +4710,7 @@
       <c r="AI2" s="22"/>
       <c r="AJ2" s="24"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -4480,7 +4766,7 @@
       <c r="AI3" s="22"/>
       <c r="AJ3" s="24"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -4540,7 +4826,7 @@
       <c r="AI4" s="22"/>
       <c r="AJ4" s="24"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -4600,7 +4886,7 @@
       <c r="AI5" s="22"/>
       <c r="AJ5" s="24"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -4662,7 +4948,7 @@
       <c r="AI6" s="22"/>
       <c r="AJ6" s="24"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -4724,7 +5010,7 @@
       <c r="AI7" s="22"/>
       <c r="AJ7" s="24"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4786,7 +5072,7 @@
       <c r="AI8" s="22"/>
       <c r="AJ8" s="24"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -4848,7 +5134,7 @@
       <c r="AI9" s="22"/>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -4910,7 +5196,7 @@
       <c r="AI10" s="22"/>
       <c r="AJ10" s="24"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -4972,7 +5258,7 @@
       <c r="AI11" s="22"/>
       <c r="AJ11" s="24"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -5038,7 +5324,7 @@
       <c r="AI12" s="22"/>
       <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -5104,7 +5390,7 @@
       <c r="AI13" s="22"/>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -5172,7 +5458,7 @@
       <c r="AI14" s="22"/>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -5240,7 +5526,7 @@
       <c r="AI15" s="22"/>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -5308,7 +5594,7 @@
       <c r="AI16" s="22"/>
       <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -5376,7 +5662,7 @@
       <c r="AI17" s="22"/>
       <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -5444,7 +5730,7 @@
       <c r="AI18" s="22"/>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -5512,7 +5798,7 @@
       <c r="AI19" s="22"/>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -5584,7 +5870,7 @@
       <c r="AI20" s="22"/>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -5656,7 +5942,7 @@
       <c r="AI21" s="22"/>
       <c r="AJ21" s="24"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -5730,7 +6016,7 @@
       <c r="AI22" s="22"/>
       <c r="AJ22" s="24"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -5804,7 +6090,7 @@
       <c r="AI23" s="22"/>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5878,7 +6164,7 @@
       <c r="AI24" s="22"/>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5952,7 +6238,7 @@
       <c r="AI25" s="22"/>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -6026,7 +6312,7 @@
       <c r="AI26" s="22"/>
       <c r="AJ26" s="24"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -6100,7 +6386,7 @@
       <c r="AI27" s="22"/>
       <c r="AJ27" s="24"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -6174,7 +6460,7 @@
       <c r="AI28" s="22"/>
       <c r="AJ28" s="24"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -6248,7 +6534,7 @@
       <c r="AI29" s="22"/>
       <c r="AJ29" s="24"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -6322,7 +6608,7 @@
       <c r="AI30" s="22"/>
       <c r="AJ30" s="24"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -6396,7 +6682,7 @@
       <c r="AI31" s="22"/>
       <c r="AJ31" s="24"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -6472,7 +6758,7 @@
       <c r="AI32" s="22"/>
       <c r="AJ32" s="24"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -6548,7 +6834,7 @@
       <c r="AI33" s="22"/>
       <c r="AJ33" s="24"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -6624,7 +6910,7 @@
       <c r="AI34" s="22"/>
       <c r="AJ34" s="24"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -6700,7 +6986,7 @@
       <c r="AI35" s="22"/>
       <c r="AJ35" s="24"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -6776,7 +7062,7 @@
       <c r="AI36" s="22"/>
       <c r="AJ36" s="24"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -6852,7 +7138,7 @@
       <c r="AI37" s="22"/>
       <c r="AJ37" s="24"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -6932,7 +7218,7 @@
       <c r="AI38" s="22"/>
       <c r="AJ38" s="24"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -7012,7 +7298,7 @@
       <c r="AI39" s="22"/>
       <c r="AJ39" s="24"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -7094,7 +7380,7 @@
       <c r="AI40" s="22"/>
       <c r="AJ40" s="24"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -7176,7 +7462,7 @@
       <c r="AI41" s="22"/>
       <c r="AJ41" s="24"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>41</v>
       </c>
@@ -7258,7 +7544,7 @@
       <c r="AI42" s="22"/>
       <c r="AJ42" s="24"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -7340,7 +7626,7 @@
       <c r="AI43" s="22"/>
       <c r="AJ43" s="24"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -7422,7 +7708,7 @@
       <c r="AI44" s="22"/>
       <c r="AJ44" s="24"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -7504,7 +7790,7 @@
       <c r="AI45" s="22"/>
       <c r="AJ45" s="24"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -7586,7 +7872,7 @@
       <c r="AI46" s="22"/>
       <c r="AJ46" s="24"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -7664,7 +7950,7 @@
       <c r="AI47" s="22"/>
       <c r="AJ47" s="24"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -7746,7 +8032,7 @@
       <c r="AI48" s="22"/>
       <c r="AJ48" s="24"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -7828,7 +8114,7 @@
       <c r="AI49" s="22"/>
       <c r="AJ49" s="24"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -7912,7 +8198,7 @@
       <c r="AI50" s="22"/>
       <c r="AJ50" s="24"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -7996,7 +8282,7 @@
       <c r="AI51" s="22"/>
       <c r="AJ51" s="24"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -8080,7 +8366,7 @@
       <c r="AI52" s="22"/>
       <c r="AJ52" s="24"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -8164,7 +8450,7 @@
       <c r="AI53" s="22"/>
       <c r="AJ53" s="24"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -8248,7 +8534,7 @@
       <c r="AI54" s="22"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -8332,7 +8618,7 @@
       <c r="AI55" s="22"/>
       <c r="AJ55" s="24"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -8420,7 +8706,7 @@
       </c>
       <c r="AJ56" s="24"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -8508,7 +8794,7 @@
       </c>
       <c r="AJ57" s="24"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -8598,7 +8884,7 @@
       </c>
       <c r="AJ58" s="24"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -8690,7 +8976,7 @@
       </c>
       <c r="AJ59" s="24"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -8780,7 +9066,7 @@
       </c>
       <c r="AJ60" s="24"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -8870,7 +9156,7 @@
       </c>
       <c r="AJ61" s="24"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -8960,7 +9246,7 @@
       </c>
       <c r="AJ62" s="24"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>62</v>
       </c>
@@ -9050,7 +9336,7 @@
       </c>
       <c r="AJ63" s="24"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>63</v>
       </c>
@@ -9140,7 +9426,7 @@
       </c>
       <c r="AJ64" s="24"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>64</v>
       </c>
@@ -9232,7 +9518,7 @@
       </c>
       <c r="AJ65" s="24"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -9322,7 +9608,7 @@
       </c>
       <c r="AJ66" s="24"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -9412,7 +9698,7 @@
       </c>
       <c r="AJ67" s="24"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -9502,7 +9788,7 @@
       </c>
       <c r="AJ68" s="24"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>68</v>
       </c>
@@ -9592,7 +9878,7 @@
       </c>
       <c r="AJ69" s="24"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -9682,7 +9968,7 @@
       </c>
       <c r="AJ70" s="24"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -9772,7 +10058,7 @@
       </c>
       <c r="AJ71" s="24"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -9864,7 +10150,7 @@
       </c>
       <c r="AJ72" s="24"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>72</v>
       </c>
@@ -9956,7 +10242,7 @@
       </c>
       <c r="AJ73" s="24"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -10048,7 +10334,7 @@
       </c>
       <c r="AJ74" s="24"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -10140,7 +10426,7 @@
       </c>
       <c r="AJ75" s="24"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -10232,7 +10518,7 @@
       </c>
       <c r="AJ76" s="24"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>76</v>
       </c>
@@ -10324,7 +10610,7 @@
       </c>
       <c r="AJ77" s="24"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -10416,7 +10702,7 @@
       </c>
       <c r="AJ78" s="24"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -10508,7 +10794,7 @@
       </c>
       <c r="AJ79" s="24"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -10600,7 +10886,7 @@
       </c>
       <c r="AJ80" s="24"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -10692,7 +10978,7 @@
       </c>
       <c r="AJ81" s="24"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -10786,7 +11072,7 @@
       </c>
       <c r="AJ82" s="24"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -10880,7 +11166,7 @@
       </c>
       <c r="AJ83" s="24"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -10974,7 +11260,7 @@
       </c>
       <c r="AJ84" s="24"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -11068,7 +11354,7 @@
       </c>
       <c r="AJ85" s="24"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -11162,7 +11448,7 @@
       </c>
       <c r="AJ86" s="24"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -11256,7 +11542,7 @@
       </c>
       <c r="AJ87" s="24"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>87</v>
       </c>
@@ -11354,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -11452,7 +11738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -11552,7 +11838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>90</v>
       </c>
@@ -11652,7 +11938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -11754,7 +12040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -11856,7 +12142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -11958,7 +12244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -12058,7 +12344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -12158,7 +12444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -12260,7 +12546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <v>97</v>
       </c>
@@ -12360,7 +12646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -12460,7 +12746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -12560,7 +12846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -12660,7 +12946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -12760,7 +13046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -12860,7 +13146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <v>103</v>
       </c>
@@ -12962,7 +13248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -13064,7 +13350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -13166,7 +13452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <v>106</v>
       </c>
@@ -13268,7 +13554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -13370,7 +13656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -13472,7 +13758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -13574,7 +13860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>110</v>
       </c>
@@ -13676,7 +13962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -13778,7 +14064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -13880,7 +14166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -13984,7 +14270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <v>114</v>
       </c>
@@ -14088,7 +14374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -14192,7 +14478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -14296,7 +14582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -14400,7 +14686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>118</v>
       </c>
@@ -14519,14 +14805,14 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -14534,7 +14820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
@@ -14542,7 +14828,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>360</v>
       </c>
@@ -14550,7 +14836,7 @@
         <v>514.63200000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>361</v>
       </c>
@@ -14558,7 +14844,7 @@
         <v>372.37600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>362</v>
       </c>
@@ -14566,7 +14852,7 @@
         <v>543.92000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>359</v>
       </c>
@@ -14574,15 +14860,15 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B7" s="14">
         <v>212.5472</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>403</v>
       </c>
@@ -14590,7 +14876,7 @@
         <v>401.66399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>380</v>
       </c>
@@ -14598,7 +14884,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>381</v>
       </c>
@@ -14606,7 +14892,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -14614,7 +14900,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -14622,7 +14908,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -14630,7 +14916,7 @@
         <v>193.87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -14638,7 +14924,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
@@ -14646,7 +14932,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -14654,7 +14940,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
@@ -14662,7 +14948,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -14670,7 +14956,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
@@ -14678,7 +14964,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>388</v>
       </c>
@@ -14686,7 +14972,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>363</v>
       </c>
@@ -14694,7 +14980,7 @@
         <v>460.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>384</v>
       </c>
@@ -14702,7 +14988,7 @@
         <v>426.76800000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>365</v>
       </c>
@@ -14710,7 +14996,7 @@
         <v>552.28800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>364</v>
       </c>
@@ -14718,7 +15004,7 @@
         <v>418.40000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>119</v>
       </c>
@@ -14726,7 +15012,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -14734,7 +15020,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -14742,7 +15028,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -14750,7 +15036,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -14758,7 +15044,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -14766,7 +15052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -14774,7 +15060,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>385</v>
       </c>
@@ -14782,7 +15068,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -14790,7 +15076,7 @@
         <v>242.58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -14798,7 +15084,7 @@
         <v>431.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -14806,7 +15092,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -14814,7 +15100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -14822,7 +15108,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>120</v>
       </c>
@@ -14830,7 +15116,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -14838,7 +15124,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
@@ -14846,7 +15132,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>366</v>
       </c>
@@ -14854,7 +15140,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>405</v>
       </c>
@@ -14862,7 +15148,7 @@
         <v>368.19200000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>406</v>
       </c>
@@ -14870,23 +15156,23 @@
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B44" s="14">
         <v>812</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B45" s="14">
         <v>937</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>367</v>
       </c>
@@ -14894,7 +15180,7 @@
         <v>397.48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>407</v>
       </c>
@@ -14902,7 +15188,7 @@
         <v>313.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -14910,7 +15196,7 @@
         <v>156.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -14918,7 +15204,7 @@
         <v>568.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>373</v>
       </c>
@@ -14926,7 +15212,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -14934,7 +15220,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
@@ -14942,7 +15228,7 @@
         <v>498.7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>408</v>
       </c>
@@ -14950,7 +15236,7 @@
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -14958,7 +15244,7 @@
         <v>298.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -14966,7 +15252,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>426</v>
       </c>
@@ -14974,7 +15260,7 @@
         <v>50.207999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
@@ -14982,7 +15268,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
@@ -14990,7 +15276,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -14998,7 +15284,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
@@ -15006,7 +15292,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>368</v>
       </c>
@@ -15014,7 +15300,7 @@
         <v>338.904</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
@@ -15022,7 +15308,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>409</v>
       </c>
@@ -15030,7 +15316,7 @@
         <v>573.20799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
@@ -15038,7 +15324,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
@@ -15046,7 +15332,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>195</v>
       </c>
@@ -15054,7 +15340,7 @@
         <v>513.29999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>369</v>
       </c>
@@ -15062,7 +15348,7 @@
         <v>422.584</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>370</v>
       </c>
@@ -15070,7 +15356,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>410</v>
       </c>
@@ -15078,7 +15364,7 @@
         <v>259.40800000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>411</v>
       </c>
@@ -15086,7 +15372,7 @@
         <v>564.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>412</v>
       </c>
@@ -15094,7 +15380,7 @@
         <v>234.304</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>357</v>
       </c>
@@ -15102,7 +15388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -15110,7 +15396,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -15118,7 +15404,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
@@ -15126,7 +15412,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -15134,7 +15420,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -15142,7 +15428,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -15150,7 +15436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>123</v>
       </c>
@@ -15158,7 +15444,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>371</v>
       </c>
@@ -15166,7 +15452,7 @@
         <v>380.74400000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>372</v>
       </c>
@@ -15174,7 +15460,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>376</v>
       </c>
@@ -15182,7 +15468,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -15190,7 +15476,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>185</v>
       </c>
@@ -15198,7 +15484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -15206,7 +15492,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>27</v>
       </c>
@@ -15214,7 +15500,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>383</v>
       </c>
@@ -15222,15 +15508,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B88" s="14">
         <v>946</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -15238,7 +15524,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -15246,7 +15532,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -15254,7 +15540,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>377</v>
       </c>
@@ -15262,7 +15548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -15270,7 +15556,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>124</v>
       </c>
@@ -15278,7 +15564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>424</v>
       </c>
@@ -15286,7 +15572,7 @@
         <v>297.06400000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>425</v>
       </c>
@@ -15294,7 +15580,7 @@
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -15302,7 +15588,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>134</v>
       </c>
@@ -15310,7 +15596,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -15318,7 +15604,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -15326,7 +15612,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -15334,7 +15620,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>15</v>
       </c>
@@ -15342,7 +15628,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -15350,7 +15636,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>387</v>
       </c>
@@ -15358,7 +15644,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>135</v>
       </c>
@@ -15366,7 +15652,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>136</v>
       </c>
@@ -15374,7 +15660,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>137</v>
       </c>
@@ -15382,7 +15668,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>139</v>
       </c>
@@ -15390,7 +15676,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>140</v>
       </c>
@@ -15398,7 +15684,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>375</v>
       </c>
@@ -15406,7 +15692,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>141</v>
       </c>
@@ -15414,7 +15700,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>374</v>
       </c>
@@ -15422,7 +15708,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>19</v>
       </c>
@@ -15430,7 +15716,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -15438,7 +15724,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -15446,7 +15732,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>23</v>
       </c>
@@ -15454,7 +15740,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>378</v>
       </c>
@@ -15462,7 +15748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -15470,7 +15756,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>382</v>
       </c>
@@ -15478,7 +15764,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>379</v>
       </c>
@@ -15486,7 +15772,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>25</v>
       </c>
@@ -15494,7 +15780,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>138</v>
       </c>
@@ -15502,7 +15788,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
@@ -15510,7 +15796,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>421</v>
       </c>
@@ -15518,7 +15804,7 @@
         <v>364.00800000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>422</v>
       </c>
@@ -15526,7 +15812,7 @@
         <v>439.32</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>423</v>
       </c>
@@ -15534,7 +15820,7 @@
         <v>652.70400000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>419</v>
       </c>
@@ -15542,7 +15828,7 @@
         <v>748.93600000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>420</v>
       </c>
@@ -15550,7 +15836,7 @@
         <v>560.65600000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>417</v>
       </c>
@@ -15558,7 +15844,7 @@
         <v>309.61599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>418</v>
       </c>
@@ -15566,7 +15852,7 @@
         <v>661.072</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>416</v>
       </c>
@@ -15574,7 +15860,7 @@
         <v>129.70400000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>413</v>
       </c>
@@ -15582,7 +15868,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>414</v>
       </c>
@@ -15590,7 +15876,7 @@
         <v>376.56</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>415</v>
       </c>
@@ -15598,7 +15884,7 @@
         <v>200.83199999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>389</v>
       </c>
@@ -15606,7 +15892,7 @@
         <v>158.99200000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>390</v>
       </c>
@@ -15614,7 +15900,7 @@
         <v>188.28</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>391</v>
       </c>
@@ -15622,7 +15908,7 @@
         <v>215.476</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>404</v>
       </c>
@@ -15630,7 +15916,7 @@
         <v>292.88</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>446</v>
       </c>
@@ -15638,7 +15924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -15646,7 +15932,7 @@
         <v>190.37200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>393</v>
       </c>
@@ -15654,7 +15940,7 @@
         <v>236.81790000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>394</v>
       </c>
@@ -15662,7 +15948,7 @@
         <v>96.231999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>395</v>
       </c>
@@ -15670,7 +15956,7 @@
         <v>49.371200000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>396</v>
       </c>
@@ -15678,7 +15964,7 @@
         <v>104.60000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>284</v>
       </c>
@@ -15686,7 +15972,7 @@
         <v>83.846999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>397</v>
       </c>
@@ -15694,7 +15980,7 @@
         <v>72.383200000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>398</v>
       </c>
@@ -15702,7 +15988,7 @@
         <v>242.672</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>399</v>
       </c>
@@ -15710,7 +15996,7 @@
         <v>303.81</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>400</v>
       </c>
@@ -15729,27 +16015,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="22.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>516</v>
       </c>
@@ -15778,7 +16064,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>179</v>
       </c>
@@ -15804,7 +16090,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>476</v>
       </c>
@@ -15815,7 +16101,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>503</v>
       </c>
@@ -15826,7 +16112,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>67</v>
       </c>
@@ -15852,7 +16138,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>213</v>
       </c>
@@ -15863,7 +16149,7 @@
         <v>240</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E6" s="2">
         <v>2400</v>
@@ -15881,7 +16167,7 @@
         <v>0.79606891016022852</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>212</v>
       </c>
@@ -15892,7 +16178,7 @@
         <v>244</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E7" s="2">
         <v>2440</v>
@@ -15910,7 +16196,7 @@
         <v>0.58606651629604467</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>241</v>
       </c>
@@ -15921,7 +16207,7 @@
         <v>243</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E8" s="2">
         <v>3000</v>
@@ -15939,7 +16225,7 @@
         <v>0.78789131518402311</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>228</v>
       </c>
@@ -15965,7 +16251,7 @@
         <v>0.66109061402221958</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>182</v>
       </c>
@@ -15991,7 +16277,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -16017,7 +16303,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>176</v>
       </c>
@@ -16043,7 +16329,7 @@
         <v>0.65910000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -16069,7 +16355,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -16095,7 +16381,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -16121,7 +16407,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>392</v>
       </c>
@@ -16147,7 +16433,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>201</v>
       </c>
@@ -16158,7 +16444,7 @@
         <v>248</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E17" s="2">
         <v>2240</v>
@@ -16176,7 +16462,7 @@
         <v>1.4158377790716348</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>217</v>
       </c>
@@ -16187,7 +16473,7 @@
         <v>251</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E18" s="2">
         <v>2930</v>
@@ -16205,7 +16491,7 @@
         <v>0.87863999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>442</v>
       </c>
@@ -16216,7 +16502,7 @@
         <v>247</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E19" s="2">
         <v>2169</v>
@@ -16234,7 +16520,7 @@
         <v>1.6497880620837919</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>202</v>
       </c>
@@ -16245,7 +16531,7 @@
         <v>269</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E20" s="2">
         <v>2200</v>
@@ -16263,7 +16549,7 @@
         <v>0.8791228488246472</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>203</v>
       </c>
@@ -16274,7 +16560,7 @@
         <v>250</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E21" s="2">
         <v>3140</v>
@@ -16292,7 +16578,7 @@
         <v>1.1353563099031463</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>497</v>
       </c>
@@ -16303,7 +16589,7 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>200</v>
       </c>
@@ -16314,7 +16600,7 @@
         <v>255</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E23" s="2">
         <v>2360</v>
@@ -16332,7 +16618,7 @@
         <v>1.3959124382185175</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>198</v>
       </c>
@@ -16343,7 +16629,7 @@
         <v>252</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E24" s="2">
         <v>1086</v>
@@ -16361,7 +16647,7 @@
         <v>0.72243535324415098</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>199</v>
       </c>
@@ -16372,7 +16658,7 @@
         <v>254</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E25" s="2">
         <v>3180</v>
@@ -16390,7 +16676,7 @@
         <v>0.57983621973010036</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>229</v>
       </c>
@@ -16416,7 +16702,7 @@
         <v>0.62022216920268813</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>178</v>
       </c>
@@ -16442,7 +16728,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>502</v>
       </c>
@@ -16453,7 +16739,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>232</v>
       </c>
@@ -16479,7 +16765,7 @@
         <v>0.62075619203401167</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>76</v>
       </c>
@@ -16487,7 +16773,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E30" s="2">
         <v>1.554</v>
@@ -16505,7 +16791,7 @@
         <v>0.82389999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>177</v>
       </c>
@@ -16531,7 +16817,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>477</v>
       </c>
@@ -16542,7 +16828,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>478</v>
       </c>
@@ -16553,7 +16839,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>230</v>
       </c>
@@ -16579,7 +16865,7 @@
         <v>1.6420837840585196</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>231</v>
       </c>
@@ -16605,7 +16891,7 @@
         <v>1.940758400609909</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -16631,7 +16917,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -16660,7 +16946,7 @@
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>173</v>
       </c>
@@ -16671,7 +16957,7 @@
         <v>260</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E38" s="2">
         <v>1.1890000000000001</v>
@@ -16689,7 +16975,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>305</v>
       </c>
@@ -16718,7 +17004,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>226</v>
       </c>
@@ -16747,7 +17033,7 @@
         <v>0.79458000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -16755,7 +17041,7 @@
         <v>162</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>191</v>
@@ -16776,7 +17062,7 @@
         <v>0.5697879031834302</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>466</v>
       </c>
@@ -16805,7 +17091,7 @@
         <v>3.222</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>218</v>
       </c>
@@ -16828,7 +17114,7 @@
         <v>5.2275000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -16854,7 +17140,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>233</v>
       </c>
@@ -16880,7 +17166,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>208</v>
       </c>
@@ -16909,7 +17195,7 @@
         <v>1.4914384287497624</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>209</v>
       </c>
@@ -16938,7 +17224,7 @@
         <v>0.88783223074323669</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>204</v>
       </c>
@@ -16967,7 +17253,7 @@
         <v>1.0803616347544793</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>206</v>
       </c>
@@ -16996,7 +17282,7 @@
         <v>1.0565045108229185</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>210</v>
       </c>
@@ -17025,7 +17311,7 @@
         <v>1.0849318506974142</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>498</v>
       </c>
@@ -17036,7 +17322,7 @@
       </c>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>207</v>
       </c>
@@ -17065,7 +17351,7 @@
         <v>1.4942978880056739</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -17094,7 +17380,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>205</v>
       </c>
@@ -17123,7 +17409,7 @@
         <v>1.7121280264193122</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>194</v>
       </c>
@@ -17149,7 +17435,7 @@
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>481</v>
       </c>
@@ -17160,7 +17446,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>211</v>
       </c>
@@ -17189,7 +17475,7 @@
         <v>1.7298136019301498</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>499</v>
       </c>
@@ -17200,7 +17486,7 @@
       </c>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>284</v>
       </c>
@@ -17226,7 +17512,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>480</v>
       </c>
@@ -17237,7 +17523,7 @@
       </c>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>227</v>
       </c>
@@ -17263,7 +17549,7 @@
         <v>0.71663173855209439</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
@@ -17271,7 +17557,7 @@
         <v>84</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E62" s="2">
         <v>1.25</v>
@@ -17289,7 +17575,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>197</v>
       </c>
@@ -17297,7 +17583,7 @@
         <v>341</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E63" s="2">
         <v>1.22</v>
@@ -17315,7 +17601,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -17341,7 +17627,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -17367,7 +17653,7 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>234</v>
       </c>
@@ -17393,7 +17679,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>479</v>
       </c>
@@ -17404,7 +17690,7 @@
       </c>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>291</v>
       </c>
@@ -17433,7 +17719,7 @@
         <v>1.5784756084082265</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>292</v>
       </c>
@@ -17462,7 +17748,7 @@
         <v>1.9432352494828293</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>500</v>
       </c>
@@ -17473,7 +17759,7 @@
       </c>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>501</v>
       </c>
@@ -17484,7 +17770,7 @@
       </c>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>49</v>
       </c>
@@ -17513,7 +17799,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
@@ -17539,7 +17825,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>356</v>
       </c>
@@ -17568,7 +17854,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>215</v>
       </c>
@@ -17579,7 +17865,7 @@
         <v>236</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E75" s="2">
         <v>2200</v>
@@ -17597,7 +17883,7 @@
         <v>1.1176930318083564</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>151</v>
       </c>
@@ -17626,7 +17912,7 @@
         <v>1.1367072050884368</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>196</v>
       </c>
@@ -17655,7 +17941,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>216</v>
       </c>
@@ -17684,7 +17970,7 @@
         <v>1.6930000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>214</v>
       </c>
@@ -17713,7 +17999,7 @@
         <v>1.2435766847482452</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>39</v>
       </c>
@@ -17739,7 +18025,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
@@ -17765,7 +18051,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
@@ -17791,7 +18077,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>149</v>
       </c>
@@ -17817,7 +18103,7 @@
         <v>0.64557633195798869</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>183</v>
       </c>
@@ -17840,7 +18126,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>181</v>
       </c>
@@ -17863,7 +18149,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>144</v>
       </c>
@@ -17889,7 +18175,7 @@
         <v>0.7527600000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
@@ -17915,7 +18201,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>235</v>
       </c>
@@ -17941,7 +18227,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>55</v>
       </c>
@@ -17967,7 +18253,7 @@
         <v>0.83640000000000014</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
@@ -17993,7 +18279,7 @@
         <v>2.1560000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>221</v>
       </c>
@@ -18019,7 +18305,7 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>174</v>
       </c>
@@ -18045,7 +18331,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>351</v>
       </c>
@@ -18071,7 +18357,7 @@
         <v>1.548</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>175</v>
       </c>
@@ -18079,7 +18365,7 @@
         <v>245</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E94" s="2">
         <v>1.1747000000000001</v>
@@ -18097,7 +18383,7 @@
         <v>1.5109999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>473</v>
       </c>
@@ -18123,7 +18409,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>488</v>
       </c>
@@ -18137,7 +18423,7 @@
       <c r="H96" s="13"/>
       <c r="I96" s="11"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>493</v>
       </c>
@@ -18158,7 +18444,7 @@
       </c>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>517</v>
       </c>
@@ -18184,7 +18470,7 @@
         <v>4.1867999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>518</v>
       </c>
@@ -18207,7 +18493,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>519</v>
       </c>
@@ -18230,7 +18516,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>520</v>
       </c>
@@ -18256,7 +18542,7 @@
         <v>3.7679999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>521</v>
       </c>
@@ -18270,7 +18556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>522</v>
       </c>
@@ -18284,7 +18570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>492</v>
       </c>
@@ -18292,11 +18578,11 @@
         <v>491</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>776</v>
       </c>
@@ -18304,7 +18590,7 @@
         <v>495</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>778</v>
+        <v>1160</v>
       </c>
       <c r="E105" s="2">
         <v>1500</v>
@@ -18316,7 +18602,7 @@
         <v>357.8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>775</v>
       </c>
@@ -18324,21 +18610,21 @@
         <v>496</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>778</v>
+        <v>1160</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F106" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E107" s="2">
         <v>1263.6199999999999</v>
@@ -18350,68 +18636,68 @@
         <v>290.89999999999998</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I107" s="2">
         <v>2.46</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="B111" s="7" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="B114" s="7" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -18429,528 +18715,528 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>918</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C2" s="30" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>922</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>923</v>
+      </c>
+      <c r="B7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>919</v>
-      </c>
-      <c r="B3" t="s">
-        <v>920</v>
-      </c>
-      <c r="C3" s="30" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B8" t="s">
+        <v>926</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B9" t="s">
+        <v>928</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>929</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B11" t="s">
+        <v>931</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>932</v>
+      </c>
+      <c r="B12" t="s">
+        <v>933</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>934</v>
+      </c>
+      <c r="B13" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>936</v>
+      </c>
+      <c r="B14" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>938</v>
+      </c>
+      <c r="B15" t="s">
+        <v>939</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>940</v>
+      </c>
+      <c r="B16" t="s">
+        <v>941</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>942</v>
+      </c>
+      <c r="B17" t="s">
+        <v>943</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>944</v>
+      </c>
+      <c r="B18" t="s">
+        <v>945</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>946</v>
+      </c>
+      <c r="B19" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>948</v>
+      </c>
+      <c r="B20" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>950</v>
+      </c>
+      <c r="B21" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>952</v>
+      </c>
+      <c r="B22" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>954</v>
+      </c>
+      <c r="B23" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>956</v>
+      </c>
+      <c r="B24" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>958</v>
+      </c>
+      <c r="B25" t="s">
+        <v>959</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>960</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>961</v>
+      </c>
+      <c r="B27" t="s">
+        <v>962</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>963</v>
+      </c>
+      <c r="B28" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>965</v>
+      </c>
+      <c r="B29" t="s">
+        <v>966</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>967</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>968</v>
+      </c>
+      <c r="B31" t="s">
+        <v>969</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>970</v>
+      </c>
+      <c r="B32" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B4" t="s">
-        <v>922</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>923</v>
-      </c>
-      <c r="B5" t="s">
-        <v>924</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>925</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>926</v>
-      </c>
-      <c r="B7" t="s">
-        <v>927</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>928</v>
-      </c>
-      <c r="B8" t="s">
-        <v>929</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>930</v>
-      </c>
-      <c r="B9" t="s">
-        <v>931</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>932</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>933</v>
-      </c>
-      <c r="B11" t="s">
-        <v>934</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>935</v>
-      </c>
-      <c r="B12" t="s">
-        <v>936</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>937</v>
-      </c>
-      <c r="B13" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>939</v>
-      </c>
-      <c r="B14" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>941</v>
-      </c>
-      <c r="B15" t="s">
-        <v>942</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>943</v>
-      </c>
-      <c r="B16" t="s">
-        <v>944</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" t="s">
-        <v>946</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>947</v>
-      </c>
-      <c r="B18" t="s">
-        <v>948</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>949</v>
-      </c>
-      <c r="B19" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>951</v>
-      </c>
-      <c r="B20" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>953</v>
-      </c>
-      <c r="B21" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>955</v>
-      </c>
-      <c r="B22" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>957</v>
-      </c>
-      <c r="B23" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>959</v>
-      </c>
-      <c r="B24" t="s">
-        <v>960</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>961</v>
-      </c>
-      <c r="B25" t="s">
-        <v>962</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>963</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>964</v>
-      </c>
-      <c r="B27" t="s">
-        <v>965</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>966</v>
-      </c>
-      <c r="B28" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>968</v>
-      </c>
-      <c r="B29" t="s">
-        <v>969</v>
-      </c>
-      <c r="C29" s="30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>971</v>
+      </c>
+      <c r="B33" t="s">
+        <v>972</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>970</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C30" s="30" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>973</v>
+      </c>
+      <c r="B34" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>971</v>
-      </c>
-      <c r="B31" t="s">
-        <v>972</v>
-      </c>
-      <c r="C31" s="30" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>975</v>
+      </c>
+      <c r="B35" t="s">
+        <v>976</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>973</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>974</v>
-      </c>
-      <c r="B33" t="s">
-        <v>975</v>
-      </c>
-      <c r="C33" s="30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>977</v>
+      </c>
+      <c r="B36" t="s">
+        <v>978</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>976</v>
-      </c>
-      <c r="B34" t="s">
-        <v>977</v>
-      </c>
-      <c r="C34" s="30" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>979</v>
+      </c>
+      <c r="B37" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>981</v>
+      </c>
+      <c r="B38" t="s">
+        <v>982</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>978</v>
-      </c>
-      <c r="B35" t="s">
-        <v>979</v>
-      </c>
-      <c r="C35" s="30" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>983</v>
+      </c>
+      <c r="B39" t="s">
+        <v>984</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>980</v>
-      </c>
-      <c r="B36" t="s">
-        <v>981</v>
-      </c>
-      <c r="C36" s="30" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>985</v>
+      </c>
+      <c r="B40" t="s">
+        <v>986</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>982</v>
-      </c>
-      <c r="B37" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>984</v>
-      </c>
-      <c r="B38" t="s">
-        <v>985</v>
-      </c>
-      <c r="C38" s="30" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>987</v>
+      </c>
+      <c r="B41" t="s">
+        <v>988</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>986</v>
-      </c>
-      <c r="B39" t="s">
-        <v>987</v>
-      </c>
-      <c r="C39" s="30" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>989</v>
+      </c>
+      <c r="B42" t="s">
+        <v>990</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>988</v>
-      </c>
-      <c r="B40" t="s">
-        <v>989</v>
-      </c>
-      <c r="C40" s="30" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>991</v>
+      </c>
+      <c r="B43" t="s">
+        <v>992</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>990</v>
-      </c>
-      <c r="B41" t="s">
-        <v>991</v>
-      </c>
-      <c r="C41" s="30" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>993</v>
+      </c>
+      <c r="B44" t="s">
+        <v>994</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>992</v>
-      </c>
-      <c r="B42" t="s">
-        <v>993</v>
-      </c>
-      <c r="C42" s="30" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>995</v>
+      </c>
+      <c r="B45" t="s">
+        <v>996</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>994</v>
-      </c>
-      <c r="B43" t="s">
-        <v>995</v>
-      </c>
-      <c r="C43" s="30" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>997</v>
+      </c>
+      <c r="B46" t="s">
+        <v>998</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>996</v>
-      </c>
-      <c r="B44" t="s">
-        <v>997</v>
-      </c>
-      <c r="C44" s="30" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>998</v>
-      </c>
-      <c r="B45" t="s">
-        <v>999</v>
-      </c>
-      <c r="C45" s="30" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C46" s="30" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C47" s="30" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>1046</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -18962,378 +19248,375 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1" t="s">
         <v>876</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E3" t="s">
         <v>879</v>
       </c>
-      <c r="C1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>813</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" t="s">
+        <v>820</v>
+      </c>
+      <c r="E4" t="s">
         <v>881</v>
       </c>
-      <c r="C2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E2" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C5" t="s">
+        <v>821</v>
+      </c>
+      <c r="D5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B6" t="s">
+        <v>884</v>
+      </c>
+      <c r="C6" t="s">
+        <v>826</v>
+      </c>
+      <c r="D6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E6" t="s">
         <v>883</v>
       </c>
-      <c r="C3" t="s">
-        <v>817</v>
-      </c>
-      <c r="D3" t="s">
-        <v>818</v>
-      </c>
-      <c r="E3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>819</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B7" t="s">
+        <v>886</v>
+      </c>
+      <c r="C7" t="s">
+        <v>829</v>
+      </c>
+      <c r="D7" t="s">
+        <v>830</v>
+      </c>
+      <c r="E7" t="s">
         <v>885</v>
       </c>
-      <c r="C4" t="s">
-        <v>820</v>
-      </c>
-      <c r="D4" t="s">
-        <v>821</v>
-      </c>
-      <c r="E4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>917</v>
-      </c>
-      <c r="B5" t="s">
-        <v>825</v>
-      </c>
-      <c r="C5" t="s">
-        <v>822</v>
-      </c>
-      <c r="D5" t="s">
-        <v>823</v>
-      </c>
-      <c r="E5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>826</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C8" t="s">
+        <v>831</v>
+      </c>
+      <c r="D8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E8" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>833</v>
+      </c>
+      <c r="B9" t="s">
+        <v>888</v>
+      </c>
+      <c r="C9" t="s">
+        <v>834</v>
+      </c>
+      <c r="D9" t="s">
+        <v>835</v>
+      </c>
+      <c r="E9" t="s">
         <v>887</v>
       </c>
-      <c r="C6" t="s">
-        <v>827</v>
-      </c>
-      <c r="D6" t="s">
-        <v>828</v>
-      </c>
-      <c r="E6" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>829</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>836</v>
+      </c>
+      <c r="B10" t="s">
+        <v>890</v>
+      </c>
+      <c r="C10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D10" t="s">
+        <v>838</v>
+      </c>
+      <c r="E10" t="s">
         <v>889</v>
       </c>
-      <c r="C7" t="s">
-        <v>830</v>
-      </c>
-      <c r="D7" t="s">
-        <v>831</v>
-      </c>
-      <c r="E7" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>914</v>
-      </c>
-      <c r="B8" t="s">
-        <v>916</v>
-      </c>
-      <c r="C8" t="s">
-        <v>832</v>
-      </c>
-      <c r="D8" t="s">
-        <v>833</v>
-      </c>
-      <c r="E8" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>834</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C11" t="s">
+        <v>840</v>
+      </c>
+      <c r="D11" t="s">
+        <v>841</v>
+      </c>
+      <c r="E11" t="s">
         <v>891</v>
       </c>
-      <c r="C9" t="s">
-        <v>835</v>
-      </c>
-      <c r="D9" t="s">
-        <v>836</v>
-      </c>
-      <c r="E9" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>837</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B12" t="s">
+        <v>894</v>
+      </c>
+      <c r="C12" t="s">
+        <v>843</v>
+      </c>
+      <c r="D12" t="s">
+        <v>844</v>
+      </c>
+      <c r="E12" t="s">
         <v>893</v>
       </c>
-      <c r="C10" t="s">
-        <v>838</v>
-      </c>
-      <c r="D10" t="s">
-        <v>839</v>
-      </c>
-      <c r="E10" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>840</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>845</v>
+      </c>
+      <c r="B13" t="s">
+        <v>849</v>
+      </c>
+      <c r="C13" t="s">
+        <v>846</v>
+      </c>
+      <c r="D13" t="s">
+        <v>847</v>
+      </c>
+      <c r="E13" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>850</v>
+      </c>
+      <c r="B14" t="s">
+        <v>904</v>
+      </c>
+      <c r="C14" t="s">
+        <v>851</v>
+      </c>
+      <c r="D14" t="s">
+        <v>852</v>
+      </c>
+      <c r="E14" t="s">
         <v>895</v>
       </c>
-      <c r="C11" t="s">
-        <v>841</v>
-      </c>
-      <c r="D11" t="s">
-        <v>842</v>
-      </c>
-      <c r="E11" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>843</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>853</v>
+      </c>
+      <c r="B15" t="s">
         <v>897</v>
       </c>
-      <c r="C12" t="s">
-        <v>844</v>
-      </c>
-      <c r="D12" t="s">
-        <v>845</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C15" t="s">
+        <v>854</v>
+      </c>
+      <c r="D15" t="s">
+        <v>855</v>
+      </c>
+      <c r="E15" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>846</v>
-      </c>
-      <c r="B13" t="s">
-        <v>850</v>
-      </c>
-      <c r="C13" t="s">
-        <v>847</v>
-      </c>
-      <c r="D13" t="s">
-        <v>848</v>
-      </c>
-      <c r="E13" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>851</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>856</v>
+      </c>
+      <c r="B16" t="s">
+        <v>899</v>
+      </c>
+      <c r="C16" t="s">
+        <v>857</v>
+      </c>
+      <c r="D16" t="s">
+        <v>858</v>
+      </c>
+      <c r="E16" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>859</v>
+      </c>
+      <c r="B17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C17" t="s">
+        <v>860</v>
+      </c>
+      <c r="D17" t="s">
+        <v>861</v>
+      </c>
+      <c r="E17" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>862</v>
+      </c>
+      <c r="B18" t="s">
+        <v>903</v>
+      </c>
+      <c r="C18" t="s">
+        <v>863</v>
+      </c>
+      <c r="D18" t="s">
+        <v>864</v>
+      </c>
+      <c r="E18" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>865</v>
+      </c>
+      <c r="B19" t="s">
+        <v>906</v>
+      </c>
+      <c r="C19" t="s">
+        <v>866</v>
+      </c>
+      <c r="D19" t="s">
+        <v>867</v>
+      </c>
+      <c r="E19" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>868</v>
+      </c>
+      <c r="B20" t="s">
+        <v>908</v>
+      </c>
+      <c r="C20" t="s">
+        <v>869</v>
+      </c>
+      <c r="D20" t="s">
+        <v>870</v>
+      </c>
+      <c r="E20" t="s">
         <v>907</v>
       </c>
-      <c r="C14" t="s">
-        <v>852</v>
-      </c>
-      <c r="D14" t="s">
-        <v>853</v>
-      </c>
-      <c r="E14" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>854</v>
-      </c>
-      <c r="B15" t="s">
-        <v>900</v>
-      </c>
-      <c r="C15" t="s">
-        <v>855</v>
-      </c>
-      <c r="D15" t="s">
-        <v>856</v>
-      </c>
-      <c r="E15" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>857</v>
-      </c>
-      <c r="B16" t="s">
-        <v>902</v>
-      </c>
-      <c r="C16" t="s">
-        <v>858</v>
-      </c>
-      <c r="D16" t="s">
-        <v>859</v>
-      </c>
-      <c r="E16" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>860</v>
-      </c>
-      <c r="B17" t="s">
-        <v>904</v>
-      </c>
-      <c r="C17" t="s">
-        <v>861</v>
-      </c>
-      <c r="D17" t="s">
-        <v>862</v>
-      </c>
-      <c r="E17" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>863</v>
-      </c>
-      <c r="B18" t="s">
-        <v>906</v>
-      </c>
-      <c r="C18" t="s">
-        <v>864</v>
-      </c>
-      <c r="D18" t="s">
-        <v>865</v>
-      </c>
-      <c r="E18" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>866</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>871</v>
+      </c>
+      <c r="B21" t="s">
+        <v>910</v>
+      </c>
+      <c r="C21" t="s">
+        <v>872</v>
+      </c>
+      <c r="D21" t="s">
+        <v>873</v>
+      </c>
+      <c r="E21" t="s">
         <v>909</v>
-      </c>
-      <c r="C19" t="s">
-        <v>867</v>
-      </c>
-      <c r="D19" t="s">
-        <v>868</v>
-      </c>
-      <c r="E19" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>869</v>
-      </c>
-      <c r="B20" t="s">
-        <v>911</v>
-      </c>
-      <c r="C20" t="s">
-        <v>870</v>
-      </c>
-      <c r="D20" t="s">
-        <v>871</v>
-      </c>
-      <c r="E20" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>872</v>
-      </c>
-      <c r="B21" t="s">
-        <v>913</v>
-      </c>
-      <c r="C21" t="s">
-        <v>873</v>
-      </c>
-      <c r="D21" t="s">
-        <v>874</v>
-      </c>
-      <c r="E21" t="s">
-        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -19345,21 +19628,757 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -19370,7 +20389,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>447</v>
       </c>
@@ -19381,7 +20400,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>440</v>
       </c>
@@ -19392,7 +20411,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>441</v>
       </c>
@@ -19403,7 +20422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>164</v>
       </c>
@@ -19414,7 +20433,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>439</v>
       </c>
@@ -19425,7 +20444,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
@@ -19436,7 +20455,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
@@ -19447,7 +20466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
@@ -19458,7 +20477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>443</v>
       </c>
@@ -19469,7 +20488,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>464</v>
       </c>
@@ -19480,7 +20499,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>465</v>
       </c>
@@ -19491,7 +20510,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>444</v>
       </c>
@@ -19502,7 +20521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>445</v>
       </c>
@@ -19513,7 +20532,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>167</v>
       </c>
@@ -19524,7 +20543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>147</v>
       </c>
@@ -19535,7 +20554,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>438</v>
       </c>
@@ -19546,7 +20565,7 @@
         <v>-4.41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>168</v>
       </c>
@@ -19557,7 +20576,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -19568,7 +20587,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>169</v>
       </c>
@@ -19579,7 +20598,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -19590,7 +20609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>225</v>
       </c>
@@ -19601,7 +20620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>468</v>
       </c>
@@ -19612,7 +20631,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>186</v>
       </c>
@@ -19623,7 +20642,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>471</v>
       </c>
@@ -19641,7 +20660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -19649,17 +20668,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -19676,7 +20695,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>455</v>
       </c>
@@ -19684,7 +20703,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>459</v>
       </c>
@@ -19692,7 +20711,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>506</v>
       </c>
@@ -19710,7 +20729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>508</v>
       </c>
@@ -19718,7 +20737,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>513</v>
       </c>
@@ -19726,12 +20745,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>515</v>
       </c>
@@ -19739,7 +20758,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -19747,7 +20766,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>462</v>
       </c>
@@ -19755,7 +20774,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>461</v>
       </c>
@@ -19763,7 +20782,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>463</v>
       </c>
@@ -19771,14 +20790,14 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
   </sheetData>
